--- a/InputData/fuels/FoPTaFbIC/Fractions of Products That are Fuels by ISIC Code.xlsx
+++ b/InputData/fuels/FoPTaFbIC/Fractions of Products That are Fuels by ISIC Code.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\fuels\FoOTiFbIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swenzel\Dropbox (Energy Innovation)\My PC (energy044)\Documents\GitHub_Repositories\eps-eu\InputData\fuels\FoPTaFbIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0995BCD-A5B7-4361-8CA0-8E83006DC5A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015B15EF-1F55-4684-A888-12C496438821}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20130" yWindow="510" windowWidth="28755" windowHeight="18330" xr2:uid="{F6CE9DA5-55F4-41A4-B2DF-42B93A081FDC}"/>
+    <workbookView xWindow="12600" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{F6CE9DA5-55F4-41A4-B2DF-42B93A081FDC}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="762">
   <si>
     <t>ISIC 01T03</t>
   </si>
@@ -2323,6 +2323,9 @@
   </si>
   <si>
     <t>Energy carriers such as electricity and heat are considered fuels in this variable.</t>
+  </si>
+  <si>
+    <t>Leave US data for EU. Fractions are likely to be very comparable.</t>
   </si>
 </sst>
 </file>
@@ -2330,9 +2333,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="166" formatCode="0.0%"/>
-    <numFmt numFmtId="167" formatCode="#,##0.0"/>
-    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -2674,37 +2677,23 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="9" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="8" xfId="6" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="8" xfId="6" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="6" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="8" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="9" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="7" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="8" xfId="6" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -2752,7 +2741,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -2760,7 +2749,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2778,6 +2767,20 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="8" applyFont="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="7" applyFont="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="9" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Body: normal cell" xfId="7" xr:uid="{E2984EBF-F692-4FC7-9D46-6135EB3B8054}"/>
@@ -3101,23 +3104,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BF1AF1-16D6-4071-BA45-CF67A3892B53}">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="36.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.7265625" customWidth="1"/>
+    <col min="2" max="2" width="22.40625" customWidth="1"/>
+    <col min="3" max="3" width="36.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A3" s="1" t="s">
         <v>745</v>
       </c>
@@ -3125,154 +3130,140 @@
         <v>510</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="43">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B4" s="37">
         <v>2021</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B5" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="44" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B6" s="38" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B7" s="7" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="56" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B9" s="50" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="44"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B10" s="38"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A11" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A20" s="7" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A21" s="7"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A22" s="31" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A24" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B24" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C24" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A25" t="s">
         <v>54</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B25" t="s">
         <v>24</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C25" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A26" t="s">
         <v>55</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B26" t="s">
         <v>1</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C26" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A27" t="s">
         <v>56</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B27" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C27" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A28" t="s">
         <v>57</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B28" t="s">
         <v>3</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C28" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A29" t="s">
         <v>58</v>
-      </c>
-      <c r="B27" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>59</v>
-      </c>
-      <c r="B28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>60</v>
       </c>
       <c r="B29" t="s">
         <v>24</v>
@@ -3281,42 +3272,42 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A32" t="s">
         <v>61</v>
       </c>
-      <c r="B30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A33" t="s">
         <v>62</v>
-      </c>
-      <c r="B31" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>64</v>
       </c>
       <c r="B33" t="s">
         <v>9</v>
@@ -3325,9 +3316,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A34" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B34" t="s">
         <v>9</v>
@@ -3336,9 +3327,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A35" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B35" t="s">
         <v>9</v>
@@ -3347,97 +3338,119 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A36" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A37" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A38" t="s">
         <v>67</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B38" t="s">
         <v>25</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C38" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A39" t="s">
         <v>68</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B39" t="s">
         <v>24</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C39" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A40" t="s">
         <v>69</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B40" t="s">
         <v>1</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C40" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A41" t="s">
         <v>70</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B41" t="s">
         <v>2</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C41" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A42" t="s">
         <v>71</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B42" t="s">
         <v>9</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C42" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A43" t="s">
         <v>72</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B43" t="s">
         <v>9</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C43" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A44" t="s">
         <v>73</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B44" t="s">
         <v>25</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C44" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A45" t="s">
         <v>53</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B45" t="s">
         <v>25</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C45" t="s">
         <v>81</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3450,184 +3463,184 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="2" max="2" width="36.7265625" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="36.28515625" customWidth="1"/>
-    <col min="5" max="5" width="29.7109375" customWidth="1"/>
+    <col min="4" max="4" width="36.26953125" customWidth="1"/>
+    <col min="5" max="5" width="29.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A3" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="47" t="s">
         <v>84</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A4" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="54">
+      <c r="C4" s="48">
         <f>C28</f>
         <v>1.9489548742856831E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A5" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="55">
+      <c r="C5" s="49">
         <v>1</v>
       </c>
       <c r="D5" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A6" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="55">
+      <c r="C6" s="49">
         <v>1</v>
       </c>
       <c r="D6" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A7" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="54">
+      <c r="C7" s="48">
         <f>C23</f>
         <v>8.956623664122991E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="54">
+      <c r="C8" s="48">
         <f>C18</f>
         <v>0.95739828013853945</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A9" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="55">
+      <c r="C9" s="49">
         <v>1</v>
       </c>
       <c r="D9" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A10" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="55">
+      <c r="C10" s="49">
         <v>1</v>
       </c>
       <c r="D10" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="47" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A15" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="48"/>
-      <c r="D15" s="51" t="s">
+      <c r="C15" s="42"/>
+      <c r="D15" s="45" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="37" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A16" s="31" t="s">
         <v>292</v>
       </c>
-      <c r="C16" s="42">
+      <c r="C16" s="36">
         <f>SUM('AEO T6 High Oil &amp; Gas Case'!C103,'AEO T6 High Oil &amp; Gas Case'!C105)/'AEO T6 High Oil &amp; Gas Case'!C108</f>
         <v>0.17087545181204045</v>
       </c>
-      <c r="D16" s="52" t="s">
+      <c r="D16" s="46" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>509</v>
       </c>
-      <c r="C17" s="42">
+      <c r="C17" s="36">
         <f>'AEO T2 High Oil &amp; Gas Case'!C48/'AEO T2 High Oil &amp; Gas Case'!C97</f>
         <v>0.24931445336174773</v>
       </c>
-      <c r="D17" s="52" t="s">
+      <c r="D17" s="46" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>757</v>
       </c>
-      <c r="C18" s="45">
+      <c r="C18" s="39">
         <f>1-C16*C17</f>
         <v>0.95739828013853945</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="49" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A20" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="48"/>
-      <c r="D20" s="51" t="s">
+      <c r="C20" s="42"/>
+      <c r="D20" s="45" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>639</v>
       </c>
@@ -3635,44 +3648,44 @@
         <f>'AEO T2 High Oil &amp; Gas Case'!C152*'AEO T3 High Oil &amp; Gas Case'!C53*10^9</f>
         <v>5629871124.5739994</v>
       </c>
-      <c r="D21" s="52" t="s">
+      <c r="D21" s="46" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>640</v>
       </c>
       <c r="C22" s="9">
         <v>62857069088.715157</v>
       </c>
-      <c r="D22" s="46" t="s">
+      <c r="D22" s="40" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>641</v>
       </c>
-      <c r="C23" s="45">
+      <c r="C23" s="39">
         <f>C21/C22</f>
         <v>8.956623664122991E-2</v>
       </c>
-      <c r="D23" s="52"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="50" t="s">
+      <c r="D23" s="46"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A25" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="C25" s="48"/>
-      <c r="D25" s="51" t="s">
+      <c r="C25" s="42"/>
+      <c r="D25" s="45" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
         <v>742</v>
       </c>
@@ -3680,104 +3693,104 @@
         <f>SUMPRODUCT(B31:B34,C31:C34)*10^15</f>
         <v>8604319930</v>
       </c>
-      <c r="D26" s="46" t="s">
+      <c r="D26" s="40" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
         <v>646</v>
       </c>
       <c r="C27" s="9">
         <v>441483794392.80725</v>
       </c>
-      <c r="D27" s="46" t="s">
+      <c r="D27" s="40" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
         <v>647</v>
       </c>
-      <c r="C28" s="45">
+      <c r="C28" s="39">
         <f>C26/C27</f>
         <v>1.9489548742856831E-2</v>
       </c>
-      <c r="D28" s="52"/>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="66" t="s">
+      <c r="D28" s="46"/>
+    </row>
+    <row r="29" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
+    <row r="30" spans="1:4" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A30" s="60" t="s">
         <v>753</v>
       </c>
-      <c r="B30" s="67" t="s">
+      <c r="B30" s="61" t="s">
         <v>750</v>
       </c>
-      <c r="C30" s="68" t="s">
+      <c r="C30" s="62" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="57" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A31" s="51" t="s">
         <v>746</v>
       </c>
-      <c r="B31" s="58">
+      <c r="B31" s="52">
         <v>2.2200000000000003E-6</v>
       </c>
-      <c r="C31" s="59">
+      <c r="C31" s="53">
         <f>'AEO T17 High Oil &amp; Gas Case'!C39</f>
         <v>0.20445099999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="57" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A32" s="51" t="s">
         <v>747</v>
       </c>
-      <c r="B32" s="58">
+      <c r="B32" s="52">
         <v>8.85E-6</v>
       </c>
-      <c r="C32" s="59">
+      <c r="C32" s="53">
         <f>'AEO T17 High Oil &amp; Gas Case'!C17</f>
         <v>0.457513</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="57" t="s">
+    <row r="33" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A33" s="51" t="s">
         <v>748</v>
       </c>
-      <c r="B33" s="58">
+      <c r="B33" s="52">
         <v>4.1100000000000005E-6</v>
       </c>
-      <c r="C33" s="59">
+      <c r="C33" s="53">
         <f>'AEO T17 High Oil &amp; Gas Case'!C19</f>
         <v>0.131216</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="57" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A34" s="51" t="s">
         <v>749</v>
       </c>
-      <c r="B34" s="58">
+      <c r="B34" s="52">
         <v>2.6299999999999998E-6</v>
       </c>
-      <c r="C34" s="59">
+      <c r="C34" s="53">
         <f>'AEO T17 High Oil &amp; Gas Case'!C24</f>
         <v>1.35443</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="60"/>
-      <c r="B35" s="61"/>
-      <c r="C35" s="62"/>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="63" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A35" s="54"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="56"/>
+    </row>
+    <row r="36" spans="1:3" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A36" s="57" t="s">
         <v>745</v>
       </c>
-      <c r="B36" s="64" t="s">
+      <c r="B36" s="58" t="s">
         <v>648</v>
       </c>
-      <c r="C36" s="65" t="s">
+      <c r="C36" s="59" t="s">
         <v>741</v>
       </c>
     </row>
@@ -3797,16 +3810,16 @@
       <selection pane="bottomRight" activeCell="C152" sqref="C152"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.65"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" style="10" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="22.40625" style="10" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="49" style="10" customWidth="1"/>
-    <col min="3" max="33" width="9.140625" style="10"/>
-    <col min="34" max="34" width="9.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="35" max="16384" width="9.140625" style="10"/>
+    <col min="3" max="33" width="9.1328125" style="10"/>
+    <col min="34" max="34" width="9.1328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="35" max="16384" width="9.1328125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
       <c r="B1" s="11" t="s">
         <v>85</v>
       </c>
@@ -3904,8 +3917,8 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.65"/>
+    <row r="3" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C3" s="13" t="s">
         <v>86</v>
       </c>
@@ -3917,7 +3930,7 @@
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
     </row>
-    <row r="4" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C4" s="13" t="s">
         <v>88</v>
       </c>
@@ -3931,7 +3944,7 @@
       </c>
       <c r="H4" s="14"/>
     </row>
-    <row r="5" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C5" s="13" t="s">
         <v>91</v>
       </c>
@@ -3943,7 +3956,7 @@
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
     </row>
-    <row r="6" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C6" s="13" t="s">
         <v>93</v>
       </c>
@@ -3955,7 +3968,7 @@
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
     </row>
-    <row r="7" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
@@ -3963,9 +3976,9 @@
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
     </row>
-    <row r="8" spans="1:34" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:34" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" ht="12.25" x14ac:dyDescent="0.65"/>
+    <row r="9" spans="1:34" ht="12.25" x14ac:dyDescent="0.65"/>
+    <row r="10" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A10" s="15" t="s">
         <v>508</v>
       </c>
@@ -3976,7 +3989,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B11" s="11" t="s">
         <v>506</v>
       </c>
@@ -3984,7 +3997,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B12" s="11"/>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
@@ -4021,7 +4034,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
       <c r="B13" s="12" t="s">
         <v>505</v>
       </c>
@@ -4122,13 +4135,13 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:34" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:34" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.65"/>
+    <row r="15" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B15" s="20" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="16" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A16" s="15" t="s">
         <v>503</v>
       </c>
@@ -4232,7 +4245,7 @@
         <v>-1.64E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A17" s="15" t="s">
         <v>502</v>
       </c>
@@ -4336,7 +4349,7 @@
         <v>-1.4037000000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A18" s="15" t="s">
         <v>501</v>
       </c>
@@ -4440,7 +4453,7 @@
         <v>-7.1009999999999997E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A19" s="15" t="s">
         <v>500</v>
       </c>
@@ -4544,7 +4557,7 @@
         <v>-6.3199999999999997E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A20" s="15" t="s">
         <v>499</v>
       </c>
@@ -4648,7 +4661,7 @@
         <v>-1.1620999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A21" s="15" t="s">
         <v>497</v>
       </c>
@@ -4752,7 +4765,7 @@
         <v>7.1320000000000003E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A22" s="15" t="s">
         <v>496</v>
       </c>
@@ -4856,7 +4869,7 @@
         <v>2.2750000000000001E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A23" s="15" t="s">
         <v>495</v>
       </c>
@@ -4960,7 +4973,7 @@
         <v>-2.8930000000000002E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A24" s="15" t="s">
         <v>494</v>
       </c>
@@ -5064,12 +5077,12 @@
         <v>2.8E-5</v>
       </c>
     </row>
-    <row r="26" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B26" s="20" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="27" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A27" s="15" t="s">
         <v>492</v>
       </c>
@@ -5173,7 +5186,7 @@
         <v>9.0019999999999996E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A28" s="15" t="s">
         <v>491</v>
       </c>
@@ -5277,7 +5290,7 @@
         <v>5.4260000000000003E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A29" s="15" t="s">
         <v>490</v>
       </c>
@@ -5381,7 +5394,7 @@
         <v>-7.7939999999999997E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A30" s="15" t="s">
         <v>488</v>
       </c>
@@ -5485,7 +5498,7 @@
         <v>-2.379E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A31" s="15" t="s">
         <v>487</v>
       </c>
@@ -5589,7 +5602,7 @@
         <v>1.512E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A32" s="15" t="s">
         <v>486</v>
       </c>
@@ -5693,7 +5706,7 @@
         <v>3.4949999999999998E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A33" s="15" t="s">
         <v>485</v>
       </c>
@@ -5797,7 +5810,7 @@
         <v>4.875E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A34" s="15" t="s">
         <v>484</v>
       </c>
@@ -5901,7 +5914,7 @@
         <v>-9.7809999999999998E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A35" s="15" t="s">
         <v>482</v>
       </c>
@@ -6005,7 +6018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A36" s="15" t="s">
         <v>480</v>
       </c>
@@ -6109,7 +6122,7 @@
         <v>9.1400000000000006E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:34" ht="12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:34" ht="12.25" x14ac:dyDescent="0.65">
       <c r="A37" s="15" t="s">
         <v>479</v>
       </c>
@@ -6213,7 +6226,7 @@
         <v>6.8830000000000002E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A38" s="15" t="s">
         <v>478</v>
       </c>
@@ -6317,7 +6330,7 @@
         <v>-9.0499999999999999E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:34" ht="12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:34" ht="12.25" x14ac:dyDescent="0.65">
       <c r="A39" s="15" t="s">
         <v>477</v>
       </c>
@@ -6421,13 +6434,13 @@
         <v>3.3279999999999998E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:34" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="1:34" ht="12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:34" ht="12.25" x14ac:dyDescent="0.65"/>
+    <row r="41" spans="1:34" ht="12.25" x14ac:dyDescent="0.65">
       <c r="B41" s="20" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A42" s="15" t="s">
         <v>475</v>
       </c>
@@ -6531,7 +6544,7 @@
         <v>2.0819000000000001E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A43" s="15" t="s">
         <v>474</v>
       </c>
@@ -6635,7 +6648,7 @@
         <v>1.7228E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A44" s="15" t="s">
         <v>473</v>
       </c>
@@ -6739,7 +6752,7 @@
         <v>1.6230999999999999E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A45" s="15" t="s">
         <v>472</v>
       </c>
@@ -6843,7 +6856,7 @@
         <v>1.4848999999999999E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A46" s="15" t="s">
         <v>471</v>
       </c>
@@ -6947,7 +6960,7 @@
         <v>4.0020000000000003E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A47" s="15" t="s">
         <v>470</v>
       </c>
@@ -7051,14 +7064,14 @@
         <v>5.0939999999999996E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A48" s="15" t="s">
         <v>468</v>
       </c>
-      <c r="B48" s="38" t="s">
+      <c r="B48" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="C48" s="39">
+      <c r="C48" s="33">
         <v>8.3259179999999997</v>
       </c>
       <c r="D48" s="22">
@@ -7155,7 +7168,7 @@
         <v>1.3603000000000001E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A49" s="15" t="s">
         <v>467</v>
       </c>
@@ -7259,7 +7272,7 @@
         <v>1.2213E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A50" s="15" t="s">
         <v>466</v>
       </c>
@@ -7363,7 +7376,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A51" s="15" t="s">
         <v>465</v>
       </c>
@@ -7467,7 +7480,7 @@
         <v>1.6729000000000001E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A52" s="15" t="s">
         <v>464</v>
       </c>
@@ -7571,7 +7584,7 @@
         <v>4.1444000000000002E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A53" s="15" t="s">
         <v>463</v>
       </c>
@@ -7675,7 +7688,7 @@
         <v>1.4507000000000001E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A54" s="15" t="s">
         <v>462</v>
       </c>
@@ -7779,7 +7792,7 @@
         <v>1.0150000000000001E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A55" s="15" t="s">
         <v>461</v>
       </c>
@@ -7883,7 +7896,7 @@
         <v>8.0000000000000007E-5</v>
       </c>
     </row>
-    <row r="56" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A56" s="15" t="s">
         <v>460</v>
       </c>
@@ -7987,7 +8000,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="57" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A57" s="15" t="s">
         <v>459</v>
       </c>
@@ -8091,7 +8104,7 @@
         <v>-1.1535E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A58" s="15" t="s">
         <v>458</v>
       </c>
@@ -8195,7 +8208,7 @@
         <v>8.1099999999999998E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A59" s="15" t="s">
         <v>457</v>
       </c>
@@ -8299,7 +8312,7 @@
         <v>6.0559999999999998E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A60" s="15" t="s">
         <v>456</v>
       </c>
@@ -8403,7 +8416,7 @@
         <v>9.4680000000000007E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A61" s="15" t="s">
         <v>454</v>
       </c>
@@ -8507,7 +8520,7 @@
         <v>1.0742E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A62" s="15" t="s">
         <v>453</v>
       </c>
@@ -8611,7 +8624,7 @@
         <v>1.278E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A63" s="15" t="s">
         <v>452</v>
       </c>
@@ -8715,7 +8728,7 @@
         <v>6.8099999999999996E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A64" s="15" t="s">
         <v>451</v>
       </c>
@@ -8819,13 +8832,13 @@
         <v>1.0853E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:34" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="67" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:34" ht="12.25" x14ac:dyDescent="0.65"/>
+    <row r="67" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B67" s="20" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="68" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A68" s="15" t="s">
         <v>449</v>
       </c>
@@ -8929,7 +8942,7 @@
         <v>2.6695E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A69" s="15" t="s">
         <v>448</v>
       </c>
@@ -9033,7 +9046,7 @@
         <v>5.3399999999999997E-4</v>
       </c>
     </row>
-    <row r="70" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A70" s="15" t="s">
         <v>447</v>
       </c>
@@ -9137,7 +9150,7 @@
         <v>2.4629999999999999E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A71" s="15" t="s">
         <v>446</v>
       </c>
@@ -9241,7 +9254,7 @@
         <v>2.3598000000000001E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A72" s="15" t="s">
         <v>445</v>
       </c>
@@ -9345,7 +9358,7 @@
         <v>1.9269999999999999E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A73" s="15" t="s">
         <v>443</v>
       </c>
@@ -9449,7 +9462,7 @@
         <v>5.1869999999999998E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A74" s="15" t="s">
         <v>442</v>
       </c>
@@ -9553,7 +9566,7 @@
         <v>7.0500000000000001E-4</v>
       </c>
     </row>
-    <row r="75" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A75" s="15" t="s">
         <v>440</v>
       </c>
@@ -9657,7 +9670,7 @@
         <v>3.9100000000000003E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A76" s="15" t="s">
         <v>439</v>
       </c>
@@ -9761,7 +9774,7 @@
         <v>3.5230000000000001E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A77" s="15" t="s">
         <v>438</v>
       </c>
@@ -9865,7 +9878,7 @@
         <v>5.2895999999999999E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A78" s="15" t="s">
         <v>436</v>
       </c>
@@ -9969,7 +9982,7 @@
         <v>8.3379999999999996E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A79" s="15" t="s">
         <v>435</v>
       </c>
@@ -10073,7 +10086,7 @@
         <v>8.3273E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A80" s="15" t="s">
         <v>434</v>
       </c>
@@ -10177,7 +10190,7 @@
         <v>4.692E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A81" s="15" t="s">
         <v>433</v>
       </c>
@@ -10281,7 +10294,7 @@
         <v>7.2489999999999999E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A82" s="15" t="s">
         <v>432</v>
       </c>
@@ -10385,12 +10398,12 @@
         <v>5.2310000000000004E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B84" s="20" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="85" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A85" s="15" t="s">
         <v>430</v>
       </c>
@@ -10494,12 +10507,12 @@
         <v>1.8580000000000001E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B87" s="20" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="88" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A88" s="15" t="s">
         <v>428</v>
       </c>
@@ -10603,7 +10616,7 @@
         <v>1.8282E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A89" s="15" t="s">
         <v>427</v>
       </c>
@@ -10707,7 +10720,7 @@
         <v>9.7799999999999992E-4</v>
       </c>
     </row>
-    <row r="90" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A90" s="15" t="s">
         <v>426</v>
       </c>
@@ -10811,7 +10824,7 @@
         <v>2.4629999999999999E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A91" s="15" t="s">
         <v>425</v>
       </c>
@@ -10915,7 +10928,7 @@
         <v>2.3598000000000001E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A92" s="15" t="s">
         <v>424</v>
       </c>
@@ -11019,7 +11032,7 @@
         <v>-3.2940000000000001E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A93" s="15" t="s">
         <v>423</v>
       </c>
@@ -11123,7 +11136,7 @@
         <v>3.6050000000000001E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A94" s="15" t="s">
         <v>422</v>
       </c>
@@ -11227,7 +11240,7 @@
         <v>5.9670000000000001E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A95" s="15" t="s">
         <v>421</v>
       </c>
@@ -11331,7 +11344,7 @@
         <v>4.0020000000000003E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A96" s="15" t="s">
         <v>420</v>
       </c>
@@ -11435,14 +11448,14 @@
         <v>4.9199999999999999E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A97" s="15" t="s">
         <v>419</v>
       </c>
-      <c r="B97" s="40" t="s">
+      <c r="B97" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="C97" s="41">
+      <c r="C97" s="35">
         <v>33.395248000000002</v>
       </c>
       <c r="D97" s="22">
@@ -11539,7 +11552,7 @@
         <v>6.3740000000000003E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A98" s="15" t="s">
         <v>418</v>
       </c>
@@ -11643,7 +11656,7 @@
         <v>7.8810000000000009E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A99" s="15" t="s">
         <v>417</v>
       </c>
@@ -11747,7 +11760,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="100" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A100" s="15" t="s">
         <v>416</v>
       </c>
@@ -11851,7 +11864,7 @@
         <v>1.6729000000000001E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A101" s="15" t="s">
         <v>415</v>
       </c>
@@ -11955,7 +11968,7 @@
         <v>4.1444000000000002E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A102" s="15" t="s">
         <v>414</v>
       </c>
@@ -12059,7 +12072,7 @@
         <v>3.5230000000000001E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A103" s="15" t="s">
         <v>413</v>
       </c>
@@ -12163,7 +12176,7 @@
         <v>9.6600000000000002E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A104" s="15" t="s">
         <v>412</v>
       </c>
@@ -12267,7 +12280,7 @@
         <v>1.0150000000000001E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A105" s="15" t="s">
         <v>411</v>
       </c>
@@ -12371,7 +12384,7 @@
         <v>-2.1499999999999999E-4</v>
       </c>
     </row>
-    <row r="106" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A106" s="15" t="s">
         <v>410</v>
       </c>
@@ -12475,7 +12488,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="107" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A107" s="15" t="s">
         <v>409</v>
       </c>
@@ -12579,7 +12592,7 @@
         <v>-1.1535E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A108" s="15" t="s">
         <v>408</v>
       </c>
@@ -12683,7 +12696,7 @@
         <v>6.4599999999999998E-4</v>
       </c>
     </row>
-    <row r="109" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A109" s="15" t="s">
         <v>407</v>
       </c>
@@ -12787,7 +12800,7 @@
         <v>6.0559999999999998E-3</v>
       </c>
     </row>
-    <row r="110" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A110" s="15" t="s">
         <v>406</v>
       </c>
@@ -12891,7 +12904,7 @@
         <v>5.306E-3</v>
       </c>
     </row>
-    <row r="111" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A111" s="15" t="s">
         <v>404</v>
       </c>
@@ -12995,111 +13008,111 @@
         <v>8.3379999999999996E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A112" s="15" t="s">
         <v>403</v>
       </c>
-      <c r="B112" s="35" t="s">
+      <c r="B112" s="65" t="s">
         <v>125</v>
       </c>
-      <c r="C112" s="34">
+      <c r="C112" s="66">
         <v>12.490361999999999</v>
       </c>
-      <c r="D112" s="34">
+      <c r="D112" s="66">
         <v>12.606733999999999</v>
       </c>
-      <c r="E112" s="34">
+      <c r="E112" s="66">
         <v>12.762836</v>
       </c>
-      <c r="F112" s="34">
+      <c r="F112" s="66">
         <v>12.952874</v>
       </c>
-      <c r="G112" s="34">
+      <c r="G112" s="66">
         <v>13.176769</v>
       </c>
-      <c r="H112" s="34">
+      <c r="H112" s="66">
         <v>13.380118</v>
       </c>
-      <c r="I112" s="34">
+      <c r="I112" s="66">
         <v>13.498381999999999</v>
       </c>
-      <c r="J112" s="34">
+      <c r="J112" s="66">
         <v>13.59221</v>
       </c>
-      <c r="K112" s="34">
+      <c r="K112" s="66">
         <v>13.685057</v>
       </c>
-      <c r="L112" s="34">
+      <c r="L112" s="66">
         <v>13.766</v>
       </c>
-      <c r="M112" s="34">
+      <c r="M112" s="66">
         <v>13.842580999999999</v>
       </c>
-      <c r="N112" s="34">
+      <c r="N112" s="66">
         <v>13.916790000000001</v>
       </c>
-      <c r="O112" s="34">
+      <c r="O112" s="66">
         <v>14.010617999999999</v>
       </c>
-      <c r="P112" s="34">
+      <c r="P112" s="66">
         <v>14.091824000000001</v>
       </c>
-      <c r="Q112" s="34">
+      <c r="Q112" s="66">
         <v>14.198230000000001</v>
       </c>
-      <c r="R112" s="34">
+      <c r="R112" s="66">
         <v>14.320999</v>
       </c>
-      <c r="S112" s="34">
+      <c r="S112" s="66">
         <v>14.444264</v>
       </c>
-      <c r="T112" s="34">
+      <c r="T112" s="66">
         <v>14.571400000000001</v>
       </c>
-      <c r="U112" s="34">
+      <c r="U112" s="66">
         <v>14.699479</v>
       </c>
-      <c r="V112" s="34">
+      <c r="V112" s="66">
         <v>14.833926999999999</v>
       </c>
-      <c r="W112" s="34">
+      <c r="W112" s="66">
         <v>14.95866</v>
       </c>
-      <c r="X112" s="34">
+      <c r="X112" s="66">
         <v>15.096349</v>
       </c>
-      <c r="Y112" s="34">
+      <c r="Y112" s="66">
         <v>15.243080000000001</v>
       </c>
-      <c r="Z112" s="34">
+      <c r="Z112" s="66">
         <v>15.404759</v>
       </c>
-      <c r="AA112" s="34">
+      <c r="AA112" s="66">
         <v>15.557408000000001</v>
       </c>
-      <c r="AB112" s="34">
+      <c r="AB112" s="66">
         <v>15.719253999999999</v>
       </c>
-      <c r="AC112" s="34">
+      <c r="AC112" s="66">
         <v>15.871430999999999</v>
       </c>
-      <c r="AD112" s="34">
+      <c r="AD112" s="66">
         <v>16.024360999999999</v>
       </c>
-      <c r="AE112" s="34">
+      <c r="AE112" s="66">
         <v>16.192125000000001</v>
       </c>
-      <c r="AF112" s="34">
+      <c r="AF112" s="66">
         <v>16.374054000000001</v>
       </c>
-      <c r="AG112" s="34">
+      <c r="AG112" s="66">
         <v>16.564095999999999</v>
       </c>
-      <c r="AH112" s="33">
+      <c r="AH112" s="67">
         <v>9.4540000000000006E-3</v>
       </c>
     </row>
-    <row r="113" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A113" s="15" t="s">
         <v>402</v>
       </c>
@@ -13203,7 +13216,7 @@
         <v>7.7939999999999997E-3</v>
       </c>
     </row>
-    <row r="114" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A114" s="15" t="s">
         <v>401</v>
       </c>
@@ -13307,7 +13320,7 @@
         <v>-5.9500000000000004E-4</v>
       </c>
     </row>
-    <row r="115" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A115" s="15" t="s">
         <v>400</v>
       </c>
@@ -13411,12 +13424,12 @@
         <v>5.875E-3</v>
       </c>
     </row>
-    <row r="118" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B118" s="20" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="119" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A119" s="15" t="s">
         <v>398</v>
       </c>
@@ -13520,7 +13533,7 @@
         <v>-2.6865E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A120" s="15" t="s">
         <v>397</v>
       </c>
@@ -13624,7 +13637,7 @@
         <v>-4.8769E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A121" s="15" t="s">
         <v>396</v>
       </c>
@@ -13728,7 +13741,7 @@
         <v>-3.6546000000000002E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A122" s="15" t="s">
         <v>395</v>
       </c>
@@ -13832,7 +13845,7 @@
         <v>1.1691E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A123" s="15" t="s">
         <v>394</v>
       </c>
@@ -13936,7 +13949,7 @@
         <v>-2.4743000000000001E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A124" s="15" t="s">
         <v>392</v>
       </c>
@@ -14040,7 +14053,7 @@
         <v>-2.7078000000000001E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A125" s="15" t="s">
         <v>391</v>
       </c>
@@ -14144,7 +14157,7 @@
         <v>2.4931999999999999E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A126" s="15" t="s">
         <v>389</v>
       </c>
@@ -14248,7 +14261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A127" s="15" t="s">
         <v>388</v>
       </c>
@@ -14352,7 +14365,7 @@
         <v>-9.1299999999999997E-4</v>
       </c>
     </row>
-    <row r="128" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A128" s="15" t="s">
         <v>387</v>
       </c>
@@ -14456,12 +14469,12 @@
         <v>3.2529999999999998E-3</v>
       </c>
     </row>
-    <row r="130" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B130" s="20" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="131" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A131" s="15" t="s">
         <v>385</v>
       </c>
@@ -14565,7 +14578,7 @@
         <v>1.8282E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A132" s="15" t="s">
         <v>383</v>
       </c>
@@ -14669,7 +14682,7 @@
         <v>9.7799999999999992E-4</v>
       </c>
     </row>
-    <row r="133" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A133" s="15" t="s">
         <v>381</v>
       </c>
@@ -14773,7 +14786,7 @@
         <v>2.4629999999999999E-3</v>
       </c>
     </row>
-    <row r="134" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A134" s="15" t="s">
         <v>379</v>
       </c>
@@ -14877,7 +14890,7 @@
         <v>2.3598000000000001E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A135" s="15" t="s">
         <v>377</v>
       </c>
@@ -14981,7 +14994,7 @@
         <v>-3.2940000000000001E-3</v>
       </c>
     </row>
-    <row r="136" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A136" s="15" t="s">
         <v>375</v>
       </c>
@@ -15085,7 +15098,7 @@
         <v>3.4160000000000002E-3</v>
       </c>
     </row>
-    <row r="137" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A137" s="15" t="s">
         <v>373</v>
       </c>
@@ -15189,7 +15202,7 @@
         <v>1.6869999999999999E-3</v>
       </c>
     </row>
-    <row r="138" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A138" s="15" t="s">
         <v>372</v>
       </c>
@@ -15293,7 +15306,7 @@
         <v>4.0020000000000003E-3</v>
       </c>
     </row>
-    <row r="139" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A139" s="15" t="s">
         <v>371</v>
       </c>
@@ -15397,7 +15410,7 @@
         <v>4.9199999999999999E-3</v>
       </c>
     </row>
-    <row r="140" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A140" s="15" t="s">
         <v>369</v>
       </c>
@@ -15501,7 +15514,7 @@
         <v>6.2620000000000002E-3</v>
       </c>
     </row>
-    <row r="141" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A141" s="15" t="s">
         <v>368</v>
       </c>
@@ -15605,7 +15618,7 @@
         <v>9.5200000000000007E-3</v>
       </c>
     </row>
-    <row r="142" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A142" s="15" t="s">
         <v>366</v>
       </c>
@@ -15709,7 +15722,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="143" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A143" s="15" t="s">
         <v>365</v>
       </c>
@@ -15813,7 +15826,7 @@
         <v>1.6729000000000001E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A144" s="15" t="s">
         <v>363</v>
       </c>
@@ -15917,7 +15930,7 @@
         <v>4.1444000000000002E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A145" s="15" t="s">
         <v>361</v>
       </c>
@@ -16021,7 +16034,7 @@
         <v>3.5230000000000001E-3</v>
       </c>
     </row>
-    <row r="146" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A146" s="15" t="s">
         <v>359</v>
       </c>
@@ -16125,7 +16138,7 @@
         <v>1.0442999999999999E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A147" s="15" t="s">
         <v>358</v>
       </c>
@@ -16229,7 +16242,7 @@
         <v>1.0150000000000001E-3</v>
       </c>
     </row>
-    <row r="148" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A148" s="15" t="s">
         <v>357</v>
       </c>
@@ -16333,7 +16346,7 @@
         <v>-2.2710000000000001E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A149" s="15" t="s">
         <v>355</v>
       </c>
@@ -16437,7 +16450,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="150" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A150" s="15" t="s">
         <v>354</v>
       </c>
@@ -16541,7 +16554,7 @@
         <v>-1.1535E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A151" s="15" t="s">
         <v>352</v>
       </c>
@@ -16645,14 +16658,14 @@
         <v>-2.1002E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A152" s="15" t="s">
         <v>351</v>
       </c>
-      <c r="B152" s="38" t="s">
+      <c r="B152" s="32" t="s">
         <v>350</v>
       </c>
-      <c r="C152" s="39">
+      <c r="C152" s="33">
         <v>8.2053379999999994</v>
       </c>
       <c r="D152" s="22">
@@ -16749,7 +16762,7 @@
         <v>-2.7078000000000001E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A153" s="15" t="s">
         <v>349</v>
       </c>
@@ -16853,7 +16866,7 @@
         <v>6.0559999999999998E-3</v>
       </c>
     </row>
-    <row r="154" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A154" s="15" t="s">
         <v>348</v>
       </c>
@@ -16957,7 +16970,7 @@
         <v>2.1248E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A155" s="15" t="s">
         <v>346</v>
       </c>
@@ -17061,7 +17074,7 @@
         <v>8.3379999999999996E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A156" s="15" t="s">
         <v>344</v>
       </c>
@@ -17165,7 +17178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A157" s="15" t="s">
         <v>342</v>
       </c>
@@ -17269,7 +17282,7 @@
         <v>-9.1299999999999997E-4</v>
       </c>
     </row>
-    <row r="158" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A158" s="15" t="s">
         <v>340</v>
       </c>
@@ -17373,12 +17386,12 @@
         <v>5.875E-3</v>
       </c>
     </row>
-    <row r="160" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B160" s="20" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="161" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A161" s="15" t="s">
         <v>338</v>
       </c>
@@ -17482,7 +17495,7 @@
         <v>7.7939999999999997E-3</v>
       </c>
     </row>
-    <row r="162" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A162" s="15" t="s">
         <v>336</v>
       </c>
@@ -17586,7 +17599,7 @@
         <v>5.875E-3</v>
       </c>
     </row>
-    <row r="163" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A163" s="15" t="s">
         <v>334</v>
       </c>
@@ -17690,7 +17703,7 @@
         <v>6.5849999999999997E-3</v>
       </c>
     </row>
-    <row r="164" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A164" s="15" t="s">
         <v>332</v>
       </c>
@@ -17794,7 +17807,7 @@
         <v>5.2110000000000004E-3</v>
       </c>
     </row>
-    <row r="165" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A165" s="15" t="s">
         <v>330</v>
       </c>
@@ -17898,12 +17911,12 @@
         <v>2.1506000000000001E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B166" s="20" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="167" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A167" s="15" t="s">
         <v>327</v>
       </c>
@@ -18007,225 +18020,225 @@
         <v>3.3700000000000002E-3</v>
       </c>
     </row>
-    <row r="168" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B168" s="28" t="s">
+    <row r="168" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B168" s="63" t="s">
         <v>325</v>
       </c>
-      <c r="C168" s="29"/>
-      <c r="D168" s="29"/>
-      <c r="E168" s="29"/>
-      <c r="F168" s="29"/>
-      <c r="G168" s="29"/>
-      <c r="H168" s="29"/>
-      <c r="I168" s="29"/>
-      <c r="J168" s="29"/>
-      <c r="K168" s="29"/>
-      <c r="L168" s="29"/>
-      <c r="M168" s="29"/>
-      <c r="N168" s="29"/>
-      <c r="O168" s="29"/>
-      <c r="P168" s="29"/>
-      <c r="Q168" s="29"/>
-      <c r="R168" s="29"/>
-      <c r="S168" s="29"/>
-      <c r="T168" s="29"/>
-      <c r="U168" s="29"/>
-      <c r="V168" s="29"/>
-      <c r="W168" s="29"/>
-      <c r="X168" s="29"/>
-      <c r="Y168" s="29"/>
-      <c r="Z168" s="29"/>
-      <c r="AA168" s="29"/>
-      <c r="AB168" s="29"/>
-      <c r="AC168" s="29"/>
-      <c r="AD168" s="29"/>
-      <c r="AE168" s="29"/>
-      <c r="AF168" s="29"/>
-      <c r="AG168" s="29"/>
-      <c r="AH168" s="30"/>
-    </row>
-    <row r="169" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B169" s="31" t="s">
+      <c r="C168" s="64"/>
+      <c r="D168" s="64"/>
+      <c r="E168" s="64"/>
+      <c r="F168" s="64"/>
+      <c r="G168" s="64"/>
+      <c r="H168" s="64"/>
+      <c r="I168" s="64"/>
+      <c r="J168" s="64"/>
+      <c r="K168" s="64"/>
+      <c r="L168" s="64"/>
+      <c r="M168" s="64"/>
+      <c r="N168" s="64"/>
+      <c r="O168" s="64"/>
+      <c r="P168" s="64"/>
+      <c r="Q168" s="64"/>
+      <c r="R168" s="64"/>
+      <c r="S168" s="64"/>
+      <c r="T168" s="64"/>
+      <c r="U168" s="64"/>
+      <c r="V168" s="64"/>
+      <c r="W168" s="64"/>
+      <c r="X168" s="64"/>
+      <c r="Y168" s="64"/>
+      <c r="Z168" s="64"/>
+      <c r="AA168" s="64"/>
+      <c r="AB168" s="64"/>
+      <c r="AC168" s="64"/>
+      <c r="AD168" s="64"/>
+      <c r="AE168" s="64"/>
+      <c r="AF168" s="64"/>
+      <c r="AG168" s="64"/>
+      <c r="AH168" s="28"/>
+    </row>
+    <row r="169" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B169" s="29" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="170" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B170" s="31" t="s">
+    <row r="170" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B170" s="29" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="171" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B171" s="31" t="s">
+    <row r="171" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B171" s="29" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="172" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B172" s="31" t="s">
+    <row r="172" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B172" s="29" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="173" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B173" s="31" t="s">
+    <row r="173" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B173" s="29" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="174" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B174" s="31" t="s">
+    <row r="174" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B174" s="29" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="175" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B175" s="31" t="s">
+    <row r="175" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B175" s="29" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="176" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B176" s="31" t="s">
+    <row r="176" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B176" s="29" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="177" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B177" s="31" t="s">
+    <row r="177" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B177" s="29" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="178" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B178" s="31" t="s">
+    <row r="178" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B178" s="29" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="179" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B179" s="31" t="s">
+    <row r="179" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B179" s="29" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="180" spans="2:2" ht="12" x14ac:dyDescent="0.2">
-      <c r="B180" s="31" t="s">
+    <row r="180" spans="2:2" ht="12.25" x14ac:dyDescent="0.65">
+      <c r="B180" s="29" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="181" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B181" s="31" t="s">
+    <row r="181" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B181" s="29" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="182" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B182" s="31" t="s">
+    <row r="182" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B182" s="29" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="183" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B183" s="31" t="s">
+    <row r="183" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B183" s="29" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="184" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B184" s="31" t="s">
+    <row r="184" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B184" s="29" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="185" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B185" s="31" t="s">
+    <row r="185" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B185" s="29" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="186" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B186" s="31" t="s">
+    <row r="186" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B186" s="29" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="187" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B187" s="31" t="s">
+    <row r="187" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B187" s="29" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="188" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B188" s="31" t="s">
+    <row r="188" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B188" s="29" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="189" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B189" s="31" t="s">
+    <row r="189" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B189" s="29" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="190" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B190" s="31" t="s">
+    <row r="190" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B190" s="29" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="191" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B191" s="31" t="s">
+    <row r="191" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B191" s="29" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="192" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B192" s="31" t="s">
+    <row r="192" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B192" s="29" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="193" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B193" s="31" t="s">
+    <row r="193" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B193" s="29" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="194" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B194" s="31" t="s">
+    <row r="194" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B194" s="29" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="195" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B195" s="31" t="s">
+    <row r="195" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B195" s="29" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="196" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B196" s="31" t="s">
+    <row r="196" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B196" s="29" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="197" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B197" s="31" t="s">
+    <row r="197" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B197" s="29" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="198" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B198" s="31" t="s">
+    <row r="198" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B198" s="29" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="199" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B199" s="31" t="s">
+    <row r="199" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B199" s="29" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="200" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B200" s="31" t="s">
+    <row r="200" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B200" s="29" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="201" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B201" s="31" t="s">
+    <row r="201" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B201" s="29" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="202" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B202" s="31" t="s">
+    <row r="202" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B202" s="29" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="203" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B203" s="31" t="s">
+    <row r="203" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B203" s="29" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="204" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B204" s="31" t="s">
+    <row r="204" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B204" s="29" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="205" spans="2:2" ht="12" x14ac:dyDescent="0.2">
-      <c r="B205" s="31" t="s">
+    <row r="205" spans="2:2" ht="12.25" x14ac:dyDescent="0.65">
+      <c r="B205" s="29" t="s">
         <v>103</v>
       </c>
     </row>
@@ -18250,16 +18263,16 @@
       <selection pane="bottomRight" activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.65"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" style="10" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="22.40625" style="10" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="49" style="10" customWidth="1"/>
-    <col min="3" max="33" width="9.140625" style="10"/>
-    <col min="34" max="34" width="9.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="35" max="16384" width="9.140625" style="10"/>
+    <col min="3" max="33" width="9.1328125" style="10"/>
+    <col min="34" max="34" width="9.1328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="35" max="16384" width="9.1328125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
       <c r="B1" s="11" t="s">
         <v>85</v>
       </c>
@@ -18357,8 +18370,8 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.65"/>
+    <row r="3" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C3" s="13" t="s">
         <v>86</v>
       </c>
@@ -18370,7 +18383,7 @@
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
     </row>
-    <row r="4" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C4" s="13" t="s">
         <v>88</v>
       </c>
@@ -18384,7 +18397,7 @@
       </c>
       <c r="H4" s="14"/>
     </row>
-    <row r="5" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C5" s="13" t="s">
         <v>91</v>
       </c>
@@ -18396,7 +18409,7 @@
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
     </row>
-    <row r="6" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C6" s="13" t="s">
         <v>93</v>
       </c>
@@ -18408,7 +18421,7 @@
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
     </row>
-    <row r="7" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
@@ -18416,9 +18429,9 @@
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
     </row>
-    <row r="8" spans="1:34" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:34" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" ht="12.25" x14ac:dyDescent="0.65"/>
+    <row r="9" spans="1:34" ht="12.25" x14ac:dyDescent="0.65"/>
+    <row r="10" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A10" s="15" t="s">
         <v>638</v>
       </c>
@@ -18429,7 +18442,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B11" s="11" t="s">
         <v>636</v>
       </c>
@@ -18437,7 +18450,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B12" s="11"/>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
@@ -18474,7 +18487,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
       <c r="B13" s="12" t="s">
         <v>505</v>
       </c>
@@ -18575,13 +18588,13 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:34" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:34" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.65"/>
+    <row r="15" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B15" s="20" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="16" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A16" s="15" t="s">
         <v>635</v>
       </c>
@@ -18685,7 +18698,7 @@
         <v>8.4510000000000002E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A17" s="15" t="s">
         <v>634</v>
       </c>
@@ -18789,7 +18802,7 @@
         <v>1.1919000000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A18" s="15" t="s">
         <v>633</v>
       </c>
@@ -18893,7 +18906,7 @@
         <v>2.2820000000000002E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A19" s="15" t="s">
         <v>632</v>
       </c>
@@ -18997,12 +19010,12 @@
         <v>-2.4260000000000002E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B21" s="20" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="22" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A22" s="15" t="s">
         <v>631</v>
       </c>
@@ -19106,7 +19119,7 @@
         <v>1.1311E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A23" s="15" t="s">
         <v>630</v>
       </c>
@@ -19210,7 +19223,7 @@
         <v>5.1529999999999996E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A24" s="15" t="s">
         <v>629</v>
       </c>
@@ -19314,7 +19327,7 @@
         <v>2.9852E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A25" s="15" t="s">
         <v>628</v>
       </c>
@@ -19418,7 +19431,7 @@
         <v>2.689E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A26" s="15" t="s">
         <v>627</v>
       </c>
@@ -19522,12 +19535,12 @@
         <v>-5.7629999999999999E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B28" s="20" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="29" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A29" s="15" t="s">
         <v>626</v>
       </c>
@@ -19631,7 +19644,7 @@
         <v>1.6316000000000001E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A30" s="15" t="s">
         <v>625</v>
       </c>
@@ -19735,7 +19748,7 @@
         <v>4.9259999999999998E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A31" s="15" t="s">
         <v>624</v>
       </c>
@@ -19839,7 +19852,7 @@
         <v>3.3402000000000001E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A32" s="15" t="s">
         <v>623</v>
       </c>
@@ -19943,7 +19956,7 @@
         <v>4.1370000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A33" s="15" t="s">
         <v>622</v>
       </c>
@@ -20047,7 +20060,7 @@
         <v>-2.0270000000000002E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A34" s="15" t="s">
         <v>621</v>
       </c>
@@ -20151,7 +20164,7 @@
         <v>9.9500000000000001E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A35" s="15" t="s">
         <v>620</v>
       </c>
@@ -20255,7 +20268,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A36" s="15" t="s">
         <v>619</v>
       </c>
@@ -20359,13 +20372,13 @@
         <v>-6.9829999999999996E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:34" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="1:34" ht="12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:34" ht="12.25" x14ac:dyDescent="0.65"/>
+    <row r="38" spans="1:34" ht="12.25" x14ac:dyDescent="0.65">
       <c r="B38" s="20" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A39" s="15" t="s">
         <v>618</v>
       </c>
@@ -20469,7 +20482,7 @@
         <v>1.1308E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A40" s="15" t="s">
         <v>617</v>
       </c>
@@ -20573,7 +20586,7 @@
         <v>9.0329999999999994E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A41" s="15" t="s">
         <v>616</v>
       </c>
@@ -20677,7 +20690,7 @@
         <v>7.6880000000000004E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A42" s="15" t="s">
         <v>615</v>
       </c>
@@ -20781,7 +20794,7 @@
         <v>2.1433000000000001E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A43" s="15" t="s">
         <v>614</v>
       </c>
@@ -20885,7 +20898,7 @@
         <v>9.9349999999999994E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A44" s="15" t="s">
         <v>613</v>
       </c>
@@ -20989,7 +21002,7 @@
         <v>1.4855999999999999E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A45" s="15" t="s">
         <v>612</v>
       </c>
@@ -21093,7 +21106,7 @@
         <v>-8.5889999999999994E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A46" s="15" t="s">
         <v>611</v>
       </c>
@@ -21197,13 +21210,13 @@
         <v>-4.3759999999999997E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:34" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:34" ht="12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:34" ht="12.25" x14ac:dyDescent="0.65"/>
+    <row r="48" spans="1:34" ht="12.25" x14ac:dyDescent="0.65">
       <c r="B48" s="20" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A49" s="15" t="s">
         <v>610</v>
       </c>
@@ -21307,7 +21320,7 @@
         <v>3.9050000000000001E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A50" s="15" t="s">
         <v>609</v>
       </c>
@@ -21411,7 +21424,7 @@
         <v>2.0074999999999999E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A51" s="15" t="s">
         <v>608</v>
       </c>
@@ -21515,7 +21528,7 @@
         <v>4.7829999999999999E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A52" s="15" t="s">
         <v>607</v>
       </c>
@@ -21619,14 +21632,14 @@
         <v>-5.326E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A53" s="15" t="s">
         <v>606</v>
       </c>
-      <c r="B53" s="40" t="s">
+      <c r="B53" s="34" t="s">
         <v>551</v>
       </c>
-      <c r="C53" s="41">
+      <c r="C53" s="35">
         <v>0.68612300000000004</v>
       </c>
       <c r="D53" s="22">
@@ -21723,12 +21736,12 @@
         <v>2.4520000000000002E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B56" s="20" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="57" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A57" s="15" t="s">
         <v>605</v>
       </c>
@@ -21832,7 +21845,7 @@
         <v>8.0149999999999996E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A58" s="15" t="s">
         <v>604</v>
       </c>
@@ -21936,7 +21949,7 @@
         <v>9.0329999999999994E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A59" s="15" t="s">
         <v>603</v>
       </c>
@@ -22040,7 +22053,7 @@
         <v>7.7219999999999997E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A60" s="15" t="s">
         <v>602</v>
       </c>
@@ -22144,7 +22157,7 @@
         <v>2.1433000000000001E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A61" s="15" t="s">
         <v>601</v>
       </c>
@@ -22248,7 +22261,7 @@
         <v>8.5290000000000001E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A62" s="15" t="s">
         <v>600</v>
       </c>
@@ -22352,7 +22365,7 @@
         <v>1.6289000000000001E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A63" s="15" t="s">
         <v>599</v>
       </c>
@@ -22456,7 +22469,7 @@
         <v>6.9200000000000002E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A64" s="15" t="s">
         <v>598</v>
       </c>
@@ -22560,7 +22573,7 @@
         <v>-2.0270000000000002E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A65" s="15" t="s">
         <v>597</v>
       </c>
@@ -22664,7 +22677,7 @@
         <v>-3.2049999999999999E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A66" s="15" t="s">
         <v>596</v>
       </c>
@@ -22768,7 +22781,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="67" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A67" s="15" t="s">
         <v>595</v>
       </c>
@@ -22872,17 +22885,17 @@
         <v>-4.5640000000000003E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B69" s="20" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="70" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B70" s="20" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="71" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A71" s="15" t="s">
         <v>593</v>
       </c>
@@ -22986,7 +22999,7 @@
         <v>3.96E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A72" s="15" t="s">
         <v>592</v>
       </c>
@@ -23090,7 +23103,7 @@
         <v>4.6499999999999996E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A73" s="15" t="s">
         <v>591</v>
       </c>
@@ -23194,7 +23207,7 @@
         <v>1.8422999999999998E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A74" s="15" t="s">
         <v>590</v>
       </c>
@@ -23298,7 +23311,7 @@
         <v>1.3216E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A75" s="15" t="s">
         <v>589</v>
       </c>
@@ -23402,7 +23415,7 @@
         <v>1.0611000000000001E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A76" s="15" t="s">
         <v>588</v>
       </c>
@@ -23506,122 +23519,122 @@
         <v>1.1518E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A77" s="15" t="s">
         <v>587</v>
       </c>
       <c r="B77" s="20" t="s">
         <v>523</v>
       </c>
-      <c r="C77" s="36">
+      <c r="C77" s="30">
         <v>984.44158900000002</v>
       </c>
-      <c r="D77" s="36">
+      <c r="D77" s="30">
         <v>1048.0355219999999</v>
       </c>
-      <c r="E77" s="36">
+      <c r="E77" s="30">
         <v>1071.099365</v>
       </c>
-      <c r="F77" s="36">
+      <c r="F77" s="30">
         <v>1081.462158</v>
       </c>
-      <c r="G77" s="36">
+      <c r="G77" s="30">
         <v>1086.391846</v>
       </c>
-      <c r="H77" s="36">
+      <c r="H77" s="30">
         <v>1091.8165280000001</v>
       </c>
-      <c r="I77" s="36">
+      <c r="I77" s="30">
         <v>1096.63562</v>
       </c>
-      <c r="J77" s="36">
+      <c r="J77" s="30">
         <v>1112.213013</v>
       </c>
-      <c r="K77" s="36">
+      <c r="K77" s="30">
         <v>1120.8081050000001</v>
       </c>
-      <c r="L77" s="36">
+      <c r="L77" s="30">
         <v>1131.8774410000001</v>
       </c>
-      <c r="M77" s="36">
+      <c r="M77" s="30">
         <v>1159.3435059999999</v>
       </c>
-      <c r="N77" s="36">
+      <c r="N77" s="30">
         <v>1163.7330320000001</v>
       </c>
-      <c r="O77" s="36">
+      <c r="O77" s="30">
         <v>1174.7879640000001</v>
       </c>
-      <c r="P77" s="36">
+      <c r="P77" s="30">
         <v>1182.33374</v>
       </c>
-      <c r="Q77" s="36">
+      <c r="Q77" s="30">
         <v>1193.91626</v>
       </c>
-      <c r="R77" s="36">
+      <c r="R77" s="30">
         <v>1191.9288329999999</v>
       </c>
-      <c r="S77" s="36">
+      <c r="S77" s="30">
         <v>1195.7707519999999</v>
       </c>
-      <c r="T77" s="36">
+      <c r="T77" s="30">
         <v>1207.068726</v>
       </c>
-      <c r="U77" s="36">
+      <c r="U77" s="30">
         <v>1218.102905</v>
       </c>
-      <c r="V77" s="36">
+      <c r="V77" s="30">
         <v>1221.888428</v>
       </c>
-      <c r="W77" s="36">
+      <c r="W77" s="30">
         <v>1234.6779790000001</v>
       </c>
-      <c r="X77" s="36">
+      <c r="X77" s="30">
         <v>1246.2974850000001</v>
       </c>
-      <c r="Y77" s="36">
+      <c r="Y77" s="30">
         <v>1255.3066409999999</v>
       </c>
-      <c r="Z77" s="36">
+      <c r="Z77" s="30">
         <v>1266.841919</v>
       </c>
-      <c r="AA77" s="36">
+      <c r="AA77" s="30">
         <v>1280.252563</v>
       </c>
-      <c r="AB77" s="36">
+      <c r="AB77" s="30">
         <v>1295.596313</v>
       </c>
-      <c r="AC77" s="36">
+      <c r="AC77" s="30">
         <v>1306.4365230000001</v>
       </c>
-      <c r="AD77" s="36">
+      <c r="AD77" s="30">
         <v>1316.447754</v>
       </c>
-      <c r="AE77" s="36">
+      <c r="AE77" s="30">
         <v>1324.9967039999999</v>
       </c>
-      <c r="AF77" s="36">
+      <c r="AF77" s="30">
         <v>1337.465332</v>
       </c>
-      <c r="AG77" s="36">
+      <c r="AG77" s="30">
         <v>1351.1951899999999</v>
       </c>
       <c r="AH77" s="25">
         <v>1.0612E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:34" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="80" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:34" ht="12.25" x14ac:dyDescent="0.65"/>
+    <row r="80" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B80" s="20" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="81" spans="1:34" ht="12" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:34" ht="12.25" x14ac:dyDescent="0.65">
       <c r="B81" s="20" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="82" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A82" s="15" t="s">
         <v>585</v>
       </c>
@@ -23725,7 +23738,7 @@
         <v>3.2972000000000001E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A83" s="15" t="s">
         <v>584</v>
       </c>
@@ -23829,7 +23842,7 @@
         <v>3.6524000000000001E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A84" s="15" t="s">
         <v>583</v>
       </c>
@@ -23933,7 +23946,7 @@
         <v>2.6653E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A85" s="15" t="s">
         <v>582</v>
       </c>
@@ -24037,12 +24050,12 @@
         <v>2.1829999999999999E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B87" s="20" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="88" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A88" s="15" t="s">
         <v>581</v>
       </c>
@@ -24146,7 +24159,7 @@
         <v>3.5901000000000002E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A89" s="15" t="s">
         <v>580</v>
       </c>
@@ -24250,7 +24263,7 @@
         <v>2.9593999999999999E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A90" s="15" t="s">
         <v>579</v>
       </c>
@@ -24354,7 +24367,7 @@
         <v>5.4892999999999997E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A91" s="15" t="s">
         <v>578</v>
       </c>
@@ -24458,7 +24471,7 @@
         <v>2.707E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A92" s="15" t="s">
         <v>577</v>
       </c>
@@ -24562,12 +24575,12 @@
         <v>1.8412000000000001E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B94" s="20" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="95" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A95" s="15" t="s">
         <v>576</v>
       </c>
@@ -24671,7 +24684,7 @@
         <v>4.1029000000000003E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A96" s="15" t="s">
         <v>575</v>
       </c>
@@ -24775,7 +24788,7 @@
         <v>2.9361000000000002E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A97" s="15" t="s">
         <v>574</v>
       </c>
@@ -24879,7 +24892,7 @@
         <v>5.8529999999999999E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A98" s="15" t="s">
         <v>573</v>
       </c>
@@ -24983,7 +24996,7 @@
         <v>2.8554E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A99" s="15" t="s">
         <v>571</v>
       </c>
@@ -25087,7 +25100,7 @@
         <v>2.2239999999999999E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A100" s="15" t="s">
         <v>570</v>
       </c>
@@ -25191,7 +25204,7 @@
         <v>2.5335E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A101" s="15" t="s">
         <v>569</v>
       </c>
@@ -25295,7 +25308,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="102" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A102" s="15" t="s">
         <v>568</v>
       </c>
@@ -25399,12 +25412,12 @@
         <v>1.7163000000000001E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B105" s="20" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="106" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A106" s="15" t="s">
         <v>567</v>
       </c>
@@ -25508,7 +25521,7 @@
         <v>3.5899E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A107" s="15" t="s">
         <v>566</v>
       </c>
@@ -25612,7 +25625,7 @@
         <v>3.3568000000000001E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A108" s="15" t="s">
         <v>565</v>
       </c>
@@ -25716,7 +25729,7 @@
         <v>3.2190999999999997E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A109" s="15" t="s">
         <v>564</v>
       </c>
@@ -25820,7 +25833,7 @@
         <v>4.6269999999999999E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A110" s="15" t="s">
         <v>563</v>
       </c>
@@ -25924,7 +25937,7 @@
         <v>3.4492000000000002E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A111" s="15" t="s">
         <v>561</v>
       </c>
@@ -26028,111 +26041,111 @@
         <v>3.9532999999999999E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A112" s="15" t="s">
         <v>560</v>
       </c>
-      <c r="B112" s="35" t="s">
+      <c r="B112" s="65" t="s">
         <v>559</v>
       </c>
-      <c r="C112" s="34">
+      <c r="C112" s="66">
         <v>12.999203</v>
       </c>
-      <c r="D112" s="34">
+      <c r="D112" s="66">
         <v>13.756338</v>
       </c>
-      <c r="E112" s="34">
+      <c r="E112" s="66">
         <v>14.272468</v>
       </c>
-      <c r="F112" s="34">
+      <c r="F112" s="66">
         <v>13.87274</v>
       </c>
-      <c r="G112" s="34">
+      <c r="G112" s="66">
         <v>13.379066999999999</v>
       </c>
-      <c r="H112" s="34">
+      <c r="H112" s="66">
         <v>13.404615</v>
       </c>
-      <c r="I112" s="34">
+      <c r="I112" s="66">
         <v>13.498896999999999</v>
       </c>
-      <c r="J112" s="34">
+      <c r="J112" s="66">
         <v>13.628196000000001</v>
       </c>
-      <c r="K112" s="34">
+      <c r="K112" s="66">
         <v>13.736962</v>
       </c>
-      <c r="L112" s="34">
+      <c r="L112" s="66">
         <v>13.932218000000001</v>
       </c>
-      <c r="M112" s="34">
+      <c r="M112" s="66">
         <v>14.950908999999999</v>
       </c>
-      <c r="N112" s="34">
+      <c r="N112" s="66">
         <v>15.044097000000001</v>
       </c>
-      <c r="O112" s="34">
+      <c r="O112" s="66">
         <v>15.321702</v>
       </c>
-      <c r="P112" s="34">
+      <c r="P112" s="66">
         <v>15.516894000000001</v>
       </c>
-      <c r="Q112" s="34">
+      <c r="Q112" s="66">
         <v>15.691060999999999</v>
       </c>
-      <c r="R112" s="34">
+      <c r="R112" s="66">
         <v>15.773815000000001</v>
       </c>
-      <c r="S112" s="34">
+      <c r="S112" s="66">
         <v>15.950137</v>
       </c>
-      <c r="T112" s="34">
+      <c r="T112" s="66">
         <v>16.117809000000001</v>
       </c>
-      <c r="U112" s="34">
+      <c r="U112" s="66">
         <v>16.291615</v>
       </c>
-      <c r="V112" s="34">
+      <c r="V112" s="66">
         <v>16.466549000000001</v>
       </c>
-      <c r="W112" s="34">
+      <c r="W112" s="66">
         <v>16.700437999999998</v>
       </c>
-      <c r="X112" s="34">
+      <c r="X112" s="66">
         <v>16.943705000000001</v>
       </c>
-      <c r="Y112" s="34">
+      <c r="Y112" s="66">
         <v>17.277073000000001</v>
       </c>
-      <c r="Z112" s="34">
+      <c r="Z112" s="66">
         <v>17.574244</v>
       </c>
-      <c r="AA112" s="34">
+      <c r="AA112" s="66">
         <v>17.982026999999999</v>
       </c>
-      <c r="AB112" s="34">
+      <c r="AB112" s="66">
         <v>18.336407000000001</v>
       </c>
-      <c r="AC112" s="34">
+      <c r="AC112" s="66">
         <v>18.741672999999999</v>
       </c>
-      <c r="AD112" s="34">
+      <c r="AD112" s="66">
         <v>19.208071</v>
       </c>
-      <c r="AE112" s="34">
+      <c r="AE112" s="66">
         <v>19.600466000000001</v>
       </c>
-      <c r="AF112" s="34">
+      <c r="AF112" s="66">
         <v>20.057380999999999</v>
       </c>
-      <c r="AG112" s="34">
+      <c r="AG112" s="66">
         <v>20.632099</v>
       </c>
-      <c r="AH112" s="33">
+      <c r="AH112" s="67">
         <v>1.5518000000000001E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A113" s="15" t="s">
         <v>558</v>
       </c>
@@ -26236,12 +26249,12 @@
         <v>1.9834000000000001E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B115" s="20" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="116" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A116" s="15" t="s">
         <v>556</v>
       </c>
@@ -26345,7 +26358,7 @@
         <v>2.8315E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A117" s="15" t="s">
         <v>555</v>
       </c>
@@ -26449,7 +26462,7 @@
         <v>4.4878000000000001E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A118" s="15" t="s">
         <v>554</v>
       </c>
@@ -26553,7 +26566,7 @@
         <v>2.9215000000000001E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A119" s="15" t="s">
         <v>553</v>
       </c>
@@ -26657,7 +26670,7 @@
         <v>1.8859999999999998E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A120" s="15" t="s">
         <v>552</v>
       </c>
@@ -26761,12 +26774,12 @@
         <v>2.6828000000000001E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B122" s="20" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="123" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A123" s="15" t="s">
         <v>549</v>
       </c>
@@ -26870,7 +26883,7 @@
         <v>3.2525999999999999E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A124" s="15" t="s">
         <v>548</v>
       </c>
@@ -26974,7 +26987,7 @@
         <v>3.3568000000000001E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A125" s="15" t="s">
         <v>546</v>
       </c>
@@ -27078,7 +27091,7 @@
         <v>3.2224999999999997E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A126" s="15" t="s">
         <v>544</v>
       </c>
@@ -27182,7 +27195,7 @@
         <v>4.6269999999999999E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A127" s="15" t="s">
         <v>542</v>
       </c>
@@ -27286,7 +27299,7 @@
         <v>3.3051999999999998E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A128" s="15" t="s">
         <v>541</v>
       </c>
@@ -27390,7 +27403,7 @@
         <v>4.1001000000000003E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A129" s="15" t="s">
         <v>540</v>
       </c>
@@ -27494,7 +27507,7 @@
         <v>2.5024999999999999E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A130" s="15" t="s">
         <v>539</v>
       </c>
@@ -27598,7 +27611,7 @@
         <v>2.2239999999999999E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A131" s="15" t="s">
         <v>538</v>
       </c>
@@ -27702,7 +27715,7 @@
         <v>2.1033E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A132" s="15" t="s">
         <v>537</v>
       </c>
@@ -27806,7 +27819,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="133" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A133" s="15" t="s">
         <v>536</v>
       </c>
@@ -27910,17 +27923,17 @@
         <v>1.9640000000000001E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B135" s="20" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="136" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B136" s="20" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="137" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A137" s="15" t="s">
         <v>533</v>
       </c>
@@ -28024,7 +28037,7 @@
         <v>2.8372000000000001E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A138" s="15" t="s">
         <v>532</v>
       </c>
@@ -28128,7 +28141,7 @@
         <v>2.9078E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A139" s="15" t="s">
         <v>531</v>
       </c>
@@ -28232,7 +28245,7 @@
         <v>4.3186000000000002E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A140" s="15" t="s">
         <v>529</v>
       </c>
@@ -28336,7 +28349,7 @@
         <v>3.7852999999999998E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A141" s="15" t="s">
         <v>528</v>
       </c>
@@ -28440,7 +28453,7 @@
         <v>3.5185000000000001E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A142" s="15" t="s">
         <v>526</v>
       </c>
@@ -28544,907 +28557,907 @@
         <v>3.6114E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:34" ht="12" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:34" ht="12.25" x14ac:dyDescent="0.65">
       <c r="A143" s="15" t="s">
         <v>524</v>
       </c>
       <c r="B143" s="20" t="s">
         <v>523</v>
       </c>
-      <c r="C143" s="36">
+      <c r="C143" s="30">
         <v>984.44158900000002</v>
       </c>
-      <c r="D143" s="36">
+      <c r="D143" s="30">
         <v>1059.0924070000001</v>
       </c>
-      <c r="E143" s="36">
+      <c r="E143" s="30">
         <v>1094.903564</v>
       </c>
-      <c r="F143" s="36">
+      <c r="F143" s="30">
         <v>1120.1130370000001</v>
       </c>
-      <c r="G143" s="36">
+      <c r="G143" s="30">
         <v>1144.379639</v>
       </c>
-      <c r="H143" s="36">
+      <c r="H143" s="30">
         <v>1174.9918210000001</v>
       </c>
-      <c r="I143" s="36">
+      <c r="I143" s="30">
         <v>1210.260986</v>
       </c>
-      <c r="J143" s="36">
+      <c r="J143" s="30">
         <v>1262.631836</v>
       </c>
-      <c r="K143" s="36">
+      <c r="K143" s="30">
         <v>1310.40625</v>
       </c>
-      <c r="L143" s="36">
+      <c r="L143" s="30">
         <v>1364.1523440000001</v>
       </c>
-      <c r="M143" s="36">
+      <c r="M143" s="30">
         <v>1440.109009</v>
       </c>
-      <c r="N143" s="36">
+      <c r="N143" s="30">
         <v>1489.114746</v>
       </c>
-      <c r="O143" s="36">
+      <c r="O143" s="30">
         <v>1546.6475829999999</v>
       </c>
-      <c r="P143" s="36">
+      <c r="P143" s="30">
         <v>1599.9216309999999</v>
       </c>
-      <c r="Q143" s="36">
+      <c r="Q143" s="30">
         <v>1658.161255</v>
       </c>
-      <c r="R143" s="36">
+      <c r="R143" s="30">
         <v>1697.076538</v>
       </c>
-      <c r="S143" s="36">
+      <c r="S143" s="30">
         <v>1743.942505</v>
       </c>
-      <c r="T143" s="36">
+      <c r="T143" s="30">
         <v>1801.7655030000001</v>
       </c>
-      <c r="U143" s="36">
+      <c r="U143" s="30">
         <v>1860.315186</v>
       </c>
-      <c r="V143" s="36">
+      <c r="V143" s="30">
         <v>1907.727539</v>
       </c>
-      <c r="W143" s="36">
+      <c r="W143" s="30">
         <v>1971.652466</v>
       </c>
-      <c r="X143" s="36">
+      <c r="X143" s="30">
         <v>2035.8005370000001</v>
       </c>
-      <c r="Y143" s="36">
+      <c r="Y143" s="30">
         <v>2098.2409670000002</v>
       </c>
-      <c r="Z143" s="36">
+      <c r="Z143" s="30">
         <v>2168.2126459999999</v>
       </c>
-      <c r="AA143" s="36">
+      <c r="AA143" s="30">
         <v>2245.5832519999999</v>
       </c>
-      <c r="AB143" s="36">
+      <c r="AB143" s="30">
         <v>2329.4479980000001</v>
       </c>
-      <c r="AC143" s="36">
+      <c r="AC143" s="30">
         <v>2410.8857419999999</v>
       </c>
-      <c r="AD143" s="36">
+      <c r="AD143" s="30">
         <v>2494.2585450000001</v>
       </c>
-      <c r="AE143" s="36">
+      <c r="AE143" s="30">
         <v>2578.101807</v>
       </c>
-      <c r="AF143" s="36">
+      <c r="AF143" s="30">
         <v>2674.3098140000002</v>
       </c>
-      <c r="AG143" s="36">
+      <c r="AG143" s="30">
         <v>2777.9956050000001</v>
       </c>
       <c r="AH143" s="25">
         <v>3.5185000000000001E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:34" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="145" spans="2:34" ht="12.75" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="146" spans="2:34" ht="12" x14ac:dyDescent="0.2">
-      <c r="B146" s="28" t="s">
+    <row r="144" spans="1:34" ht="12.25" x14ac:dyDescent="0.65"/>
+    <row r="145" spans="2:34" ht="13" thickBot="1" x14ac:dyDescent="0.8"/>
+    <row r="146" spans="2:34" ht="12.25" x14ac:dyDescent="0.65">
+      <c r="B146" s="63" t="s">
         <v>522</v>
       </c>
-      <c r="C146" s="29"/>
-      <c r="D146" s="29"/>
-      <c r="E146" s="29"/>
-      <c r="F146" s="29"/>
-      <c r="G146" s="29"/>
-      <c r="H146" s="29"/>
-      <c r="I146" s="29"/>
-      <c r="J146" s="29"/>
-      <c r="K146" s="29"/>
-      <c r="L146" s="29"/>
-      <c r="M146" s="29"/>
-      <c r="N146" s="29"/>
-      <c r="O146" s="29"/>
-      <c r="P146" s="29"/>
-      <c r="Q146" s="29"/>
-      <c r="R146" s="29"/>
-      <c r="S146" s="29"/>
-      <c r="T146" s="29"/>
-      <c r="U146" s="29"/>
-      <c r="V146" s="29"/>
-      <c r="W146" s="29"/>
-      <c r="X146" s="29"/>
-      <c r="Y146" s="29"/>
-      <c r="Z146" s="29"/>
-      <c r="AA146" s="29"/>
-      <c r="AB146" s="29"/>
-      <c r="AC146" s="29"/>
-      <c r="AD146" s="29"/>
-      <c r="AE146" s="29"/>
-      <c r="AF146" s="29"/>
-      <c r="AG146" s="29"/>
-      <c r="AH146" s="30"/>
-    </row>
-    <row r="147" spans="2:34" ht="12" x14ac:dyDescent="0.2">
-      <c r="B147" s="31" t="s">
+      <c r="C146" s="64"/>
+      <c r="D146" s="64"/>
+      <c r="E146" s="64"/>
+      <c r="F146" s="64"/>
+      <c r="G146" s="64"/>
+      <c r="H146" s="64"/>
+      <c r="I146" s="64"/>
+      <c r="J146" s="64"/>
+      <c r="K146" s="64"/>
+      <c r="L146" s="64"/>
+      <c r="M146" s="64"/>
+      <c r="N146" s="64"/>
+      <c r="O146" s="64"/>
+      <c r="P146" s="64"/>
+      <c r="Q146" s="64"/>
+      <c r="R146" s="64"/>
+      <c r="S146" s="64"/>
+      <c r="T146" s="64"/>
+      <c r="U146" s="64"/>
+      <c r="V146" s="64"/>
+      <c r="W146" s="64"/>
+      <c r="X146" s="64"/>
+      <c r="Y146" s="64"/>
+      <c r="Z146" s="64"/>
+      <c r="AA146" s="64"/>
+      <c r="AB146" s="64"/>
+      <c r="AC146" s="64"/>
+      <c r="AD146" s="64"/>
+      <c r="AE146" s="64"/>
+      <c r="AF146" s="64"/>
+      <c r="AG146" s="64"/>
+      <c r="AH146" s="28"/>
+    </row>
+    <row r="147" spans="2:34" ht="12.25" x14ac:dyDescent="0.65">
+      <c r="B147" s="29" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="148" spans="2:34" ht="12" x14ac:dyDescent="0.2">
-      <c r="B148" s="31" t="s">
+    <row r="148" spans="2:34" ht="12.25" x14ac:dyDescent="0.65">
+      <c r="B148" s="29" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="149" spans="2:34" ht="12" x14ac:dyDescent="0.2">
-      <c r="B149" s="31" t="s">
+    <row r="149" spans="2:34" ht="12.25" x14ac:dyDescent="0.65">
+      <c r="B149" s="29" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="150" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B150" s="31" t="s">
+    <row r="150" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B150" s="29" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="151" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B151" s="31" t="s">
+    <row r="151" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B151" s="29" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="152" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B152" s="31" t="s">
+    <row r="152" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B152" s="29" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="153" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B153" s="31" t="s">
+    <row r="153" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B153" s="29" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="154" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B154" s="31" t="s">
+    <row r="154" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B154" s="29" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="155" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B155" s="31" t="s">
+    <row r="155" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B155" s="29" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="156" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B156" s="31" t="s">
+    <row r="156" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B156" s="29" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="157" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B157" s="31" t="s">
+    <row r="157" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B157" s="29" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="158" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B158" s="31" t="s">
+    <row r="158" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B158" s="29" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="159" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B159" s="31" t="s">
+    <row r="159" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B159" s="29" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="160" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B160" s="31" t="s">
+    <row r="160" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B160" s="29" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="165" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="308" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B308" s="32"/>
-      <c r="C308" s="32"/>
-      <c r="D308" s="32"/>
-      <c r="E308" s="32"/>
-      <c r="F308" s="32"/>
-      <c r="G308" s="32"/>
-      <c r="H308" s="32"/>
-      <c r="I308" s="32"/>
-      <c r="J308" s="32"/>
-      <c r="K308" s="32"/>
-      <c r="L308" s="32"/>
-      <c r="M308" s="32"/>
-      <c r="N308" s="32"/>
-      <c r="O308" s="32"/>
-      <c r="P308" s="32"/>
-      <c r="Q308" s="32"/>
-      <c r="R308" s="32"/>
-      <c r="S308" s="32"/>
-      <c r="T308" s="32"/>
-      <c r="U308" s="32"/>
-      <c r="V308" s="32"/>
-      <c r="W308" s="32"/>
-      <c r="X308" s="32"/>
-      <c r="Y308" s="32"/>
-      <c r="Z308" s="32"/>
-      <c r="AA308" s="32"/>
-      <c r="AB308" s="32"/>
-      <c r="AC308" s="32"/>
-      <c r="AD308" s="32"/>
-      <c r="AE308" s="32"/>
-      <c r="AF308" s="32"/>
-      <c r="AG308" s="32"/>
-      <c r="AH308" s="32"/>
-    </row>
-    <row r="511" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B511" s="32"/>
-      <c r="C511" s="32"/>
-      <c r="D511" s="32"/>
-      <c r="E511" s="32"/>
-      <c r="F511" s="32"/>
-      <c r="G511" s="32"/>
-      <c r="H511" s="32"/>
-      <c r="I511" s="32"/>
-      <c r="J511" s="32"/>
-      <c r="K511" s="32"/>
-      <c r="L511" s="32"/>
-      <c r="M511" s="32"/>
-      <c r="N511" s="32"/>
-      <c r="O511" s="32"/>
-      <c r="P511" s="32"/>
-      <c r="Q511" s="32"/>
-      <c r="R511" s="32"/>
-      <c r="S511" s="32"/>
-      <c r="T511" s="32"/>
-      <c r="U511" s="32"/>
-      <c r="V511" s="32"/>
-      <c r="W511" s="32"/>
-      <c r="X511" s="32"/>
-      <c r="Y511" s="32"/>
-      <c r="Z511" s="32"/>
-      <c r="AA511" s="32"/>
-      <c r="AB511" s="32"/>
-      <c r="AC511" s="32"/>
-      <c r="AD511" s="32"/>
-      <c r="AE511" s="32"/>
-      <c r="AF511" s="32"/>
-      <c r="AG511" s="32"/>
-      <c r="AH511" s="32"/>
-    </row>
-    <row r="712" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B712" s="32"/>
-      <c r="C712" s="32"/>
-      <c r="D712" s="32"/>
-      <c r="E712" s="32"/>
-      <c r="F712" s="32"/>
-      <c r="G712" s="32"/>
-      <c r="H712" s="32"/>
-      <c r="I712" s="32"/>
-      <c r="J712" s="32"/>
-      <c r="K712" s="32"/>
-      <c r="L712" s="32"/>
-      <c r="M712" s="32"/>
-      <c r="N712" s="32"/>
-      <c r="O712" s="32"/>
-      <c r="P712" s="32"/>
-      <c r="Q712" s="32"/>
-      <c r="R712" s="32"/>
-      <c r="S712" s="32"/>
-      <c r="T712" s="32"/>
-      <c r="U712" s="32"/>
-      <c r="V712" s="32"/>
-      <c r="W712" s="32"/>
-      <c r="X712" s="32"/>
-      <c r="Y712" s="32"/>
-      <c r="Z712" s="32"/>
-      <c r="AA712" s="32"/>
-      <c r="AB712" s="32"/>
-      <c r="AC712" s="32"/>
-      <c r="AD712" s="32"/>
-      <c r="AE712" s="32"/>
-      <c r="AF712" s="32"/>
-      <c r="AG712" s="32"/>
-      <c r="AH712" s="32"/>
-    </row>
-    <row r="887" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B887" s="32"/>
-      <c r="C887" s="32"/>
-      <c r="D887" s="32"/>
-      <c r="E887" s="32"/>
-      <c r="F887" s="32"/>
-      <c r="G887" s="32"/>
-      <c r="H887" s="32"/>
-      <c r="I887" s="32"/>
-      <c r="J887" s="32"/>
-      <c r="K887" s="32"/>
-      <c r="L887" s="32"/>
-      <c r="M887" s="32"/>
-      <c r="N887" s="32"/>
-      <c r="O887" s="32"/>
-      <c r="P887" s="32"/>
-      <c r="Q887" s="32"/>
-      <c r="R887" s="32"/>
-      <c r="S887" s="32"/>
-      <c r="T887" s="32"/>
-      <c r="U887" s="32"/>
-      <c r="V887" s="32"/>
-      <c r="W887" s="32"/>
-      <c r="X887" s="32"/>
-      <c r="Y887" s="32"/>
-      <c r="Z887" s="32"/>
-      <c r="AA887" s="32"/>
-      <c r="AB887" s="32"/>
-      <c r="AC887" s="32"/>
-      <c r="AD887" s="32"/>
-      <c r="AE887" s="32"/>
-      <c r="AF887" s="32"/>
-      <c r="AG887" s="32"/>
-      <c r="AH887" s="32"/>
-    </row>
-    <row r="1100" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1100" s="32"/>
-      <c r="C1100" s="32"/>
-      <c r="D1100" s="32"/>
-      <c r="E1100" s="32"/>
-      <c r="F1100" s="32"/>
-      <c r="G1100" s="32"/>
-      <c r="H1100" s="32"/>
-      <c r="I1100" s="32"/>
-      <c r="J1100" s="32"/>
-      <c r="K1100" s="32"/>
-      <c r="L1100" s="32"/>
-      <c r="M1100" s="32"/>
-      <c r="N1100" s="32"/>
-      <c r="O1100" s="32"/>
-      <c r="P1100" s="32"/>
-      <c r="Q1100" s="32"/>
-      <c r="R1100" s="32"/>
-      <c r="S1100" s="32"/>
-      <c r="T1100" s="32"/>
-      <c r="U1100" s="32"/>
-      <c r="V1100" s="32"/>
-      <c r="W1100" s="32"/>
-      <c r="X1100" s="32"/>
-      <c r="Y1100" s="32"/>
-      <c r="Z1100" s="32"/>
-      <c r="AA1100" s="32"/>
-      <c r="AB1100" s="32"/>
-      <c r="AC1100" s="32"/>
-      <c r="AD1100" s="32"/>
-      <c r="AE1100" s="32"/>
-      <c r="AF1100" s="32"/>
-      <c r="AG1100" s="32"/>
-      <c r="AH1100" s="32"/>
-    </row>
-    <row r="1227" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1227" s="32"/>
-      <c r="C1227" s="32"/>
-      <c r="D1227" s="32"/>
-      <c r="E1227" s="32"/>
-      <c r="F1227" s="32"/>
-      <c r="G1227" s="32"/>
-      <c r="H1227" s="32"/>
-      <c r="I1227" s="32"/>
-      <c r="J1227" s="32"/>
-      <c r="K1227" s="32"/>
-      <c r="L1227" s="32"/>
-      <c r="M1227" s="32"/>
-      <c r="N1227" s="32"/>
-      <c r="O1227" s="32"/>
-      <c r="P1227" s="32"/>
-      <c r="Q1227" s="32"/>
-      <c r="R1227" s="32"/>
-      <c r="S1227" s="32"/>
-      <c r="T1227" s="32"/>
-      <c r="U1227" s="32"/>
-      <c r="V1227" s="32"/>
-      <c r="W1227" s="32"/>
-      <c r="X1227" s="32"/>
-      <c r="Y1227" s="32"/>
-      <c r="Z1227" s="32"/>
-      <c r="AA1227" s="32"/>
-      <c r="AB1227" s="32"/>
-      <c r="AC1227" s="32"/>
-      <c r="AD1227" s="32"/>
-      <c r="AE1227" s="32"/>
-      <c r="AF1227" s="32"/>
-      <c r="AG1227" s="32"/>
-      <c r="AH1227" s="32"/>
-    </row>
-    <row r="1390" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1390" s="32"/>
-      <c r="C1390" s="32"/>
-      <c r="D1390" s="32"/>
-      <c r="E1390" s="32"/>
-      <c r="F1390" s="32"/>
-      <c r="G1390" s="32"/>
-      <c r="H1390" s="32"/>
-      <c r="I1390" s="32"/>
-      <c r="J1390" s="32"/>
-      <c r="K1390" s="32"/>
-      <c r="L1390" s="32"/>
-      <c r="M1390" s="32"/>
-      <c r="N1390" s="32"/>
-      <c r="O1390" s="32"/>
-      <c r="P1390" s="32"/>
-      <c r="Q1390" s="32"/>
-      <c r="R1390" s="32"/>
-      <c r="S1390" s="32"/>
-      <c r="T1390" s="32"/>
-      <c r="U1390" s="32"/>
-      <c r="V1390" s="32"/>
-      <c r="W1390" s="32"/>
-      <c r="X1390" s="32"/>
-      <c r="Y1390" s="32"/>
-      <c r="Z1390" s="32"/>
-      <c r="AA1390" s="32"/>
-      <c r="AB1390" s="32"/>
-      <c r="AC1390" s="32"/>
-      <c r="AD1390" s="32"/>
-      <c r="AE1390" s="32"/>
-      <c r="AF1390" s="32"/>
-      <c r="AG1390" s="32"/>
-      <c r="AH1390" s="32"/>
-    </row>
-    <row r="1502" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1502" s="32"/>
-      <c r="C1502" s="32"/>
-      <c r="D1502" s="32"/>
-      <c r="E1502" s="32"/>
-      <c r="F1502" s="32"/>
-      <c r="G1502" s="32"/>
-      <c r="H1502" s="32"/>
-      <c r="I1502" s="32"/>
-      <c r="J1502" s="32"/>
-      <c r="K1502" s="32"/>
-      <c r="L1502" s="32"/>
-      <c r="M1502" s="32"/>
-      <c r="N1502" s="32"/>
-      <c r="O1502" s="32"/>
-      <c r="P1502" s="32"/>
-      <c r="Q1502" s="32"/>
-      <c r="R1502" s="32"/>
-      <c r="S1502" s="32"/>
-      <c r="T1502" s="32"/>
-      <c r="U1502" s="32"/>
-      <c r="V1502" s="32"/>
-      <c r="W1502" s="32"/>
-      <c r="X1502" s="32"/>
-      <c r="Y1502" s="32"/>
-      <c r="Z1502" s="32"/>
-      <c r="AA1502" s="32"/>
-      <c r="AB1502" s="32"/>
-      <c r="AC1502" s="32"/>
-      <c r="AD1502" s="32"/>
-      <c r="AE1502" s="32"/>
-      <c r="AF1502" s="32"/>
-      <c r="AG1502" s="32"/>
-      <c r="AH1502" s="32"/>
-    </row>
-    <row r="1604" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1604" s="32"/>
-      <c r="C1604" s="32"/>
-      <c r="D1604" s="32"/>
-      <c r="E1604" s="32"/>
-      <c r="F1604" s="32"/>
-      <c r="G1604" s="32"/>
-      <c r="H1604" s="32"/>
-      <c r="I1604" s="32"/>
-      <c r="J1604" s="32"/>
-      <c r="K1604" s="32"/>
-      <c r="L1604" s="32"/>
-      <c r="M1604" s="32"/>
-      <c r="N1604" s="32"/>
-      <c r="O1604" s="32"/>
-      <c r="P1604" s="32"/>
-      <c r="Q1604" s="32"/>
-      <c r="R1604" s="32"/>
-      <c r="S1604" s="32"/>
-      <c r="T1604" s="32"/>
-      <c r="U1604" s="32"/>
-      <c r="V1604" s="32"/>
-      <c r="W1604" s="32"/>
-      <c r="X1604" s="32"/>
-      <c r="Y1604" s="32"/>
-      <c r="Z1604" s="32"/>
-      <c r="AA1604" s="32"/>
-      <c r="AB1604" s="32"/>
-      <c r="AC1604" s="32"/>
-      <c r="AD1604" s="32"/>
-      <c r="AE1604" s="32"/>
-      <c r="AF1604" s="32"/>
-      <c r="AG1604" s="32"/>
-      <c r="AH1604" s="32"/>
-    </row>
-    <row r="1698" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1698" s="32"/>
-      <c r="C1698" s="32"/>
-      <c r="D1698" s="32"/>
-      <c r="E1698" s="32"/>
-      <c r="F1698" s="32"/>
-      <c r="G1698" s="32"/>
-      <c r="H1698" s="32"/>
-      <c r="I1698" s="32"/>
-      <c r="J1698" s="32"/>
-      <c r="K1698" s="32"/>
-      <c r="L1698" s="32"/>
-      <c r="M1698" s="32"/>
-      <c r="N1698" s="32"/>
-      <c r="O1698" s="32"/>
-      <c r="P1698" s="32"/>
-      <c r="Q1698" s="32"/>
-      <c r="R1698" s="32"/>
-      <c r="S1698" s="32"/>
-      <c r="T1698" s="32"/>
-      <c r="U1698" s="32"/>
-      <c r="V1698" s="32"/>
-      <c r="W1698" s="32"/>
-      <c r="X1698" s="32"/>
-      <c r="Y1698" s="32"/>
-      <c r="Z1698" s="32"/>
-      <c r="AA1698" s="32"/>
-      <c r="AB1698" s="32"/>
-      <c r="AC1698" s="32"/>
-      <c r="AD1698" s="32"/>
-      <c r="AE1698" s="32"/>
-      <c r="AF1698" s="32"/>
-      <c r="AG1698" s="32"/>
-      <c r="AH1698" s="32"/>
-    </row>
-    <row r="1945" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1945" s="32"/>
-      <c r="C1945" s="32"/>
-      <c r="D1945" s="32"/>
-      <c r="E1945" s="32"/>
-      <c r="F1945" s="32"/>
-      <c r="G1945" s="32"/>
-      <c r="H1945" s="32"/>
-      <c r="I1945" s="32"/>
-      <c r="J1945" s="32"/>
-      <c r="K1945" s="32"/>
-      <c r="L1945" s="32"/>
-      <c r="M1945" s="32"/>
-      <c r="N1945" s="32"/>
-      <c r="O1945" s="32"/>
-      <c r="P1945" s="32"/>
-      <c r="Q1945" s="32"/>
-      <c r="R1945" s="32"/>
-      <c r="S1945" s="32"/>
-      <c r="T1945" s="32"/>
-      <c r="U1945" s="32"/>
-      <c r="V1945" s="32"/>
-      <c r="W1945" s="32"/>
-      <c r="X1945" s="32"/>
-      <c r="Y1945" s="32"/>
-      <c r="Z1945" s="32"/>
-      <c r="AA1945" s="32"/>
-      <c r="AB1945" s="32"/>
-      <c r="AC1945" s="32"/>
-      <c r="AD1945" s="32"/>
-      <c r="AE1945" s="32"/>
-      <c r="AF1945" s="32"/>
-      <c r="AG1945" s="32"/>
-      <c r="AH1945" s="32"/>
-    </row>
-    <row r="2031" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2031" s="32"/>
-      <c r="C2031" s="32"/>
-      <c r="D2031" s="32"/>
-      <c r="E2031" s="32"/>
-      <c r="F2031" s="32"/>
-      <c r="G2031" s="32"/>
-      <c r="H2031" s="32"/>
-      <c r="I2031" s="32"/>
-      <c r="J2031" s="32"/>
-      <c r="K2031" s="32"/>
-      <c r="L2031" s="32"/>
-      <c r="M2031" s="32"/>
-      <c r="N2031" s="32"/>
-      <c r="O2031" s="32"/>
-      <c r="P2031" s="32"/>
-      <c r="Q2031" s="32"/>
-      <c r="R2031" s="32"/>
-      <c r="S2031" s="32"/>
-      <c r="T2031" s="32"/>
-      <c r="U2031" s="32"/>
-      <c r="V2031" s="32"/>
-      <c r="W2031" s="32"/>
-      <c r="X2031" s="32"/>
-      <c r="Y2031" s="32"/>
-      <c r="Z2031" s="32"/>
-      <c r="AA2031" s="32"/>
-      <c r="AB2031" s="32"/>
-      <c r="AC2031" s="32"/>
-      <c r="AD2031" s="32"/>
-      <c r="AE2031" s="32"/>
-      <c r="AF2031" s="32"/>
-      <c r="AG2031" s="32"/>
-      <c r="AH2031" s="32"/>
-    </row>
-    <row r="2153" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2153" s="32"/>
-      <c r="C2153" s="32"/>
-      <c r="D2153" s="32"/>
-      <c r="E2153" s="32"/>
-      <c r="F2153" s="32"/>
-      <c r="G2153" s="32"/>
-      <c r="H2153" s="32"/>
-      <c r="I2153" s="32"/>
-      <c r="J2153" s="32"/>
-      <c r="K2153" s="32"/>
-      <c r="L2153" s="32"/>
-      <c r="M2153" s="32"/>
-      <c r="N2153" s="32"/>
-      <c r="O2153" s="32"/>
-      <c r="P2153" s="32"/>
-      <c r="Q2153" s="32"/>
-      <c r="R2153" s="32"/>
-      <c r="S2153" s="32"/>
-      <c r="T2153" s="32"/>
-      <c r="U2153" s="32"/>
-      <c r="V2153" s="32"/>
-      <c r="W2153" s="32"/>
-      <c r="X2153" s="32"/>
-      <c r="Y2153" s="32"/>
-      <c r="Z2153" s="32"/>
-      <c r="AA2153" s="32"/>
-      <c r="AB2153" s="32"/>
-      <c r="AC2153" s="32"/>
-      <c r="AD2153" s="32"/>
-      <c r="AE2153" s="32"/>
-      <c r="AF2153" s="32"/>
-      <c r="AG2153" s="32"/>
-      <c r="AH2153" s="32"/>
-    </row>
-    <row r="2317" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2317" s="32"/>
-      <c r="C2317" s="32"/>
-      <c r="D2317" s="32"/>
-      <c r="E2317" s="32"/>
-      <c r="F2317" s="32"/>
-      <c r="G2317" s="32"/>
-      <c r="H2317" s="32"/>
-      <c r="I2317" s="32"/>
-      <c r="J2317" s="32"/>
-      <c r="K2317" s="32"/>
-      <c r="L2317" s="32"/>
-      <c r="M2317" s="32"/>
-      <c r="N2317" s="32"/>
-      <c r="O2317" s="32"/>
-      <c r="P2317" s="32"/>
-      <c r="Q2317" s="32"/>
-      <c r="R2317" s="32"/>
-      <c r="S2317" s="32"/>
-      <c r="T2317" s="32"/>
-      <c r="U2317" s="32"/>
-      <c r="V2317" s="32"/>
-      <c r="W2317" s="32"/>
-      <c r="X2317" s="32"/>
-      <c r="Y2317" s="32"/>
-      <c r="Z2317" s="32"/>
-      <c r="AA2317" s="32"/>
-      <c r="AB2317" s="32"/>
-      <c r="AC2317" s="32"/>
-      <c r="AD2317" s="32"/>
-      <c r="AE2317" s="32"/>
-      <c r="AF2317" s="32"/>
-      <c r="AG2317" s="32"/>
-      <c r="AH2317" s="32"/>
-    </row>
-    <row r="2419" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2419" s="32"/>
-      <c r="C2419" s="32"/>
-      <c r="D2419" s="32"/>
-      <c r="E2419" s="32"/>
-      <c r="F2419" s="32"/>
-      <c r="G2419" s="32"/>
-      <c r="H2419" s="32"/>
-      <c r="I2419" s="32"/>
-      <c r="J2419" s="32"/>
-      <c r="K2419" s="32"/>
-      <c r="L2419" s="32"/>
-      <c r="M2419" s="32"/>
-      <c r="N2419" s="32"/>
-      <c r="O2419" s="32"/>
-      <c r="P2419" s="32"/>
-      <c r="Q2419" s="32"/>
-      <c r="R2419" s="32"/>
-      <c r="S2419" s="32"/>
-      <c r="T2419" s="32"/>
-      <c r="U2419" s="32"/>
-      <c r="V2419" s="32"/>
-      <c r="W2419" s="32"/>
-      <c r="X2419" s="32"/>
-      <c r="Y2419" s="32"/>
-      <c r="Z2419" s="32"/>
-      <c r="AA2419" s="32"/>
-      <c r="AB2419" s="32"/>
-      <c r="AC2419" s="32"/>
-      <c r="AD2419" s="32"/>
-      <c r="AE2419" s="32"/>
-      <c r="AF2419" s="32"/>
-      <c r="AG2419" s="32"/>
-      <c r="AH2419" s="32"/>
-    </row>
-    <row r="2509" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2509" s="32"/>
-      <c r="C2509" s="32"/>
-      <c r="D2509" s="32"/>
-      <c r="E2509" s="32"/>
-      <c r="F2509" s="32"/>
-      <c r="G2509" s="32"/>
-      <c r="H2509" s="32"/>
-      <c r="I2509" s="32"/>
-      <c r="J2509" s="32"/>
-      <c r="K2509" s="32"/>
-      <c r="L2509" s="32"/>
-      <c r="M2509" s="32"/>
-      <c r="N2509" s="32"/>
-      <c r="O2509" s="32"/>
-      <c r="P2509" s="32"/>
-      <c r="Q2509" s="32"/>
-      <c r="R2509" s="32"/>
-      <c r="S2509" s="32"/>
-      <c r="T2509" s="32"/>
-      <c r="U2509" s="32"/>
-      <c r="V2509" s="32"/>
-      <c r="W2509" s="32"/>
-      <c r="X2509" s="32"/>
-      <c r="Y2509" s="32"/>
-      <c r="Z2509" s="32"/>
-      <c r="AA2509" s="32"/>
-      <c r="AB2509" s="32"/>
-      <c r="AC2509" s="32"/>
-      <c r="AD2509" s="32"/>
-      <c r="AE2509" s="32"/>
-      <c r="AF2509" s="32"/>
-      <c r="AG2509" s="32"/>
-      <c r="AH2509" s="32"/>
-    </row>
-    <row r="2598" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2598" s="32"/>
-      <c r="C2598" s="32"/>
-      <c r="D2598" s="32"/>
-      <c r="E2598" s="32"/>
-      <c r="F2598" s="32"/>
-      <c r="G2598" s="32"/>
-      <c r="H2598" s="32"/>
-      <c r="I2598" s="32"/>
-      <c r="J2598" s="32"/>
-      <c r="K2598" s="32"/>
-      <c r="L2598" s="32"/>
-      <c r="M2598" s="32"/>
-      <c r="N2598" s="32"/>
-      <c r="O2598" s="32"/>
-      <c r="P2598" s="32"/>
-      <c r="Q2598" s="32"/>
-      <c r="R2598" s="32"/>
-      <c r="S2598" s="32"/>
-      <c r="T2598" s="32"/>
-      <c r="U2598" s="32"/>
-      <c r="V2598" s="32"/>
-      <c r="W2598" s="32"/>
-      <c r="X2598" s="32"/>
-      <c r="Y2598" s="32"/>
-      <c r="Z2598" s="32"/>
-      <c r="AA2598" s="32"/>
-      <c r="AB2598" s="32"/>
-      <c r="AC2598" s="32"/>
-      <c r="AD2598" s="32"/>
-      <c r="AE2598" s="32"/>
-      <c r="AF2598" s="32"/>
-      <c r="AG2598" s="32"/>
-      <c r="AH2598" s="32"/>
-    </row>
-    <row r="2719" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2719" s="32"/>
-      <c r="C2719" s="32"/>
-      <c r="D2719" s="32"/>
-      <c r="E2719" s="32"/>
-      <c r="F2719" s="32"/>
-      <c r="G2719" s="32"/>
-      <c r="H2719" s="32"/>
-      <c r="I2719" s="32"/>
-      <c r="J2719" s="32"/>
-      <c r="K2719" s="32"/>
-      <c r="L2719" s="32"/>
-      <c r="M2719" s="32"/>
-      <c r="N2719" s="32"/>
-      <c r="O2719" s="32"/>
-      <c r="P2719" s="32"/>
-      <c r="Q2719" s="32"/>
-      <c r="R2719" s="32"/>
-      <c r="S2719" s="32"/>
-      <c r="T2719" s="32"/>
-      <c r="U2719" s="32"/>
-      <c r="V2719" s="32"/>
-      <c r="W2719" s="32"/>
-      <c r="X2719" s="32"/>
-      <c r="Y2719" s="32"/>
-      <c r="Z2719" s="32"/>
-      <c r="AA2719" s="32"/>
-      <c r="AB2719" s="32"/>
-      <c r="AC2719" s="32"/>
-      <c r="AD2719" s="32"/>
-      <c r="AE2719" s="32"/>
-      <c r="AF2719" s="32"/>
-      <c r="AG2719" s="32"/>
-      <c r="AH2719" s="32"/>
-    </row>
-    <row r="2837" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2837" s="32"/>
-      <c r="C2837" s="32"/>
-      <c r="D2837" s="32"/>
-      <c r="E2837" s="32"/>
-      <c r="F2837" s="32"/>
-      <c r="G2837" s="32"/>
-      <c r="H2837" s="32"/>
-      <c r="I2837" s="32"/>
-      <c r="J2837" s="32"/>
-      <c r="K2837" s="32"/>
-      <c r="L2837" s="32"/>
-      <c r="M2837" s="32"/>
-      <c r="N2837" s="32"/>
-      <c r="O2837" s="32"/>
-      <c r="P2837" s="32"/>
-      <c r="Q2837" s="32"/>
-      <c r="R2837" s="32"/>
-      <c r="S2837" s="32"/>
-      <c r="T2837" s="32"/>
-      <c r="U2837" s="32"/>
-      <c r="V2837" s="32"/>
-      <c r="W2837" s="32"/>
-      <c r="X2837" s="32"/>
-      <c r="Y2837" s="32"/>
-      <c r="Z2837" s="32"/>
-      <c r="AA2837" s="32"/>
-      <c r="AB2837" s="32"/>
-      <c r="AC2837" s="32"/>
-      <c r="AD2837" s="32"/>
-      <c r="AE2837" s="32"/>
-      <c r="AF2837" s="32"/>
-      <c r="AG2837" s="32"/>
-      <c r="AH2837" s="32"/>
+    <row r="165" ht="12.25" x14ac:dyDescent="0.65"/>
+    <row r="180" ht="12.25" x14ac:dyDescent="0.65"/>
+    <row r="205" ht="12.25" x14ac:dyDescent="0.65"/>
+    <row r="206" ht="12.25" x14ac:dyDescent="0.65"/>
+    <row r="308" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B308" s="68"/>
+      <c r="C308" s="68"/>
+      <c r="D308" s="68"/>
+      <c r="E308" s="68"/>
+      <c r="F308" s="68"/>
+      <c r="G308" s="68"/>
+      <c r="H308" s="68"/>
+      <c r="I308" s="68"/>
+      <c r="J308" s="68"/>
+      <c r="K308" s="68"/>
+      <c r="L308" s="68"/>
+      <c r="M308" s="68"/>
+      <c r="N308" s="68"/>
+      <c r="O308" s="68"/>
+      <c r="P308" s="68"/>
+      <c r="Q308" s="68"/>
+      <c r="R308" s="68"/>
+      <c r="S308" s="68"/>
+      <c r="T308" s="68"/>
+      <c r="U308" s="68"/>
+      <c r="V308" s="68"/>
+      <c r="W308" s="68"/>
+      <c r="X308" s="68"/>
+      <c r="Y308" s="68"/>
+      <c r="Z308" s="68"/>
+      <c r="AA308" s="68"/>
+      <c r="AB308" s="68"/>
+      <c r="AC308" s="68"/>
+      <c r="AD308" s="68"/>
+      <c r="AE308" s="68"/>
+      <c r="AF308" s="68"/>
+      <c r="AG308" s="68"/>
+      <c r="AH308" s="68"/>
+    </row>
+    <row r="511" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B511" s="68"/>
+      <c r="C511" s="68"/>
+      <c r="D511" s="68"/>
+      <c r="E511" s="68"/>
+      <c r="F511" s="68"/>
+      <c r="G511" s="68"/>
+      <c r="H511" s="68"/>
+      <c r="I511" s="68"/>
+      <c r="J511" s="68"/>
+      <c r="K511" s="68"/>
+      <c r="L511" s="68"/>
+      <c r="M511" s="68"/>
+      <c r="N511" s="68"/>
+      <c r="O511" s="68"/>
+      <c r="P511" s="68"/>
+      <c r="Q511" s="68"/>
+      <c r="R511" s="68"/>
+      <c r="S511" s="68"/>
+      <c r="T511" s="68"/>
+      <c r="U511" s="68"/>
+      <c r="V511" s="68"/>
+      <c r="W511" s="68"/>
+      <c r="X511" s="68"/>
+      <c r="Y511" s="68"/>
+      <c r="Z511" s="68"/>
+      <c r="AA511" s="68"/>
+      <c r="AB511" s="68"/>
+      <c r="AC511" s="68"/>
+      <c r="AD511" s="68"/>
+      <c r="AE511" s="68"/>
+      <c r="AF511" s="68"/>
+      <c r="AG511" s="68"/>
+      <c r="AH511" s="68"/>
+    </row>
+    <row r="712" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B712" s="68"/>
+      <c r="C712" s="68"/>
+      <c r="D712" s="68"/>
+      <c r="E712" s="68"/>
+      <c r="F712" s="68"/>
+      <c r="G712" s="68"/>
+      <c r="H712" s="68"/>
+      <c r="I712" s="68"/>
+      <c r="J712" s="68"/>
+      <c r="K712" s="68"/>
+      <c r="L712" s="68"/>
+      <c r="M712" s="68"/>
+      <c r="N712" s="68"/>
+      <c r="O712" s="68"/>
+      <c r="P712" s="68"/>
+      <c r="Q712" s="68"/>
+      <c r="R712" s="68"/>
+      <c r="S712" s="68"/>
+      <c r="T712" s="68"/>
+      <c r="U712" s="68"/>
+      <c r="V712" s="68"/>
+      <c r="W712" s="68"/>
+      <c r="X712" s="68"/>
+      <c r="Y712" s="68"/>
+      <c r="Z712" s="68"/>
+      <c r="AA712" s="68"/>
+      <c r="AB712" s="68"/>
+      <c r="AC712" s="68"/>
+      <c r="AD712" s="68"/>
+      <c r="AE712" s="68"/>
+      <c r="AF712" s="68"/>
+      <c r="AG712" s="68"/>
+      <c r="AH712" s="68"/>
+    </row>
+    <row r="887" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B887" s="68"/>
+      <c r="C887" s="68"/>
+      <c r="D887" s="68"/>
+      <c r="E887" s="68"/>
+      <c r="F887" s="68"/>
+      <c r="G887" s="68"/>
+      <c r="H887" s="68"/>
+      <c r="I887" s="68"/>
+      <c r="J887" s="68"/>
+      <c r="K887" s="68"/>
+      <c r="L887" s="68"/>
+      <c r="M887" s="68"/>
+      <c r="N887" s="68"/>
+      <c r="O887" s="68"/>
+      <c r="P887" s="68"/>
+      <c r="Q887" s="68"/>
+      <c r="R887" s="68"/>
+      <c r="S887" s="68"/>
+      <c r="T887" s="68"/>
+      <c r="U887" s="68"/>
+      <c r="V887" s="68"/>
+      <c r="W887" s="68"/>
+      <c r="X887" s="68"/>
+      <c r="Y887" s="68"/>
+      <c r="Z887" s="68"/>
+      <c r="AA887" s="68"/>
+      <c r="AB887" s="68"/>
+      <c r="AC887" s="68"/>
+      <c r="AD887" s="68"/>
+      <c r="AE887" s="68"/>
+      <c r="AF887" s="68"/>
+      <c r="AG887" s="68"/>
+      <c r="AH887" s="68"/>
+    </row>
+    <row r="1100" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B1100" s="68"/>
+      <c r="C1100" s="68"/>
+      <c r="D1100" s="68"/>
+      <c r="E1100" s="68"/>
+      <c r="F1100" s="68"/>
+      <c r="G1100" s="68"/>
+      <c r="H1100" s="68"/>
+      <c r="I1100" s="68"/>
+      <c r="J1100" s="68"/>
+      <c r="K1100" s="68"/>
+      <c r="L1100" s="68"/>
+      <c r="M1100" s="68"/>
+      <c r="N1100" s="68"/>
+      <c r="O1100" s="68"/>
+      <c r="P1100" s="68"/>
+      <c r="Q1100" s="68"/>
+      <c r="R1100" s="68"/>
+      <c r="S1100" s="68"/>
+      <c r="T1100" s="68"/>
+      <c r="U1100" s="68"/>
+      <c r="V1100" s="68"/>
+      <c r="W1100" s="68"/>
+      <c r="X1100" s="68"/>
+      <c r="Y1100" s="68"/>
+      <c r="Z1100" s="68"/>
+      <c r="AA1100" s="68"/>
+      <c r="AB1100" s="68"/>
+      <c r="AC1100" s="68"/>
+      <c r="AD1100" s="68"/>
+      <c r="AE1100" s="68"/>
+      <c r="AF1100" s="68"/>
+      <c r="AG1100" s="68"/>
+      <c r="AH1100" s="68"/>
+    </row>
+    <row r="1227" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B1227" s="68"/>
+      <c r="C1227" s="68"/>
+      <c r="D1227" s="68"/>
+      <c r="E1227" s="68"/>
+      <c r="F1227" s="68"/>
+      <c r="G1227" s="68"/>
+      <c r="H1227" s="68"/>
+      <c r="I1227" s="68"/>
+      <c r="J1227" s="68"/>
+      <c r="K1227" s="68"/>
+      <c r="L1227" s="68"/>
+      <c r="M1227" s="68"/>
+      <c r="N1227" s="68"/>
+      <c r="O1227" s="68"/>
+      <c r="P1227" s="68"/>
+      <c r="Q1227" s="68"/>
+      <c r="R1227" s="68"/>
+      <c r="S1227" s="68"/>
+      <c r="T1227" s="68"/>
+      <c r="U1227" s="68"/>
+      <c r="V1227" s="68"/>
+      <c r="W1227" s="68"/>
+      <c r="X1227" s="68"/>
+      <c r="Y1227" s="68"/>
+      <c r="Z1227" s="68"/>
+      <c r="AA1227" s="68"/>
+      <c r="AB1227" s="68"/>
+      <c r="AC1227" s="68"/>
+      <c r="AD1227" s="68"/>
+      <c r="AE1227" s="68"/>
+      <c r="AF1227" s="68"/>
+      <c r="AG1227" s="68"/>
+      <c r="AH1227" s="68"/>
+    </row>
+    <row r="1390" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B1390" s="68"/>
+      <c r="C1390" s="68"/>
+      <c r="D1390" s="68"/>
+      <c r="E1390" s="68"/>
+      <c r="F1390" s="68"/>
+      <c r="G1390" s="68"/>
+      <c r="H1390" s="68"/>
+      <c r="I1390" s="68"/>
+      <c r="J1390" s="68"/>
+      <c r="K1390" s="68"/>
+      <c r="L1390" s="68"/>
+      <c r="M1390" s="68"/>
+      <c r="N1390" s="68"/>
+      <c r="O1390" s="68"/>
+      <c r="P1390" s="68"/>
+      <c r="Q1390" s="68"/>
+      <c r="R1390" s="68"/>
+      <c r="S1390" s="68"/>
+      <c r="T1390" s="68"/>
+      <c r="U1390" s="68"/>
+      <c r="V1390" s="68"/>
+      <c r="W1390" s="68"/>
+      <c r="X1390" s="68"/>
+      <c r="Y1390" s="68"/>
+      <c r="Z1390" s="68"/>
+      <c r="AA1390" s="68"/>
+      <c r="AB1390" s="68"/>
+      <c r="AC1390" s="68"/>
+      <c r="AD1390" s="68"/>
+      <c r="AE1390" s="68"/>
+      <c r="AF1390" s="68"/>
+      <c r="AG1390" s="68"/>
+      <c r="AH1390" s="68"/>
+    </row>
+    <row r="1502" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B1502" s="68"/>
+      <c r="C1502" s="68"/>
+      <c r="D1502" s="68"/>
+      <c r="E1502" s="68"/>
+      <c r="F1502" s="68"/>
+      <c r="G1502" s="68"/>
+      <c r="H1502" s="68"/>
+      <c r="I1502" s="68"/>
+      <c r="J1502" s="68"/>
+      <c r="K1502" s="68"/>
+      <c r="L1502" s="68"/>
+      <c r="M1502" s="68"/>
+      <c r="N1502" s="68"/>
+      <c r="O1502" s="68"/>
+      <c r="P1502" s="68"/>
+      <c r="Q1502" s="68"/>
+      <c r="R1502" s="68"/>
+      <c r="S1502" s="68"/>
+      <c r="T1502" s="68"/>
+      <c r="U1502" s="68"/>
+      <c r="V1502" s="68"/>
+      <c r="W1502" s="68"/>
+      <c r="X1502" s="68"/>
+      <c r="Y1502" s="68"/>
+      <c r="Z1502" s="68"/>
+      <c r="AA1502" s="68"/>
+      <c r="AB1502" s="68"/>
+      <c r="AC1502" s="68"/>
+      <c r="AD1502" s="68"/>
+      <c r="AE1502" s="68"/>
+      <c r="AF1502" s="68"/>
+      <c r="AG1502" s="68"/>
+      <c r="AH1502" s="68"/>
+    </row>
+    <row r="1604" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B1604" s="68"/>
+      <c r="C1604" s="68"/>
+      <c r="D1604" s="68"/>
+      <c r="E1604" s="68"/>
+      <c r="F1604" s="68"/>
+      <c r="G1604" s="68"/>
+      <c r="H1604" s="68"/>
+      <c r="I1604" s="68"/>
+      <c r="J1604" s="68"/>
+      <c r="K1604" s="68"/>
+      <c r="L1604" s="68"/>
+      <c r="M1604" s="68"/>
+      <c r="N1604" s="68"/>
+      <c r="O1604" s="68"/>
+      <c r="P1604" s="68"/>
+      <c r="Q1604" s="68"/>
+      <c r="R1604" s="68"/>
+      <c r="S1604" s="68"/>
+      <c r="T1604" s="68"/>
+      <c r="U1604" s="68"/>
+      <c r="V1604" s="68"/>
+      <c r="W1604" s="68"/>
+      <c r="X1604" s="68"/>
+      <c r="Y1604" s="68"/>
+      <c r="Z1604" s="68"/>
+      <c r="AA1604" s="68"/>
+      <c r="AB1604" s="68"/>
+      <c r="AC1604" s="68"/>
+      <c r="AD1604" s="68"/>
+      <c r="AE1604" s="68"/>
+      <c r="AF1604" s="68"/>
+      <c r="AG1604" s="68"/>
+      <c r="AH1604" s="68"/>
+    </row>
+    <row r="1698" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B1698" s="68"/>
+      <c r="C1698" s="68"/>
+      <c r="D1698" s="68"/>
+      <c r="E1698" s="68"/>
+      <c r="F1698" s="68"/>
+      <c r="G1698" s="68"/>
+      <c r="H1698" s="68"/>
+      <c r="I1698" s="68"/>
+      <c r="J1698" s="68"/>
+      <c r="K1698" s="68"/>
+      <c r="L1698" s="68"/>
+      <c r="M1698" s="68"/>
+      <c r="N1698" s="68"/>
+      <c r="O1698" s="68"/>
+      <c r="P1698" s="68"/>
+      <c r="Q1698" s="68"/>
+      <c r="R1698" s="68"/>
+      <c r="S1698" s="68"/>
+      <c r="T1698" s="68"/>
+      <c r="U1698" s="68"/>
+      <c r="V1698" s="68"/>
+      <c r="W1698" s="68"/>
+      <c r="X1698" s="68"/>
+      <c r="Y1698" s="68"/>
+      <c r="Z1698" s="68"/>
+      <c r="AA1698" s="68"/>
+      <c r="AB1698" s="68"/>
+      <c r="AC1698" s="68"/>
+      <c r="AD1698" s="68"/>
+      <c r="AE1698" s="68"/>
+      <c r="AF1698" s="68"/>
+      <c r="AG1698" s="68"/>
+      <c r="AH1698" s="68"/>
+    </row>
+    <row r="1945" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B1945" s="68"/>
+      <c r="C1945" s="68"/>
+      <c r="D1945" s="68"/>
+      <c r="E1945" s="68"/>
+      <c r="F1945" s="68"/>
+      <c r="G1945" s="68"/>
+      <c r="H1945" s="68"/>
+      <c r="I1945" s="68"/>
+      <c r="J1945" s="68"/>
+      <c r="K1945" s="68"/>
+      <c r="L1945" s="68"/>
+      <c r="M1945" s="68"/>
+      <c r="N1945" s="68"/>
+      <c r="O1945" s="68"/>
+      <c r="P1945" s="68"/>
+      <c r="Q1945" s="68"/>
+      <c r="R1945" s="68"/>
+      <c r="S1945" s="68"/>
+      <c r="T1945" s="68"/>
+      <c r="U1945" s="68"/>
+      <c r="V1945" s="68"/>
+      <c r="W1945" s="68"/>
+      <c r="X1945" s="68"/>
+      <c r="Y1945" s="68"/>
+      <c r="Z1945" s="68"/>
+      <c r="AA1945" s="68"/>
+      <c r="AB1945" s="68"/>
+      <c r="AC1945" s="68"/>
+      <c r="AD1945" s="68"/>
+      <c r="AE1945" s="68"/>
+      <c r="AF1945" s="68"/>
+      <c r="AG1945" s="68"/>
+      <c r="AH1945" s="68"/>
+    </row>
+    <row r="2031" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B2031" s="68"/>
+      <c r="C2031" s="68"/>
+      <c r="D2031" s="68"/>
+      <c r="E2031" s="68"/>
+      <c r="F2031" s="68"/>
+      <c r="G2031" s="68"/>
+      <c r="H2031" s="68"/>
+      <c r="I2031" s="68"/>
+      <c r="J2031" s="68"/>
+      <c r="K2031" s="68"/>
+      <c r="L2031" s="68"/>
+      <c r="M2031" s="68"/>
+      <c r="N2031" s="68"/>
+      <c r="O2031" s="68"/>
+      <c r="P2031" s="68"/>
+      <c r="Q2031" s="68"/>
+      <c r="R2031" s="68"/>
+      <c r="S2031" s="68"/>
+      <c r="T2031" s="68"/>
+      <c r="U2031" s="68"/>
+      <c r="V2031" s="68"/>
+      <c r="W2031" s="68"/>
+      <c r="X2031" s="68"/>
+      <c r="Y2031" s="68"/>
+      <c r="Z2031" s="68"/>
+      <c r="AA2031" s="68"/>
+      <c r="AB2031" s="68"/>
+      <c r="AC2031" s="68"/>
+      <c r="AD2031" s="68"/>
+      <c r="AE2031" s="68"/>
+      <c r="AF2031" s="68"/>
+      <c r="AG2031" s="68"/>
+      <c r="AH2031" s="68"/>
+    </row>
+    <row r="2153" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B2153" s="68"/>
+      <c r="C2153" s="68"/>
+      <c r="D2153" s="68"/>
+      <c r="E2153" s="68"/>
+      <c r="F2153" s="68"/>
+      <c r="G2153" s="68"/>
+      <c r="H2153" s="68"/>
+      <c r="I2153" s="68"/>
+      <c r="J2153" s="68"/>
+      <c r="K2153" s="68"/>
+      <c r="L2153" s="68"/>
+      <c r="M2153" s="68"/>
+      <c r="N2153" s="68"/>
+      <c r="O2153" s="68"/>
+      <c r="P2153" s="68"/>
+      <c r="Q2153" s="68"/>
+      <c r="R2153" s="68"/>
+      <c r="S2153" s="68"/>
+      <c r="T2153" s="68"/>
+      <c r="U2153" s="68"/>
+      <c r="V2153" s="68"/>
+      <c r="W2153" s="68"/>
+      <c r="X2153" s="68"/>
+      <c r="Y2153" s="68"/>
+      <c r="Z2153" s="68"/>
+      <c r="AA2153" s="68"/>
+      <c r="AB2153" s="68"/>
+      <c r="AC2153" s="68"/>
+      <c r="AD2153" s="68"/>
+      <c r="AE2153" s="68"/>
+      <c r="AF2153" s="68"/>
+      <c r="AG2153" s="68"/>
+      <c r="AH2153" s="68"/>
+    </row>
+    <row r="2317" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B2317" s="68"/>
+      <c r="C2317" s="68"/>
+      <c r="D2317" s="68"/>
+      <c r="E2317" s="68"/>
+      <c r="F2317" s="68"/>
+      <c r="G2317" s="68"/>
+      <c r="H2317" s="68"/>
+      <c r="I2317" s="68"/>
+      <c r="J2317" s="68"/>
+      <c r="K2317" s="68"/>
+      <c r="L2317" s="68"/>
+      <c r="M2317" s="68"/>
+      <c r="N2317" s="68"/>
+      <c r="O2317" s="68"/>
+      <c r="P2317" s="68"/>
+      <c r="Q2317" s="68"/>
+      <c r="R2317" s="68"/>
+      <c r="S2317" s="68"/>
+      <c r="T2317" s="68"/>
+      <c r="U2317" s="68"/>
+      <c r="V2317" s="68"/>
+      <c r="W2317" s="68"/>
+      <c r="X2317" s="68"/>
+      <c r="Y2317" s="68"/>
+      <c r="Z2317" s="68"/>
+      <c r="AA2317" s="68"/>
+      <c r="AB2317" s="68"/>
+      <c r="AC2317" s="68"/>
+      <c r="AD2317" s="68"/>
+      <c r="AE2317" s="68"/>
+      <c r="AF2317" s="68"/>
+      <c r="AG2317" s="68"/>
+      <c r="AH2317" s="68"/>
+    </row>
+    <row r="2419" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B2419" s="68"/>
+      <c r="C2419" s="68"/>
+      <c r="D2419" s="68"/>
+      <c r="E2419" s="68"/>
+      <c r="F2419" s="68"/>
+      <c r="G2419" s="68"/>
+      <c r="H2419" s="68"/>
+      <c r="I2419" s="68"/>
+      <c r="J2419" s="68"/>
+      <c r="K2419" s="68"/>
+      <c r="L2419" s="68"/>
+      <c r="M2419" s="68"/>
+      <c r="N2419" s="68"/>
+      <c r="O2419" s="68"/>
+      <c r="P2419" s="68"/>
+      <c r="Q2419" s="68"/>
+      <c r="R2419" s="68"/>
+      <c r="S2419" s="68"/>
+      <c r="T2419" s="68"/>
+      <c r="U2419" s="68"/>
+      <c r="V2419" s="68"/>
+      <c r="W2419" s="68"/>
+      <c r="X2419" s="68"/>
+      <c r="Y2419" s="68"/>
+      <c r="Z2419" s="68"/>
+      <c r="AA2419" s="68"/>
+      <c r="AB2419" s="68"/>
+      <c r="AC2419" s="68"/>
+      <c r="AD2419" s="68"/>
+      <c r="AE2419" s="68"/>
+      <c r="AF2419" s="68"/>
+      <c r="AG2419" s="68"/>
+      <c r="AH2419" s="68"/>
+    </row>
+    <row r="2509" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B2509" s="68"/>
+      <c r="C2509" s="68"/>
+      <c r="D2509" s="68"/>
+      <c r="E2509" s="68"/>
+      <c r="F2509" s="68"/>
+      <c r="G2509" s="68"/>
+      <c r="H2509" s="68"/>
+      <c r="I2509" s="68"/>
+      <c r="J2509" s="68"/>
+      <c r="K2509" s="68"/>
+      <c r="L2509" s="68"/>
+      <c r="M2509" s="68"/>
+      <c r="N2509" s="68"/>
+      <c r="O2509" s="68"/>
+      <c r="P2509" s="68"/>
+      <c r="Q2509" s="68"/>
+      <c r="R2509" s="68"/>
+      <c r="S2509" s="68"/>
+      <c r="T2509" s="68"/>
+      <c r="U2509" s="68"/>
+      <c r="V2509" s="68"/>
+      <c r="W2509" s="68"/>
+      <c r="X2509" s="68"/>
+      <c r="Y2509" s="68"/>
+      <c r="Z2509" s="68"/>
+      <c r="AA2509" s="68"/>
+      <c r="AB2509" s="68"/>
+      <c r="AC2509" s="68"/>
+      <c r="AD2509" s="68"/>
+      <c r="AE2509" s="68"/>
+      <c r="AF2509" s="68"/>
+      <c r="AG2509" s="68"/>
+      <c r="AH2509" s="68"/>
+    </row>
+    <row r="2598" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B2598" s="68"/>
+      <c r="C2598" s="68"/>
+      <c r="D2598" s="68"/>
+      <c r="E2598" s="68"/>
+      <c r="F2598" s="68"/>
+      <c r="G2598" s="68"/>
+      <c r="H2598" s="68"/>
+      <c r="I2598" s="68"/>
+      <c r="J2598" s="68"/>
+      <c r="K2598" s="68"/>
+      <c r="L2598" s="68"/>
+      <c r="M2598" s="68"/>
+      <c r="N2598" s="68"/>
+      <c r="O2598" s="68"/>
+      <c r="P2598" s="68"/>
+      <c r="Q2598" s="68"/>
+      <c r="R2598" s="68"/>
+      <c r="S2598" s="68"/>
+      <c r="T2598" s="68"/>
+      <c r="U2598" s="68"/>
+      <c r="V2598" s="68"/>
+      <c r="W2598" s="68"/>
+      <c r="X2598" s="68"/>
+      <c r="Y2598" s="68"/>
+      <c r="Z2598" s="68"/>
+      <c r="AA2598" s="68"/>
+      <c r="AB2598" s="68"/>
+      <c r="AC2598" s="68"/>
+      <c r="AD2598" s="68"/>
+      <c r="AE2598" s="68"/>
+      <c r="AF2598" s="68"/>
+      <c r="AG2598" s="68"/>
+      <c r="AH2598" s="68"/>
+    </row>
+    <row r="2719" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B2719" s="68"/>
+      <c r="C2719" s="68"/>
+      <c r="D2719" s="68"/>
+      <c r="E2719" s="68"/>
+      <c r="F2719" s="68"/>
+      <c r="G2719" s="68"/>
+      <c r="H2719" s="68"/>
+      <c r="I2719" s="68"/>
+      <c r="J2719" s="68"/>
+      <c r="K2719" s="68"/>
+      <c r="L2719" s="68"/>
+      <c r="M2719" s="68"/>
+      <c r="N2719" s="68"/>
+      <c r="O2719" s="68"/>
+      <c r="P2719" s="68"/>
+      <c r="Q2719" s="68"/>
+      <c r="R2719" s="68"/>
+      <c r="S2719" s="68"/>
+      <c r="T2719" s="68"/>
+      <c r="U2719" s="68"/>
+      <c r="V2719" s="68"/>
+      <c r="W2719" s="68"/>
+      <c r="X2719" s="68"/>
+      <c r="Y2719" s="68"/>
+      <c r="Z2719" s="68"/>
+      <c r="AA2719" s="68"/>
+      <c r="AB2719" s="68"/>
+      <c r="AC2719" s="68"/>
+      <c r="AD2719" s="68"/>
+      <c r="AE2719" s="68"/>
+      <c r="AF2719" s="68"/>
+      <c r="AG2719" s="68"/>
+      <c r="AH2719" s="68"/>
+    </row>
+    <row r="2837" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B2837" s="68"/>
+      <c r="C2837" s="68"/>
+      <c r="D2837" s="68"/>
+      <c r="E2837" s="68"/>
+      <c r="F2837" s="68"/>
+      <c r="G2837" s="68"/>
+      <c r="H2837" s="68"/>
+      <c r="I2837" s="68"/>
+      <c r="J2837" s="68"/>
+      <c r="K2837" s="68"/>
+      <c r="L2837" s="68"/>
+      <c r="M2837" s="68"/>
+      <c r="N2837" s="68"/>
+      <c r="O2837" s="68"/>
+      <c r="P2837" s="68"/>
+      <c r="Q2837" s="68"/>
+      <c r="R2837" s="68"/>
+      <c r="S2837" s="68"/>
+      <c r="T2837" s="68"/>
+      <c r="U2837" s="68"/>
+      <c r="V2837" s="68"/>
+      <c r="W2837" s="68"/>
+      <c r="X2837" s="68"/>
+      <c r="Y2837" s="68"/>
+      <c r="Z2837" s="68"/>
+      <c r="AA2837" s="68"/>
+      <c r="AB2837" s="68"/>
+      <c r="AC2837" s="68"/>
+      <c r="AD2837" s="68"/>
+      <c r="AE2837" s="68"/>
+      <c r="AF2837" s="68"/>
+      <c r="AG2837" s="68"/>
+      <c r="AH2837" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B2598:AH2598"/>
-    <mergeCell ref="B1604:AH1604"/>
-    <mergeCell ref="B1698:AH1698"/>
-    <mergeCell ref="B146:AG146"/>
-    <mergeCell ref="B2719:AH2719"/>
+    <mergeCell ref="B112:AH112"/>
+    <mergeCell ref="B308:AH308"/>
+    <mergeCell ref="B511:AH511"/>
+    <mergeCell ref="B712:AH712"/>
+    <mergeCell ref="B887:AH887"/>
     <mergeCell ref="B2837:AH2837"/>
     <mergeCell ref="B2031:AH2031"/>
     <mergeCell ref="B2153:AH2153"/>
     <mergeCell ref="B2317:AH2317"/>
     <mergeCell ref="B2419:AH2419"/>
     <mergeCell ref="B2509:AH2509"/>
+    <mergeCell ref="B2598:AH2598"/>
+    <mergeCell ref="B1604:AH1604"/>
+    <mergeCell ref="B1698:AH1698"/>
+    <mergeCell ref="B146:AG146"/>
+    <mergeCell ref="B2719:AH2719"/>
     <mergeCell ref="B1945:AH1945"/>
-    <mergeCell ref="B112:AH112"/>
-    <mergeCell ref="B308:AH308"/>
-    <mergeCell ref="B511:AH511"/>
-    <mergeCell ref="B712:AH712"/>
-    <mergeCell ref="B887:AH887"/>
     <mergeCell ref="B1100:AH1100"/>
     <mergeCell ref="B1227:AH1227"/>
     <mergeCell ref="B1390:AH1390"/>
@@ -29466,16 +29479,16 @@
       <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.65"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" style="10" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="22.40625" style="10" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="49" style="10" customWidth="1"/>
-    <col min="3" max="33" width="9.140625" style="10"/>
-    <col min="34" max="34" width="9.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="35" max="16384" width="9.140625" style="10"/>
+    <col min="3" max="33" width="9.1328125" style="10"/>
+    <col min="34" max="34" width="9.1328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="35" max="16384" width="9.1328125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
       <c r="B1" s="11" t="s">
         <v>85</v>
       </c>
@@ -29573,8 +29586,8 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.65"/>
+    <row r="3" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C3" s="13" t="s">
         <v>86</v>
       </c>
@@ -29586,7 +29599,7 @@
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
     </row>
-    <row r="4" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C4" s="13" t="s">
         <v>88</v>
       </c>
@@ -29600,7 +29613,7 @@
       </c>
       <c r="H4" s="14"/>
     </row>
-    <row r="5" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C5" s="13" t="s">
         <v>91</v>
       </c>
@@ -29612,7 +29625,7 @@
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
     </row>
-    <row r="6" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C6" s="13" t="s">
         <v>93</v>
       </c>
@@ -29624,7 +29637,7 @@
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
     </row>
-    <row r="7" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
@@ -29632,9 +29645,9 @@
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
     </row>
-    <row r="8" spans="1:34" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:34" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" ht="12.25" x14ac:dyDescent="0.65"/>
+    <row r="9" spans="1:34" ht="12.25" x14ac:dyDescent="0.65"/>
+    <row r="10" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A10" s="15" t="s">
         <v>291</v>
       </c>
@@ -29645,13 +29658,13 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B11" s="11"/>
       <c r="AH11" s="17" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B12" s="11"/>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
@@ -29688,7 +29701,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
       <c r="B13" s="12" t="s">
         <v>289</v>
       </c>
@@ -29789,18 +29802,18 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:34" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:34" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.65"/>
+    <row r="15" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B15" s="20" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="16" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B16" s="20" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="17" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A17" s="15" t="s">
         <v>286</v>
       </c>
@@ -29904,7 +29917,7 @@
         <v>1.6566999999999998E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A18" s="15" t="s">
         <v>284</v>
       </c>
@@ -30008,121 +30021,121 @@
         <v>1.5734999999999999E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A19" s="15" t="s">
         <v>282</v>
       </c>
       <c r="B19" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="C19" s="36">
+      <c r="C19" s="30">
         <v>8167.6552730000003</v>
       </c>
-      <c r="D19" s="36">
+      <c r="D19" s="30">
         <v>8381.5234380000002</v>
       </c>
-      <c r="E19" s="36">
+      <c r="E19" s="30">
         <v>8664.8691409999992</v>
       </c>
-      <c r="F19" s="36">
+      <c r="F19" s="30">
         <v>8875.453125</v>
       </c>
-      <c r="G19" s="36">
+      <c r="G19" s="30">
         <v>9117.4716800000006</v>
       </c>
-      <c r="H19" s="36">
+      <c r="H19" s="30">
         <v>9363.2128909999992</v>
       </c>
-      <c r="I19" s="36">
+      <c r="I19" s="30">
         <v>9534.84375</v>
       </c>
-      <c r="J19" s="36">
+      <c r="J19" s="30">
         <v>9654.3740230000003</v>
       </c>
-      <c r="K19" s="36">
+      <c r="K19" s="30">
         <v>9759.8105469999991</v>
       </c>
-      <c r="L19" s="36">
+      <c r="L19" s="30">
         <v>9857.96875</v>
       </c>
-      <c r="M19" s="36">
+      <c r="M19" s="30">
         <v>9960.4804690000001</v>
       </c>
-      <c r="N19" s="36">
+      <c r="N19" s="30">
         <v>10071.616211</v>
       </c>
-      <c r="O19" s="36">
+      <c r="O19" s="30">
         <v>10198.897461</v>
       </c>
-      <c r="P19" s="36">
+      <c r="P19" s="30">
         <v>10320.123046999999</v>
       </c>
-      <c r="Q19" s="36">
+      <c r="Q19" s="30">
         <v>10463.529296999999</v>
       </c>
-      <c r="R19" s="36">
+      <c r="R19" s="30">
         <v>10633.676758</v>
       </c>
-      <c r="S19" s="36">
+      <c r="S19" s="30">
         <v>10794.580078000001</v>
       </c>
-      <c r="T19" s="36">
+      <c r="T19" s="30">
         <v>10941.034180000001</v>
       </c>
-      <c r="U19" s="36">
+      <c r="U19" s="30">
         <v>11093.476562</v>
       </c>
-      <c r="V19" s="36">
+      <c r="V19" s="30">
         <v>11258.519531</v>
       </c>
-      <c r="W19" s="36">
+      <c r="W19" s="30">
         <v>11422.876953000001</v>
       </c>
-      <c r="X19" s="36">
+      <c r="X19" s="30">
         <v>11605.330078000001</v>
       </c>
-      <c r="Y19" s="36">
+      <c r="Y19" s="30">
         <v>11789.525390999999</v>
       </c>
-      <c r="Z19" s="36">
+      <c r="Z19" s="30">
         <v>11990.230469</v>
       </c>
-      <c r="AA19" s="36">
+      <c r="AA19" s="30">
         <v>12169.413086</v>
       </c>
-      <c r="AB19" s="36">
+      <c r="AB19" s="30">
         <v>12358.808594</v>
       </c>
-      <c r="AC19" s="36">
+      <c r="AC19" s="30">
         <v>12537.056640999999</v>
       </c>
-      <c r="AD19" s="36">
+      <c r="AD19" s="30">
         <v>12696.096680000001</v>
       </c>
-      <c r="AE19" s="36">
+      <c r="AE19" s="30">
         <v>12873.787109000001</v>
       </c>
-      <c r="AF19" s="36">
+      <c r="AF19" s="30">
         <v>13068.305664</v>
       </c>
-      <c r="AG19" s="36">
+      <c r="AG19" s="30">
         <v>13270.584961</v>
       </c>
       <c r="AH19" s="25">
         <v>1.6310999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B21" s="20" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="22" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B22" s="20" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="23" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A23" s="15" t="s">
         <v>279</v>
       </c>
@@ -30226,7 +30239,7 @@
         <v>1.6316000000000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A24" s="15" t="s">
         <v>278</v>
       </c>
@@ -30330,7 +30343,7 @@
         <v>7.7149999999999996E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A25" s="15" t="s">
         <v>277</v>
       </c>
@@ -30434,7 +30447,7 @@
         <v>4.9259999999999998E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A26" s="15" t="s">
         <v>276</v>
       </c>
@@ -30538,7 +30551,7 @@
         <v>3.3402000000000001E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A27" s="15" t="s">
         <v>275</v>
       </c>
@@ -30642,7 +30655,7 @@
         <v>2.5416000000000001E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A28" s="15" t="s">
         <v>274</v>
       </c>
@@ -30746,7 +30759,7 @@
         <v>4.4120000000000001E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A29" s="15" t="s">
         <v>273</v>
       </c>
@@ -30850,7 +30863,7 @@
         <v>3.9319999999999997E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A30" s="15" t="s">
         <v>272</v>
       </c>
@@ -30954,7 +30967,7 @@
         <v>-2.0270000000000002E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A31" s="15" t="s">
         <v>271</v>
       </c>
@@ -31058,7 +31071,7 @@
         <v>9.9500000000000001E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A32" s="15" t="s">
         <v>270</v>
       </c>
@@ -31162,7 +31175,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A33" s="15" t="s">
         <v>269</v>
       </c>
@@ -31266,12 +31279,12 @@
         <v>-6.9829999999999996E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:34" ht="12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:34" ht="12.25" x14ac:dyDescent="0.65">
       <c r="B34" s="20" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A35" s="15" t="s">
         <v>267</v>
       </c>
@@ -31375,7 +31388,7 @@
         <v>4.1029000000000003E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A36" s="15" t="s">
         <v>265</v>
       </c>
@@ -31479,7 +31492,7 @@
         <v>3.2217999999999997E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A37" s="15" t="s">
         <v>264</v>
       </c>
@@ -31583,7 +31596,7 @@
         <v>2.9361000000000002E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A38" s="15" t="s">
         <v>263</v>
       </c>
@@ -31687,7 +31700,7 @@
         <v>5.8529999999999999E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A39" s="15" t="s">
         <v>262</v>
       </c>
@@ -31791,7 +31804,7 @@
         <v>5.0348999999999998E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A40" s="15" t="s">
         <v>261</v>
       </c>
@@ -31895,7 +31908,7 @@
         <v>2.8835E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A41" s="15" t="s">
         <v>260</v>
       </c>
@@ -31999,7 +32012,7 @@
         <v>2.8343E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A42" s="15" t="s">
         <v>259</v>
       </c>
@@ -32103,7 +32116,7 @@
         <v>2.2239999999999999E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A43" s="15" t="s">
         <v>257</v>
       </c>
@@ -32207,7 +32220,7 @@
         <v>2.5335E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A44" s="15" t="s">
         <v>256</v>
       </c>
@@ -32311,7 +32324,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A45" s="15" t="s">
         <v>253</v>
       </c>
@@ -32415,19 +32428,19 @@
         <v>1.7163000000000001E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:34" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:34" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:34" ht="12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:34" ht="12.25" x14ac:dyDescent="0.65"/>
+    <row r="47" spans="1:34" ht="12.25" x14ac:dyDescent="0.65"/>
+    <row r="48" spans="1:34" ht="12.25" x14ac:dyDescent="0.65">
       <c r="B48" s="20" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="49" spans="1:34" ht="12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:34" ht="12.25" x14ac:dyDescent="0.65">
       <c r="B49" s="20" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="50" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A50" s="15" t="s">
         <v>249</v>
       </c>
@@ -32531,7 +32544,7 @@
         <v>2.1248E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A51" s="15" t="s">
         <v>247</v>
       </c>
@@ -32635,7 +32648,7 @@
         <v>2.0879000000000002E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A52" s="15" t="s">
         <v>246</v>
       </c>
@@ -32739,7 +32752,7 @@
         <v>-1.7799999999999999E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A53" s="15" t="s">
         <v>244</v>
       </c>
@@ -32843,7 +32856,7 @@
         <v>1.7228E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A54" s="15" t="s">
         <v>243</v>
       </c>
@@ -32947,7 +32960,7 @@
         <v>1.6289999999999999E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A55" s="15" t="s">
         <v>242</v>
       </c>
@@ -33051,7 +33064,7 @@
         <v>1.5015000000000001E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A56" s="15" t="s">
         <v>241</v>
       </c>
@@ -33155,7 +33168,7 @@
         <v>4.0020000000000003E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A57" s="15" t="s">
         <v>240</v>
       </c>
@@ -33259,7 +33272,7 @@
         <v>2.8378E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A58" s="15" t="s">
         <v>239</v>
       </c>
@@ -33363,7 +33376,7 @@
         <v>1.2031999999999999E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A59" s="15" t="s">
         <v>238</v>
       </c>
@@ -33467,7 +33480,7 @@
         <v>-1.7849999999999999E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A60" s="15" t="s">
         <v>237</v>
       </c>
@@ -33571,7 +33584,7 @@
         <v>1.6199000000000002E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A61" s="15" t="s">
         <v>236</v>
       </c>
@@ -33675,7 +33688,7 @@
         <v>1.4344000000000001E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A62" s="15" t="s">
         <v>235</v>
       </c>
@@ -33779,7 +33792,7 @@
         <v>1.521E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A63" s="15" t="s">
         <v>234</v>
       </c>
@@ -33883,7 +33896,7 @@
         <v>1.6729000000000001E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A64" s="15" t="s">
         <v>233</v>
       </c>
@@ -33987,7 +34000,7 @@
         <v>4.1444000000000002E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A65" s="15" t="s">
         <v>232</v>
       </c>
@@ -34091,7 +34104,7 @@
         <v>1.6423E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A66" s="15" t="s">
         <v>231</v>
       </c>
@@ -34195,7 +34208,7 @@
         <v>1.586E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A67" s="15" t="s">
         <v>230</v>
       </c>
@@ -34299,7 +34312,7 @@
         <v>-3.59E-4</v>
       </c>
     </row>
-    <row r="68" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A68" s="15" t="s">
         <v>229</v>
       </c>
@@ -34403,7 +34416,7 @@
         <v>6.1300000000000005E-4</v>
       </c>
     </row>
-    <row r="69" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A69" s="15" t="s">
         <v>228</v>
       </c>
@@ -34507,7 +34520,7 @@
         <v>9.4680000000000007E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A70" s="15" t="s">
         <v>227</v>
       </c>
@@ -34611,7 +34624,7 @@
         <v>1.1178E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A71" s="15" t="s">
         <v>226</v>
       </c>
@@ -34715,7 +34728,7 @@
         <v>1.4636E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A72" s="15" t="s">
         <v>225</v>
       </c>
@@ -34819,7 +34832,7 @@
         <v>1.1119999999999999E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:34" ht="12" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:34" ht="12.25" x14ac:dyDescent="0.65">
       <c r="A73" s="15" t="s">
         <v>224</v>
       </c>
@@ -34923,12 +34936,12 @@
         <v>1.2279999999999999E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B76" s="20" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="77" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A77" s="15" t="s">
         <v>222</v>
       </c>
@@ -35032,7 +35045,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="78" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A78" s="15" t="s">
         <v>221</v>
       </c>
@@ -35136,7 +35149,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A79" s="15" t="s">
         <v>220</v>
       </c>
@@ -35240,7 +35253,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="80" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A80" s="15" t="s">
         <v>219</v>
       </c>
@@ -35344,7 +35357,7 @@
         <v>1.8910000000000001E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A81" s="15" t="s">
         <v>218</v>
       </c>
@@ -35448,7 +35461,7 @@
         <v>1.106E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A82" s="15" t="s">
         <v>217</v>
       </c>
@@ -35552,7 +35565,7 @@
         <v>9.3044000000000002E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A83" s="15" t="s">
         <v>216</v>
       </c>
@@ -35656,7 +35669,7 @@
         <v>2.248E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A84" s="15" t="s">
         <v>215</v>
       </c>
@@ -35760,7 +35773,7 @@
         <v>4.57E-4</v>
       </c>
     </row>
-    <row r="85" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A85" s="15" t="s">
         <v>214</v>
       </c>
@@ -35864,7 +35877,7 @@
         <v>-9.1780000000000004E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A86" s="15" t="s">
         <v>213</v>
       </c>
@@ -35968,7 +35981,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="87" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A87" s="15" t="s">
         <v>212</v>
       </c>
@@ -36072,7 +36085,7 @@
         <v>-7.9600000000000005E-4</v>
       </c>
     </row>
-    <row r="88" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A88" s="15" t="s">
         <v>211</v>
       </c>
@@ -36176,7 +36189,7 @@
         <v>7.5799999999999999E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A89" s="15" t="s">
         <v>210</v>
       </c>
@@ -36280,7 +36293,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="90" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A90" s="15" t="s">
         <v>209</v>
       </c>
@@ -36384,7 +36397,7 @@
         <v>7.5799999999999999E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A91" s="15" t="s">
         <v>208</v>
       </c>
@@ -36488,7 +36501,7 @@
         <v>6.0559999999999998E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A92" s="15" t="s">
         <v>207</v>
       </c>
@@ -36592,7 +36605,7 @@
         <v>3.0739999999999999E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A93" s="15" t="s">
         <v>206</v>
       </c>
@@ -36696,7 +36709,7 @@
         <v>2.1689999999999999E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A94" s="15" t="s">
         <v>205</v>
       </c>
@@ -36800,7 +36813,7 @@
         <v>-6.9109999999999996E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A95" s="15" t="s">
         <v>204</v>
       </c>
@@ -36904,12 +36917,12 @@
         <v>1.5870000000000001E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B97" s="20" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="98" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A98" s="15" t="s">
         <v>202</v>
       </c>
@@ -37013,7 +37026,7 @@
         <v>1.9673E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A99" s="15" t="s">
         <v>201</v>
       </c>
@@ -37117,7 +37130,7 @@
         <v>2.0879000000000002E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A100" s="15" t="s">
         <v>200</v>
       </c>
@@ -37221,7 +37234,7 @@
         <v>1.7228E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A101" s="15" t="s">
         <v>199</v>
       </c>
@@ -37325,7 +37338,7 @@
         <v>1.6230999999999999E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A102" s="15" t="s">
         <v>198</v>
       </c>
@@ -37429,14 +37442,14 @@
         <v>1.4848999999999999E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A103" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="B103" s="38" t="s">
+      <c r="B103" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="C103" s="39">
+      <c r="C103" s="33">
         <v>0.58092500000000002</v>
       </c>
       <c r="D103" s="22">
@@ -37533,7 +37546,7 @@
         <v>4.0020000000000003E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A104" s="15" t="s">
         <v>196</v>
       </c>
@@ -37637,14 +37650,14 @@
         <v>5.1330000000000004E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A105" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="B105" s="38" t="s">
+      <c r="B105" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="C105" s="39">
+      <c r="C105" s="33">
         <v>0.84177000000000002</v>
       </c>
       <c r="D105" s="22">
@@ -37741,7 +37754,7 @@
         <v>1.2031999999999999E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A106" s="15" t="s">
         <v>194</v>
       </c>
@@ -37845,7 +37858,7 @@
         <v>1.106E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A107" s="15" t="s">
         <v>193</v>
       </c>
@@ -37949,14 +37962,14 @@
         <v>2.2070000000000002E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A108" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="B108" s="40" t="s">
+      <c r="B108" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="C108" s="41">
+      <c r="C108" s="35">
         <v>8.3259179999999997</v>
       </c>
       <c r="D108" s="22">
@@ -38053,7 +38066,7 @@
         <v>1.3603000000000001E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A109" s="15" t="s">
         <v>191</v>
       </c>
@@ -38157,7 +38170,7 @@
         <v>1.2426E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A110" s="15" t="s">
         <v>190</v>
       </c>
@@ -38261,7 +38274,7 @@
         <v>1.0052E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A111" s="15" t="s">
         <v>188</v>
       </c>
@@ -38365,111 +38378,111 @@
         <v>99</v>
       </c>
     </row>
-    <row r="112" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A112" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="B112" s="35" t="s">
+      <c r="B112" s="65" t="s">
         <v>143</v>
       </c>
-      <c r="C112" s="34">
+      <c r="C112" s="66">
         <v>1.8647</v>
       </c>
-      <c r="D112" s="34">
+      <c r="D112" s="66">
         <v>1.823809</v>
       </c>
-      <c r="E112" s="34">
+      <c r="E112" s="66">
         <v>1.9220729999999999</v>
       </c>
-      <c r="F112" s="34">
+      <c r="F112" s="66">
         <v>2.0607839999999999</v>
       </c>
-      <c r="G112" s="34">
+      <c r="G112" s="66">
         <v>2.1502119999999998</v>
       </c>
-      <c r="H112" s="34">
+      <c r="H112" s="66">
         <v>2.2464520000000001</v>
       </c>
-      <c r="I112" s="34">
+      <c r="I112" s="66">
         <v>2.3186239999999998</v>
       </c>
-      <c r="J112" s="34">
+      <c r="J112" s="66">
         <v>2.3670040000000001</v>
       </c>
-      <c r="K112" s="34">
+      <c r="K112" s="66">
         <v>2.423727</v>
       </c>
-      <c r="L112" s="34">
+      <c r="L112" s="66">
         <v>2.4730759999999998</v>
       </c>
-      <c r="M112" s="34">
+      <c r="M112" s="66">
         <v>2.5132599999999998</v>
       </c>
-      <c r="N112" s="34">
+      <c r="N112" s="66">
         <v>2.5578379999999998</v>
       </c>
-      <c r="O112" s="34">
+      <c r="O112" s="66">
         <v>2.6138249999999998</v>
       </c>
-      <c r="P112" s="34">
+      <c r="P112" s="66">
         <v>2.6505070000000002</v>
       </c>
-      <c r="Q112" s="34">
+      <c r="Q112" s="66">
         <v>2.6930969999999999</v>
       </c>
-      <c r="R112" s="34">
+      <c r="R112" s="66">
         <v>2.733546</v>
       </c>
-      <c r="S112" s="34">
+      <c r="S112" s="66">
         <v>2.7722920000000002</v>
       </c>
-      <c r="T112" s="34">
+      <c r="T112" s="66">
         <v>2.8039550000000002</v>
       </c>
-      <c r="U112" s="34">
+      <c r="U112" s="66">
         <v>2.8238020000000001</v>
       </c>
-      <c r="V112" s="34">
+      <c r="V112" s="66">
         <v>2.8746580000000002</v>
       </c>
-      <c r="W112" s="34">
+      <c r="W112" s="66">
         <v>2.9076759999999999</v>
       </c>
-      <c r="X112" s="34">
+      <c r="X112" s="66">
         <v>2.92842</v>
       </c>
-      <c r="Y112" s="34">
+      <c r="Y112" s="66">
         <v>2.948664</v>
       </c>
-      <c r="Z112" s="34">
+      <c r="Z112" s="66">
         <v>2.985843</v>
       </c>
-      <c r="AA112" s="34">
+      <c r="AA112" s="66">
         <v>3.0241400000000001</v>
       </c>
-      <c r="AB112" s="34">
+      <c r="AB112" s="66">
         <v>3.045569</v>
       </c>
-      <c r="AC112" s="34">
+      <c r="AC112" s="66">
         <v>3.0486219999999999</v>
       </c>
-      <c r="AD112" s="34">
+      <c r="AD112" s="66">
         <v>3.0808580000000001</v>
       </c>
-      <c r="AE112" s="34">
+      <c r="AE112" s="66">
         <v>3.0845760000000002</v>
       </c>
-      <c r="AF112" s="34">
+      <c r="AF112" s="66">
         <v>3.081413</v>
       </c>
-      <c r="AG112" s="34">
+      <c r="AG112" s="66">
         <v>3.067399</v>
       </c>
-      <c r="AH112" s="33">
+      <c r="AH112" s="67">
         <v>1.6729000000000001E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A113" s="15" t="s">
         <v>186</v>
       </c>
@@ -38573,7 +38586,7 @@
         <v>4.1444000000000002E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A114" s="15" t="s">
         <v>185</v>
       </c>
@@ -38677,7 +38690,7 @@
         <v>1.4507000000000001E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A115" s="15" t="s">
         <v>184</v>
       </c>
@@ -38781,7 +38794,7 @@
         <v>1.586E-3</v>
       </c>
     </row>
-    <row r="116" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A116" s="15" t="s">
         <v>183</v>
       </c>
@@ -38885,7 +38898,7 @@
         <v>8.0000000000000007E-5</v>
       </c>
     </row>
-    <row r="117" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A117" s="15" t="s">
         <v>182</v>
       </c>
@@ -38989,7 +39002,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="118" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A118" s="15" t="s">
         <v>181</v>
       </c>
@@ -39093,7 +39106,7 @@
         <v>8.1099999999999998E-4</v>
       </c>
     </row>
-    <row r="119" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A119" s="15" t="s">
         <v>180</v>
       </c>
@@ -39197,7 +39210,7 @@
         <v>6.0559999999999998E-3</v>
       </c>
     </row>
-    <row r="120" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A120" s="15" t="s">
         <v>179</v>
       </c>
@@ -39301,7 +39314,7 @@
         <v>9.4680000000000007E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A121" s="15" t="s">
         <v>178</v>
       </c>
@@ -39405,7 +39418,7 @@
         <v>1.0742E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A122" s="15" t="s">
         <v>177</v>
       </c>
@@ -39509,7 +39522,7 @@
         <v>1.278E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A123" s="15" t="s">
         <v>176</v>
       </c>
@@ -39613,7 +39626,7 @@
         <v>6.8099999999999996E-4</v>
       </c>
     </row>
-    <row r="124" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A124" s="15" t="s">
         <v>175</v>
       </c>
@@ -39717,17 +39730,17 @@
         <v>1.0853E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B126" s="20" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="127" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B127" s="20" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="128" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A128" s="15" t="s">
         <v>172</v>
       </c>
@@ -39831,7 +39844,7 @@
         <v>3.3080000000000002E-3</v>
       </c>
     </row>
-    <row r="129" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A129" s="15" t="s">
         <v>170</v>
       </c>
@@ -39935,7 +39948,7 @@
         <v>4.4949999999999999E-3</v>
       </c>
     </row>
-    <row r="130" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A130" s="15" t="s">
         <v>168</v>
       </c>
@@ -40039,7 +40052,7 @@
         <v>9.0300000000000005E-4</v>
       </c>
     </row>
-    <row r="131" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A131" s="15" t="s">
         <v>166</v>
       </c>
@@ -40143,7 +40156,7 @@
         <v>-7.7999999999999999E-5</v>
       </c>
     </row>
-    <row r="132" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A132" s="15" t="s">
         <v>164</v>
       </c>
@@ -40247,7 +40260,7 @@
         <v>-1.438E-3</v>
       </c>
     </row>
-    <row r="133" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A133" s="15" t="s">
         <v>162</v>
       </c>
@@ -40351,7 +40364,7 @@
         <v>-1.2111E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A134" s="15" t="s">
         <v>160</v>
       </c>
@@ -40455,7 +40468,7 @@
         <v>-1.0998000000000001E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A135" s="15" t="s">
         <v>158</v>
       </c>
@@ -40559,7 +40572,7 @@
         <v>-4.2100000000000002E-3</v>
       </c>
     </row>
-    <row r="136" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A136" s="15" t="s">
         <v>156</v>
       </c>
@@ -40663,7 +40676,7 @@
         <v>-1.4961E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A137" s="15" t="s">
         <v>154</v>
       </c>
@@ -40767,7 +40780,7 @@
         <v>-1.3877E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A138" s="15" t="s">
         <v>152</v>
       </c>
@@ -40871,7 +40884,7 @@
         <v>-2.6640000000000001E-3</v>
       </c>
     </row>
-    <row r="139" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A139" s="15" t="s">
         <v>150</v>
       </c>
@@ -40975,7 +40988,7 @@
         <v>-3.8219999999999999E-3</v>
       </c>
     </row>
-    <row r="140" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A140" s="15" t="s">
         <v>148</v>
       </c>
@@ -41079,7 +41092,7 @@
         <v>-6.1580000000000003E-3</v>
       </c>
     </row>
-    <row r="141" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A141" s="15" t="s">
         <v>146</v>
       </c>
@@ -41183,7 +41196,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="142" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A142" s="15" t="s">
         <v>144</v>
       </c>
@@ -41287,7 +41300,7 @@
         <v>4.1199999999999999E-4</v>
       </c>
     </row>
-    <row r="143" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A143" s="15" t="s">
         <v>142</v>
       </c>
@@ -41391,7 +41404,7 @@
         <v>2.4729999999999999E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A144" s="15" t="s">
         <v>140</v>
       </c>
@@ -41495,7 +41508,7 @@
         <v>-1.7750000000000001E-3</v>
       </c>
     </row>
-    <row r="145" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A145" s="15" t="s">
         <v>138</v>
       </c>
@@ -41599,7 +41612,7 @@
         <v>-1.4487999999999999E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A146" s="15" t="s">
         <v>136</v>
       </c>
@@ -41703,7 +41716,7 @@
         <v>-1.5970000000000002E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A147" s="15" t="s">
         <v>134</v>
       </c>
@@ -41807,7 +41820,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="148" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A148" s="15" t="s">
         <v>132</v>
       </c>
@@ -41911,7 +41924,7 @@
         <v>-1.5251000000000001E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A149" s="15" t="s">
         <v>130</v>
       </c>
@@ -42015,7 +42028,7 @@
         <v>-1.009E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A150" s="15" t="s">
         <v>128</v>
       </c>
@@ -42119,7 +42132,7 @@
         <v>-6.7330000000000003E-3</v>
       </c>
     </row>
-    <row r="151" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A151" s="15" t="s">
         <v>126</v>
       </c>
@@ -42223,7 +42236,7 @@
         <v>-5.4790000000000004E-3</v>
       </c>
     </row>
-    <row r="152" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A152" s="15" t="s">
         <v>124</v>
       </c>
@@ -42327,7 +42340,7 @@
         <v>-3.4740000000000001E-3</v>
       </c>
     </row>
-    <row r="153" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A153" s="15" t="s">
         <v>122</v>
       </c>
@@ -42431,7 +42444,7 @@
         <v>-1.5379E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A154" s="15" t="s">
         <v>120</v>
       </c>
@@ -42535,12 +42548,12 @@
         <v>-5.3699999999999998E-3</v>
       </c>
     </row>
-    <row r="156" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B156" s="20" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="157" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A157" s="15" t="s">
         <v>117</v>
       </c>
@@ -42644,7 +42657,7 @@
         <v>1.7017000000000001E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A158" s="15" t="s">
         <v>115</v>
       </c>
@@ -42748,96 +42761,96 @@
         <v>1.6476999999999999E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="160" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B160" s="28" t="s">
+    <row r="159" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.8"/>
+    <row r="160" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B160" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="C160" s="29"/>
-      <c r="D160" s="29"/>
-      <c r="E160" s="29"/>
-      <c r="F160" s="29"/>
-      <c r="G160" s="29"/>
-      <c r="H160" s="29"/>
-      <c r="I160" s="29"/>
-      <c r="J160" s="29"/>
-      <c r="K160" s="29"/>
-      <c r="L160" s="29"/>
-      <c r="M160" s="29"/>
-      <c r="N160" s="29"/>
-      <c r="O160" s="29"/>
-      <c r="P160" s="29"/>
-      <c r="Q160" s="29"/>
-      <c r="R160" s="29"/>
-      <c r="S160" s="29"/>
-      <c r="T160" s="29"/>
-      <c r="U160" s="29"/>
-      <c r="V160" s="29"/>
-      <c r="W160" s="29"/>
-      <c r="X160" s="29"/>
-      <c r="Y160" s="29"/>
-      <c r="Z160" s="29"/>
-      <c r="AA160" s="29"/>
-      <c r="AB160" s="29"/>
-      <c r="AC160" s="29"/>
-      <c r="AD160" s="29"/>
-      <c r="AE160" s="29"/>
-      <c r="AF160" s="29"/>
-      <c r="AG160" s="29"/>
-      <c r="AH160" s="30"/>
-    </row>
-    <row r="161" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B161" s="31" t="s">
+      <c r="C160" s="64"/>
+      <c r="D160" s="64"/>
+      <c r="E160" s="64"/>
+      <c r="F160" s="64"/>
+      <c r="G160" s="64"/>
+      <c r="H160" s="64"/>
+      <c r="I160" s="64"/>
+      <c r="J160" s="64"/>
+      <c r="K160" s="64"/>
+      <c r="L160" s="64"/>
+      <c r="M160" s="64"/>
+      <c r="N160" s="64"/>
+      <c r="O160" s="64"/>
+      <c r="P160" s="64"/>
+      <c r="Q160" s="64"/>
+      <c r="R160" s="64"/>
+      <c r="S160" s="64"/>
+      <c r="T160" s="64"/>
+      <c r="U160" s="64"/>
+      <c r="V160" s="64"/>
+      <c r="W160" s="64"/>
+      <c r="X160" s="64"/>
+      <c r="Y160" s="64"/>
+      <c r="Z160" s="64"/>
+      <c r="AA160" s="64"/>
+      <c r="AB160" s="64"/>
+      <c r="AC160" s="64"/>
+      <c r="AD160" s="64"/>
+      <c r="AE160" s="64"/>
+      <c r="AF160" s="64"/>
+      <c r="AG160" s="64"/>
+      <c r="AH160" s="28"/>
+    </row>
+    <row r="161" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B161" s="29" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="162" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B162" s="31" t="s">
+    <row r="162" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B162" s="29" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="163" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B163" s="31" t="s">
+    <row r="163" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B163" s="29" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="164" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B164" s="31" t="s">
+    <row r="164" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B164" s="29" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="165" spans="2:2" ht="12" x14ac:dyDescent="0.2">
-      <c r="B165" s="31" t="s">
+    <row r="165" spans="2:2" ht="12.25" x14ac:dyDescent="0.65">
+      <c r="B165" s="29" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="166" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B166" s="31" t="s">
+    <row r="166" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B166" s="29" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="167" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B167" s="31" t="s">
+    <row r="167" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B167" s="29" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="168" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B168" s="31" t="s">
+    <row r="168" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B168" s="29" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="169" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B169" s="31" t="s">
+    <row r="169" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B169" s="29" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="170" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B170" s="31" t="s">
+    <row r="170" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B170" s="29" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="171" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B171" s="31" t="s">
+    <row r="171" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B171" s="29" t="s">
         <v>103</v>
       </c>
     </row>
@@ -42862,16 +42875,16 @@
       <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.65"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" style="10" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="22.40625" style="10" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="49" style="10" customWidth="1"/>
-    <col min="3" max="33" width="9.140625" style="10"/>
-    <col min="34" max="34" width="9.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="35" max="16384" width="9.140625" style="10"/>
+    <col min="3" max="33" width="9.1328125" style="10"/>
+    <col min="34" max="34" width="9.1328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="35" max="16384" width="9.1328125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
       <c r="B1" s="11" t="s">
         <v>85</v>
       </c>
@@ -42969,8 +42982,8 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.65"/>
+    <row r="3" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C3" s="13" t="s">
         <v>86</v>
       </c>
@@ -42982,7 +42995,7 @@
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
     </row>
-    <row r="4" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C4" s="13" t="s">
         <v>88</v>
       </c>
@@ -42996,7 +43009,7 @@
       </c>
       <c r="H4" s="14"/>
     </row>
-    <row r="5" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C5" s="13" t="s">
         <v>91</v>
       </c>
@@ -43008,7 +43021,7 @@
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
     </row>
-    <row r="6" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C6" s="13" t="s">
         <v>93</v>
       </c>
@@ -43020,7 +43033,7 @@
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
     </row>
-    <row r="7" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
@@ -43028,9 +43041,9 @@
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
     </row>
-    <row r="8" spans="1:34" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:34" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" ht="12.25" x14ac:dyDescent="0.65"/>
+    <row r="9" spans="1:34" ht="12.25" x14ac:dyDescent="0.65"/>
+    <row r="10" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A10" s="15" t="s">
         <v>740</v>
       </c>
@@ -43041,7 +43054,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B11" s="11" t="s">
         <v>506</v>
       </c>
@@ -43049,7 +43062,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B12" s="11"/>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
@@ -43086,7 +43099,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
       <c r="B13" s="12" t="s">
         <v>505</v>
       </c>
@@ -43187,13 +43200,13 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:34" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:34" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.65"/>
+    <row r="15" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B15" s="20" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="17" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A17" s="15" t="s">
         <v>737</v>
       </c>
@@ -43297,7 +43310,7 @@
         <v>-1.1620999999999999E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A19" s="15" t="s">
         <v>735</v>
       </c>
@@ -43401,7 +43414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A21" s="15" t="s">
         <v>733</v>
       </c>
@@ -43505,7 +43518,7 @@
         <v>8.2389999999999998E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A22" s="15" t="s">
         <v>731</v>
       </c>
@@ -43609,7 +43622,7 @@
         <v>1.8284999999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A23" s="15" t="s">
         <v>730</v>
       </c>
@@ -43713,7 +43726,7 @@
         <v>1.833E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A24" s="15" t="s">
         <v>728</v>
       </c>
@@ -43817,7 +43830,7 @@
         <v>1.0196E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A25" s="15" t="s">
         <v>727</v>
       </c>
@@ -43921,7 +43934,7 @@
         <v>6.0559999999999998E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A27" s="15" t="s">
         <v>725</v>
       </c>
@@ -44025,7 +44038,7 @@
         <v>8.2749999999999994E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A28" s="15" t="s">
         <v>723</v>
       </c>
@@ -44129,7 +44142,7 @@
         <v>2.4629999999999999E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A29" s="15" t="s">
         <v>721</v>
       </c>
@@ -44233,7 +44246,7 @@
         <v>6.8669999999999998E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A30" s="15" t="s">
         <v>719</v>
       </c>
@@ -44337,7 +44350,7 @@
         <v>4.2170000000000003E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A31" s="15" t="s">
         <v>717</v>
       </c>
@@ -44441,7 +44454,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A32" s="15" t="s">
         <v>715</v>
       </c>
@@ -44545,7 +44558,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A33" s="15" t="s">
         <v>713</v>
       </c>
@@ -44649,8 +44662,8 @@
         <v>3.2188000000000001E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:34" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="35" spans="1:34" ht="12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:34" ht="12.25" x14ac:dyDescent="0.65"/>
+    <row r="35" spans="1:34" ht="12.25" x14ac:dyDescent="0.65">
       <c r="A35" s="15" t="s">
         <v>711</v>
       </c>
@@ -44754,7 +44767,7 @@
         <v>2.4931999999999999E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A36" s="15" t="s">
         <v>709</v>
       </c>
@@ -44858,7 +44871,7 @@
         <v>-5.2399999999999999E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A37" s="15" t="s">
         <v>707</v>
       </c>
@@ -44962,7 +44975,7 @@
         <v>3.0129E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A38" s="15" t="s">
         <v>705</v>
       </c>
@@ -45066,7 +45079,7 @@
         <v>2.1599E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A39" s="15" t="s">
         <v>703</v>
       </c>
@@ -45170,7 +45183,7 @@
         <v>-1.073E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A40" s="15" t="s">
         <v>701</v>
       </c>
@@ -45274,7 +45287,7 @@
         <v>-8.9400000000000005E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A41" s="15" t="s">
         <v>699</v>
       </c>
@@ -45378,7 +45391,7 @@
         <v>-1.7960000000000001E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A42" s="15" t="s">
         <v>697</v>
       </c>
@@ -45482,7 +45495,7 @@
         <v>-1.158E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A43" s="15" t="s">
         <v>696</v>
       </c>
@@ -45586,7 +45599,7 @@
         <v>7.0832999999999993E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A44" s="15" t="s">
         <v>695</v>
       </c>
@@ -45690,8 +45703,8 @@
         <v>2.0369999999999999E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:34" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:34" ht="12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:34" ht="12.25" x14ac:dyDescent="0.65"/>
+    <row r="46" spans="1:34" ht="12.25" x14ac:dyDescent="0.65">
       <c r="A46" s="15" t="s">
         <v>694</v>
       </c>
@@ -45795,13 +45808,13 @@
         <v>1.8915999999999999E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:34" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:34" ht="12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:34" ht="12.25" x14ac:dyDescent="0.65"/>
+    <row r="48" spans="1:34" ht="12.25" x14ac:dyDescent="0.65">
       <c r="B48" s="20" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A49" s="15" t="s">
         <v>691</v>
       </c>
@@ -45905,7 +45918,7 @@
         <v>1.1221E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A50" s="15" t="s">
         <v>689</v>
       </c>
@@ -46009,7 +46022,7 @@
         <v>0.431732</v>
       </c>
     </row>
-    <row r="51" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A51" s="15" t="s">
         <v>687</v>
       </c>
@@ -46113,7 +46126,7 @@
         <v>3.9829000000000003E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A52" s="15" t="s">
         <v>685</v>
       </c>
@@ -46217,17 +46230,17 @@
         <v>6.7869999999999996E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B55" s="20" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="56" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B56" s="20" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="58" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A58" s="15" t="s">
         <v>681</v>
       </c>
@@ -46331,7 +46344,7 @@
         <v>5.1526000000000002E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A59" s="15" t="s">
         <v>679</v>
       </c>
@@ -46435,7 +46448,7 @@
         <v>3.7659999999999998E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A60" s="15" t="s">
         <v>677</v>
       </c>
@@ -46539,7 +46552,7 @@
         <v>4.5310000000000003E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A61" s="15" t="s">
         <v>675</v>
       </c>
@@ -46643,7 +46656,7 @@
         <v>5.6439999999999997E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A62" s="15" t="s">
         <v>674</v>
       </c>
@@ -46747,7 +46760,7 @@
         <v>1.5999999999999999E-5</v>
       </c>
     </row>
-    <row r="64" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A64" s="15" t="s">
         <v>673</v>
       </c>
@@ -46851,7 +46864,7 @@
         <v>2.8707E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A65" s="15" t="s">
         <v>671</v>
       </c>
@@ -46955,7 +46968,7 @@
         <v>-3.9649999999999998E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:34" ht="14.75" x14ac:dyDescent="0.75">
       <c r="A66" s="15" t="s">
         <v>669</v>
       </c>
@@ -47059,7 +47072,7 @@
         <v>3.7794000000000001E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A67" s="15" t="s">
         <v>667</v>
       </c>
@@ -47163,860 +47176,849 @@
         <v>-3.5500000000000002E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="69" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="28" t="s">
+    <row r="68" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.8"/>
+    <row r="69" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B69" s="63" t="s">
         <v>665</v>
       </c>
-      <c r="C69" s="29"/>
-      <c r="D69" s="29"/>
-      <c r="E69" s="29"/>
-      <c r="F69" s="29"/>
-      <c r="G69" s="29"/>
-      <c r="H69" s="29"/>
-      <c r="I69" s="29"/>
-      <c r="J69" s="29"/>
-      <c r="K69" s="29"/>
-      <c r="L69" s="29"/>
-      <c r="M69" s="29"/>
-      <c r="N69" s="29"/>
-      <c r="O69" s="29"/>
-      <c r="P69" s="29"/>
-      <c r="Q69" s="29"/>
-      <c r="R69" s="29"/>
-      <c r="S69" s="29"/>
-      <c r="T69" s="29"/>
-      <c r="U69" s="29"/>
-      <c r="V69" s="29"/>
-      <c r="W69" s="29"/>
-      <c r="X69" s="29"/>
-      <c r="Y69" s="29"/>
-      <c r="Z69" s="29"/>
-      <c r="AA69" s="29"/>
-      <c r="AB69" s="29"/>
-      <c r="AC69" s="29"/>
-      <c r="AD69" s="29"/>
-      <c r="AE69" s="29"/>
-      <c r="AF69" s="29"/>
-      <c r="AG69" s="29"/>
-      <c r="AH69" s="30"/>
-    </row>
-    <row r="70" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="31" t="s">
+      <c r="C69" s="64"/>
+      <c r="D69" s="64"/>
+      <c r="E69" s="64"/>
+      <c r="F69" s="64"/>
+      <c r="G69" s="64"/>
+      <c r="H69" s="64"/>
+      <c r="I69" s="64"/>
+      <c r="J69" s="64"/>
+      <c r="K69" s="64"/>
+      <c r="L69" s="64"/>
+      <c r="M69" s="64"/>
+      <c r="N69" s="64"/>
+      <c r="O69" s="64"/>
+      <c r="P69" s="64"/>
+      <c r="Q69" s="64"/>
+      <c r="R69" s="64"/>
+      <c r="S69" s="64"/>
+      <c r="T69" s="64"/>
+      <c r="U69" s="64"/>
+      <c r="V69" s="64"/>
+      <c r="W69" s="64"/>
+      <c r="X69" s="64"/>
+      <c r="Y69" s="64"/>
+      <c r="Z69" s="64"/>
+      <c r="AA69" s="64"/>
+      <c r="AB69" s="64"/>
+      <c r="AC69" s="64"/>
+      <c r="AD69" s="64"/>
+      <c r="AE69" s="64"/>
+      <c r="AF69" s="64"/>
+      <c r="AG69" s="64"/>
+      <c r="AH69" s="28"/>
+    </row>
+    <row r="70" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B70" s="29" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="71" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="31" t="s">
+    <row r="71" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B71" s="29" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="72" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="31" t="s">
+    <row r="72" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B72" s="29" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="73" spans="1:34" ht="12" x14ac:dyDescent="0.2">
-      <c r="B73" s="31" t="s">
+    <row r="73" spans="1:34" ht="12.25" x14ac:dyDescent="0.65">
+      <c r="B73" s="29" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="74" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="31" t="s">
+    <row r="74" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B74" s="29" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="75" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="31" t="s">
+    <row r="75" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B75" s="29" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="76" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="31" t="s">
+    <row r="76" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B76" s="29" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="77" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="31" t="s">
+    <row r="77" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B77" s="29" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="78" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="31" t="s">
+    <row r="78" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B78" s="29" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="79" spans="1:34" ht="12" x14ac:dyDescent="0.2">
-      <c r="B79" s="31" t="s">
+    <row r="79" spans="1:34" ht="12.25" x14ac:dyDescent="0.65">
+      <c r="B79" s="29" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="80" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="31" t="s">
+    <row r="80" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B80" s="29" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="81" spans="2:2" ht="12" x14ac:dyDescent="0.2">
-      <c r="B81" s="31" t="s">
+    <row r="81" spans="2:2" ht="12.25" x14ac:dyDescent="0.65">
+      <c r="B81" s="29" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="82" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="31" t="s">
+    <row r="82" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B82" s="29" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="83" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="31" t="s">
+    <row r="83" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B83" s="29" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="84" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="31" t="s">
+    <row r="84" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B84" s="29" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="85" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="31" t="s">
+    <row r="85" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B85" s="29" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="31" t="s">
+    <row r="86" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B86" s="29" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="87" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="31" t="s">
+    <row r="87" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B87" s="29" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="88" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="31" t="s">
+    <row r="88" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B88" s="29" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="89" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="31" t="s">
+    <row r="89" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B89" s="29" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="92" spans="2:2" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="101" spans="2:34" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="102" spans="2:34" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="112" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B112" s="32"/>
-      <c r="C112" s="32"/>
-      <c r="D112" s="32"/>
-      <c r="E112" s="32"/>
-      <c r="F112" s="32"/>
-      <c r="G112" s="32"/>
-      <c r="H112" s="32"/>
-      <c r="I112" s="32"/>
-      <c r="J112" s="32"/>
-      <c r="K112" s="32"/>
-      <c r="L112" s="32"/>
-      <c r="M112" s="32"/>
-      <c r="N112" s="32"/>
-      <c r="O112" s="32"/>
-      <c r="P112" s="32"/>
-      <c r="Q112" s="32"/>
-      <c r="R112" s="32"/>
-      <c r="S112" s="32"/>
-      <c r="T112" s="32"/>
-      <c r="U112" s="32"/>
-      <c r="V112" s="32"/>
-      <c r="W112" s="32"/>
-      <c r="X112" s="32"/>
-      <c r="Y112" s="32"/>
-      <c r="Z112" s="32"/>
-      <c r="AA112" s="32"/>
-      <c r="AB112" s="32"/>
-      <c r="AC112" s="32"/>
-      <c r="AD112" s="32"/>
-      <c r="AE112" s="32"/>
-      <c r="AF112" s="32"/>
-      <c r="AG112" s="32"/>
-      <c r="AH112" s="32"/>
-    </row>
-    <row r="308" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B308" s="32"/>
-      <c r="C308" s="32"/>
-      <c r="D308" s="32"/>
-      <c r="E308" s="32"/>
-      <c r="F308" s="32"/>
-      <c r="G308" s="32"/>
-      <c r="H308" s="32"/>
-      <c r="I308" s="32"/>
-      <c r="J308" s="32"/>
-      <c r="K308" s="32"/>
-      <c r="L308" s="32"/>
-      <c r="M308" s="32"/>
-      <c r="N308" s="32"/>
-      <c r="O308" s="32"/>
-      <c r="P308" s="32"/>
-      <c r="Q308" s="32"/>
-      <c r="R308" s="32"/>
-      <c r="S308" s="32"/>
-      <c r="T308" s="32"/>
-      <c r="U308" s="32"/>
-      <c r="V308" s="32"/>
-      <c r="W308" s="32"/>
-      <c r="X308" s="32"/>
-      <c r="Y308" s="32"/>
-      <c r="Z308" s="32"/>
-      <c r="AA308" s="32"/>
-      <c r="AB308" s="32"/>
-      <c r="AC308" s="32"/>
-      <c r="AD308" s="32"/>
-      <c r="AE308" s="32"/>
-      <c r="AF308" s="32"/>
-      <c r="AG308" s="32"/>
-      <c r="AH308" s="32"/>
-    </row>
-    <row r="511" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B511" s="32"/>
-      <c r="C511" s="32"/>
-      <c r="D511" s="32"/>
-      <c r="E511" s="32"/>
-      <c r="F511" s="32"/>
-      <c r="G511" s="32"/>
-      <c r="H511" s="32"/>
-      <c r="I511" s="32"/>
-      <c r="J511" s="32"/>
-      <c r="K511" s="32"/>
-      <c r="L511" s="32"/>
-      <c r="M511" s="32"/>
-      <c r="N511" s="32"/>
-      <c r="O511" s="32"/>
-      <c r="P511" s="32"/>
-      <c r="Q511" s="32"/>
-      <c r="R511" s="32"/>
-      <c r="S511" s="32"/>
-      <c r="T511" s="32"/>
-      <c r="U511" s="32"/>
-      <c r="V511" s="32"/>
-      <c r="W511" s="32"/>
-      <c r="X511" s="32"/>
-      <c r="Y511" s="32"/>
-      <c r="Z511" s="32"/>
-      <c r="AA511" s="32"/>
-      <c r="AB511" s="32"/>
-      <c r="AC511" s="32"/>
-      <c r="AD511" s="32"/>
-      <c r="AE511" s="32"/>
-      <c r="AF511" s="32"/>
-      <c r="AG511" s="32"/>
-      <c r="AH511" s="32"/>
-    </row>
-    <row r="712" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B712" s="32"/>
-      <c r="C712" s="32"/>
-      <c r="D712" s="32"/>
-      <c r="E712" s="32"/>
-      <c r="F712" s="32"/>
-      <c r="G712" s="32"/>
-      <c r="H712" s="32"/>
-      <c r="I712" s="32"/>
-      <c r="J712" s="32"/>
-      <c r="K712" s="32"/>
-      <c r="L712" s="32"/>
-      <c r="M712" s="32"/>
-      <c r="N712" s="32"/>
-      <c r="O712" s="32"/>
-      <c r="P712" s="32"/>
-      <c r="Q712" s="32"/>
-      <c r="R712" s="32"/>
-      <c r="S712" s="32"/>
-      <c r="T712" s="32"/>
-      <c r="U712" s="32"/>
-      <c r="V712" s="32"/>
-      <c r="W712" s="32"/>
-      <c r="X712" s="32"/>
-      <c r="Y712" s="32"/>
-      <c r="Z712" s="32"/>
-      <c r="AA712" s="32"/>
-      <c r="AB712" s="32"/>
-      <c r="AC712" s="32"/>
-      <c r="AD712" s="32"/>
-      <c r="AE712" s="32"/>
-      <c r="AF712" s="32"/>
-      <c r="AG712" s="32"/>
-      <c r="AH712" s="32"/>
-    </row>
-    <row r="887" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B887" s="32"/>
-      <c r="C887" s="32"/>
-      <c r="D887" s="32"/>
-      <c r="E887" s="32"/>
-      <c r="F887" s="32"/>
-      <c r="G887" s="32"/>
-      <c r="H887" s="32"/>
-      <c r="I887" s="32"/>
-      <c r="J887" s="32"/>
-      <c r="K887" s="32"/>
-      <c r="L887" s="32"/>
-      <c r="M887" s="32"/>
-      <c r="N887" s="32"/>
-      <c r="O887" s="32"/>
-      <c r="P887" s="32"/>
-      <c r="Q887" s="32"/>
-      <c r="R887" s="32"/>
-      <c r="S887" s="32"/>
-      <c r="T887" s="32"/>
-      <c r="U887" s="32"/>
-      <c r="V887" s="32"/>
-      <c r="W887" s="32"/>
-      <c r="X887" s="32"/>
-      <c r="Y887" s="32"/>
-      <c r="Z887" s="32"/>
-      <c r="AA887" s="32"/>
-      <c r="AB887" s="32"/>
-      <c r="AC887" s="32"/>
-      <c r="AD887" s="32"/>
-      <c r="AE887" s="32"/>
-      <c r="AF887" s="32"/>
-      <c r="AG887" s="32"/>
-      <c r="AH887" s="32"/>
-    </row>
-    <row r="1100" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1100" s="32"/>
-      <c r="C1100" s="32"/>
-      <c r="D1100" s="32"/>
-      <c r="E1100" s="32"/>
-      <c r="F1100" s="32"/>
-      <c r="G1100" s="32"/>
-      <c r="H1100" s="32"/>
-      <c r="I1100" s="32"/>
-      <c r="J1100" s="32"/>
-      <c r="K1100" s="32"/>
-      <c r="L1100" s="32"/>
-      <c r="M1100" s="32"/>
-      <c r="N1100" s="32"/>
-      <c r="O1100" s="32"/>
-      <c r="P1100" s="32"/>
-      <c r="Q1100" s="32"/>
-      <c r="R1100" s="32"/>
-      <c r="S1100" s="32"/>
-      <c r="T1100" s="32"/>
-      <c r="U1100" s="32"/>
-      <c r="V1100" s="32"/>
-      <c r="W1100" s="32"/>
-      <c r="X1100" s="32"/>
-      <c r="Y1100" s="32"/>
-      <c r="Z1100" s="32"/>
-      <c r="AA1100" s="32"/>
-      <c r="AB1100" s="32"/>
-      <c r="AC1100" s="32"/>
-      <c r="AD1100" s="32"/>
-      <c r="AE1100" s="32"/>
-      <c r="AF1100" s="32"/>
-      <c r="AG1100" s="32"/>
-      <c r="AH1100" s="32"/>
-    </row>
-    <row r="1227" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1227" s="32"/>
-      <c r="C1227" s="32"/>
-      <c r="D1227" s="32"/>
-      <c r="E1227" s="32"/>
-      <c r="F1227" s="32"/>
-      <c r="G1227" s="32"/>
-      <c r="H1227" s="32"/>
-      <c r="I1227" s="32"/>
-      <c r="J1227" s="32"/>
-      <c r="K1227" s="32"/>
-      <c r="L1227" s="32"/>
-      <c r="M1227" s="32"/>
-      <c r="N1227" s="32"/>
-      <c r="O1227" s="32"/>
-      <c r="P1227" s="32"/>
-      <c r="Q1227" s="32"/>
-      <c r="R1227" s="32"/>
-      <c r="S1227" s="32"/>
-      <c r="T1227" s="32"/>
-      <c r="U1227" s="32"/>
-      <c r="V1227" s="32"/>
-      <c r="W1227" s="32"/>
-      <c r="X1227" s="32"/>
-      <c r="Y1227" s="32"/>
-      <c r="Z1227" s="32"/>
-      <c r="AA1227" s="32"/>
-      <c r="AB1227" s="32"/>
-      <c r="AC1227" s="32"/>
-      <c r="AD1227" s="32"/>
-      <c r="AE1227" s="32"/>
-      <c r="AF1227" s="32"/>
-      <c r="AG1227" s="32"/>
-      <c r="AH1227" s="32"/>
-    </row>
-    <row r="1390" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1390" s="32"/>
-      <c r="C1390" s="32"/>
-      <c r="D1390" s="32"/>
-      <c r="E1390" s="32"/>
-      <c r="F1390" s="32"/>
-      <c r="G1390" s="32"/>
-      <c r="H1390" s="32"/>
-      <c r="I1390" s="32"/>
-      <c r="J1390" s="32"/>
-      <c r="K1390" s="32"/>
-      <c r="L1390" s="32"/>
-      <c r="M1390" s="32"/>
-      <c r="N1390" s="32"/>
-      <c r="O1390" s="32"/>
-      <c r="P1390" s="32"/>
-      <c r="Q1390" s="32"/>
-      <c r="R1390" s="32"/>
-      <c r="S1390" s="32"/>
-      <c r="T1390" s="32"/>
-      <c r="U1390" s="32"/>
-      <c r="V1390" s="32"/>
-      <c r="W1390" s="32"/>
-      <c r="X1390" s="32"/>
-      <c r="Y1390" s="32"/>
-      <c r="Z1390" s="32"/>
-      <c r="AA1390" s="32"/>
-      <c r="AB1390" s="32"/>
-      <c r="AC1390" s="32"/>
-      <c r="AD1390" s="32"/>
-      <c r="AE1390" s="32"/>
-      <c r="AF1390" s="32"/>
-      <c r="AG1390" s="32"/>
-      <c r="AH1390" s="32"/>
-    </row>
-    <row r="1502" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1502" s="32"/>
-      <c r="C1502" s="32"/>
-      <c r="D1502" s="32"/>
-      <c r="E1502" s="32"/>
-      <c r="F1502" s="32"/>
-      <c r="G1502" s="32"/>
-      <c r="H1502" s="32"/>
-      <c r="I1502" s="32"/>
-      <c r="J1502" s="32"/>
-      <c r="K1502" s="32"/>
-      <c r="L1502" s="32"/>
-      <c r="M1502" s="32"/>
-      <c r="N1502" s="32"/>
-      <c r="O1502" s="32"/>
-      <c r="P1502" s="32"/>
-      <c r="Q1502" s="32"/>
-      <c r="R1502" s="32"/>
-      <c r="S1502" s="32"/>
-      <c r="T1502" s="32"/>
-      <c r="U1502" s="32"/>
-      <c r="V1502" s="32"/>
-      <c r="W1502" s="32"/>
-      <c r="X1502" s="32"/>
-      <c r="Y1502" s="32"/>
-      <c r="Z1502" s="32"/>
-      <c r="AA1502" s="32"/>
-      <c r="AB1502" s="32"/>
-      <c r="AC1502" s="32"/>
-      <c r="AD1502" s="32"/>
-      <c r="AE1502" s="32"/>
-      <c r="AF1502" s="32"/>
-      <c r="AG1502" s="32"/>
-      <c r="AH1502" s="32"/>
-    </row>
-    <row r="1604" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1604" s="32"/>
-      <c r="C1604" s="32"/>
-      <c r="D1604" s="32"/>
-      <c r="E1604" s="32"/>
-      <c r="F1604" s="32"/>
-      <c r="G1604" s="32"/>
-      <c r="H1604" s="32"/>
-      <c r="I1604" s="32"/>
-      <c r="J1604" s="32"/>
-      <c r="K1604" s="32"/>
-      <c r="L1604" s="32"/>
-      <c r="M1604" s="32"/>
-      <c r="N1604" s="32"/>
-      <c r="O1604" s="32"/>
-      <c r="P1604" s="32"/>
-      <c r="Q1604" s="32"/>
-      <c r="R1604" s="32"/>
-      <c r="S1604" s="32"/>
-      <c r="T1604" s="32"/>
-      <c r="U1604" s="32"/>
-      <c r="V1604" s="32"/>
-      <c r="W1604" s="32"/>
-      <c r="X1604" s="32"/>
-      <c r="Y1604" s="32"/>
-      <c r="Z1604" s="32"/>
-      <c r="AA1604" s="32"/>
-      <c r="AB1604" s="32"/>
-      <c r="AC1604" s="32"/>
-      <c r="AD1604" s="32"/>
-      <c r="AE1604" s="32"/>
-      <c r="AF1604" s="32"/>
-      <c r="AG1604" s="32"/>
-      <c r="AH1604" s="32"/>
-    </row>
-    <row r="1698" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1698" s="32"/>
-      <c r="C1698" s="32"/>
-      <c r="D1698" s="32"/>
-      <c r="E1698" s="32"/>
-      <c r="F1698" s="32"/>
-      <c r="G1698" s="32"/>
-      <c r="H1698" s="32"/>
-      <c r="I1698" s="32"/>
-      <c r="J1698" s="32"/>
-      <c r="K1698" s="32"/>
-      <c r="L1698" s="32"/>
-      <c r="M1698" s="32"/>
-      <c r="N1698" s="32"/>
-      <c r="O1698" s="32"/>
-      <c r="P1698" s="32"/>
-      <c r="Q1698" s="32"/>
-      <c r="R1698" s="32"/>
-      <c r="S1698" s="32"/>
-      <c r="T1698" s="32"/>
-      <c r="U1698" s="32"/>
-      <c r="V1698" s="32"/>
-      <c r="W1698" s="32"/>
-      <c r="X1698" s="32"/>
-      <c r="Y1698" s="32"/>
-      <c r="Z1698" s="32"/>
-      <c r="AA1698" s="32"/>
-      <c r="AB1698" s="32"/>
-      <c r="AC1698" s="32"/>
-      <c r="AD1698" s="32"/>
-      <c r="AE1698" s="32"/>
-      <c r="AF1698" s="32"/>
-      <c r="AG1698" s="32"/>
-      <c r="AH1698" s="32"/>
-    </row>
-    <row r="1945" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1945" s="32"/>
-      <c r="C1945" s="32"/>
-      <c r="D1945" s="32"/>
-      <c r="E1945" s="32"/>
-      <c r="F1945" s="32"/>
-      <c r="G1945" s="32"/>
-      <c r="H1945" s="32"/>
-      <c r="I1945" s="32"/>
-      <c r="J1945" s="32"/>
-      <c r="K1945" s="32"/>
-      <c r="L1945" s="32"/>
-      <c r="M1945" s="32"/>
-      <c r="N1945" s="32"/>
-      <c r="O1945" s="32"/>
-      <c r="P1945" s="32"/>
-      <c r="Q1945" s="32"/>
-      <c r="R1945" s="32"/>
-      <c r="S1945" s="32"/>
-      <c r="T1945" s="32"/>
-      <c r="U1945" s="32"/>
-      <c r="V1945" s="32"/>
-      <c r="W1945" s="32"/>
-      <c r="X1945" s="32"/>
-      <c r="Y1945" s="32"/>
-      <c r="Z1945" s="32"/>
-      <c r="AA1945" s="32"/>
-      <c r="AB1945" s="32"/>
-      <c r="AC1945" s="32"/>
-      <c r="AD1945" s="32"/>
-      <c r="AE1945" s="32"/>
-      <c r="AF1945" s="32"/>
-      <c r="AG1945" s="32"/>
-      <c r="AH1945" s="32"/>
-    </row>
-    <row r="2031" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2031" s="32"/>
-      <c r="C2031" s="32"/>
-      <c r="D2031" s="32"/>
-      <c r="E2031" s="32"/>
-      <c r="F2031" s="32"/>
-      <c r="G2031" s="32"/>
-      <c r="H2031" s="32"/>
-      <c r="I2031" s="32"/>
-      <c r="J2031" s="32"/>
-      <c r="K2031" s="32"/>
-      <c r="L2031" s="32"/>
-      <c r="M2031" s="32"/>
-      <c r="N2031" s="32"/>
-      <c r="O2031" s="32"/>
-      <c r="P2031" s="32"/>
-      <c r="Q2031" s="32"/>
-      <c r="R2031" s="32"/>
-      <c r="S2031" s="32"/>
-      <c r="T2031" s="32"/>
-      <c r="U2031" s="32"/>
-      <c r="V2031" s="32"/>
-      <c r="W2031" s="32"/>
-      <c r="X2031" s="32"/>
-      <c r="Y2031" s="32"/>
-      <c r="Z2031" s="32"/>
-      <c r="AA2031" s="32"/>
-      <c r="AB2031" s="32"/>
-      <c r="AC2031" s="32"/>
-      <c r="AD2031" s="32"/>
-      <c r="AE2031" s="32"/>
-      <c r="AF2031" s="32"/>
-      <c r="AG2031" s="32"/>
-      <c r="AH2031" s="32"/>
-    </row>
-    <row r="2153" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2153" s="32"/>
-      <c r="C2153" s="32"/>
-      <c r="D2153" s="32"/>
-      <c r="E2153" s="32"/>
-      <c r="F2153" s="32"/>
-      <c r="G2153" s="32"/>
-      <c r="H2153" s="32"/>
-      <c r="I2153" s="32"/>
-      <c r="J2153" s="32"/>
-      <c r="K2153" s="32"/>
-      <c r="L2153" s="32"/>
-      <c r="M2153" s="32"/>
-      <c r="N2153" s="32"/>
-      <c r="O2153" s="32"/>
-      <c r="P2153" s="32"/>
-      <c r="Q2153" s="32"/>
-      <c r="R2153" s="32"/>
-      <c r="S2153" s="32"/>
-      <c r="T2153" s="32"/>
-      <c r="U2153" s="32"/>
-      <c r="V2153" s="32"/>
-      <c r="W2153" s="32"/>
-      <c r="X2153" s="32"/>
-      <c r="Y2153" s="32"/>
-      <c r="Z2153" s="32"/>
-      <c r="AA2153" s="32"/>
-      <c r="AB2153" s="32"/>
-      <c r="AC2153" s="32"/>
-      <c r="AD2153" s="32"/>
-      <c r="AE2153" s="32"/>
-      <c r="AF2153" s="32"/>
-      <c r="AG2153" s="32"/>
-      <c r="AH2153" s="32"/>
-    </row>
-    <row r="2317" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2317" s="32"/>
-      <c r="C2317" s="32"/>
-      <c r="D2317" s="32"/>
-      <c r="E2317" s="32"/>
-      <c r="F2317" s="32"/>
-      <c r="G2317" s="32"/>
-      <c r="H2317" s="32"/>
-      <c r="I2317" s="32"/>
-      <c r="J2317" s="32"/>
-      <c r="K2317" s="32"/>
-      <c r="L2317" s="32"/>
-      <c r="M2317" s="32"/>
-      <c r="N2317" s="32"/>
-      <c r="O2317" s="32"/>
-      <c r="P2317" s="32"/>
-      <c r="Q2317" s="32"/>
-      <c r="R2317" s="32"/>
-      <c r="S2317" s="32"/>
-      <c r="T2317" s="32"/>
-      <c r="U2317" s="32"/>
-      <c r="V2317" s="32"/>
-      <c r="W2317" s="32"/>
-      <c r="X2317" s="32"/>
-      <c r="Y2317" s="32"/>
-      <c r="Z2317" s="32"/>
-      <c r="AA2317" s="32"/>
-      <c r="AB2317" s="32"/>
-      <c r="AC2317" s="32"/>
-      <c r="AD2317" s="32"/>
-      <c r="AE2317" s="32"/>
-      <c r="AF2317" s="32"/>
-      <c r="AG2317" s="32"/>
-      <c r="AH2317" s="32"/>
-    </row>
-    <row r="2419" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2419" s="32"/>
-      <c r="C2419" s="32"/>
-      <c r="D2419" s="32"/>
-      <c r="E2419" s="32"/>
-      <c r="F2419" s="32"/>
-      <c r="G2419" s="32"/>
-      <c r="H2419" s="32"/>
-      <c r="I2419" s="32"/>
-      <c r="J2419" s="32"/>
-      <c r="K2419" s="32"/>
-      <c r="L2419" s="32"/>
-      <c r="M2419" s="32"/>
-      <c r="N2419" s="32"/>
-      <c r="O2419" s="32"/>
-      <c r="P2419" s="32"/>
-      <c r="Q2419" s="32"/>
-      <c r="R2419" s="32"/>
-      <c r="S2419" s="32"/>
-      <c r="T2419" s="32"/>
-      <c r="U2419" s="32"/>
-      <c r="V2419" s="32"/>
-      <c r="W2419" s="32"/>
-      <c r="X2419" s="32"/>
-      <c r="Y2419" s="32"/>
-      <c r="Z2419" s="32"/>
-      <c r="AA2419" s="32"/>
-      <c r="AB2419" s="32"/>
-      <c r="AC2419" s="32"/>
-      <c r="AD2419" s="32"/>
-      <c r="AE2419" s="32"/>
-      <c r="AF2419" s="32"/>
-      <c r="AG2419" s="32"/>
-      <c r="AH2419" s="32"/>
-    </row>
-    <row r="2509" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2509" s="32"/>
-      <c r="C2509" s="32"/>
-      <c r="D2509" s="32"/>
-      <c r="E2509" s="32"/>
-      <c r="F2509" s="32"/>
-      <c r="G2509" s="32"/>
-      <c r="H2509" s="32"/>
-      <c r="I2509" s="32"/>
-      <c r="J2509" s="32"/>
-      <c r="K2509" s="32"/>
-      <c r="L2509" s="32"/>
-      <c r="M2509" s="32"/>
-      <c r="N2509" s="32"/>
-      <c r="O2509" s="32"/>
-      <c r="P2509" s="32"/>
-      <c r="Q2509" s="32"/>
-      <c r="R2509" s="32"/>
-      <c r="S2509" s="32"/>
-      <c r="T2509" s="32"/>
-      <c r="U2509" s="32"/>
-      <c r="V2509" s="32"/>
-      <c r="W2509" s="32"/>
-      <c r="X2509" s="32"/>
-      <c r="Y2509" s="32"/>
-      <c r="Z2509" s="32"/>
-      <c r="AA2509" s="32"/>
-      <c r="AB2509" s="32"/>
-      <c r="AC2509" s="32"/>
-      <c r="AD2509" s="32"/>
-      <c r="AE2509" s="32"/>
-      <c r="AF2509" s="32"/>
-      <c r="AG2509" s="32"/>
-      <c r="AH2509" s="32"/>
-    </row>
-    <row r="2598" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2598" s="32"/>
-      <c r="C2598" s="32"/>
-      <c r="D2598" s="32"/>
-      <c r="E2598" s="32"/>
-      <c r="F2598" s="32"/>
-      <c r="G2598" s="32"/>
-      <c r="H2598" s="32"/>
-      <c r="I2598" s="32"/>
-      <c r="J2598" s="32"/>
-      <c r="K2598" s="32"/>
-      <c r="L2598" s="32"/>
-      <c r="M2598" s="32"/>
-      <c r="N2598" s="32"/>
-      <c r="O2598" s="32"/>
-      <c r="P2598" s="32"/>
-      <c r="Q2598" s="32"/>
-      <c r="R2598" s="32"/>
-      <c r="S2598" s="32"/>
-      <c r="T2598" s="32"/>
-      <c r="U2598" s="32"/>
-      <c r="V2598" s="32"/>
-      <c r="W2598" s="32"/>
-      <c r="X2598" s="32"/>
-      <c r="Y2598" s="32"/>
-      <c r="Z2598" s="32"/>
-      <c r="AA2598" s="32"/>
-      <c r="AB2598" s="32"/>
-      <c r="AC2598" s="32"/>
-      <c r="AD2598" s="32"/>
-      <c r="AE2598" s="32"/>
-      <c r="AF2598" s="32"/>
-      <c r="AG2598" s="32"/>
-      <c r="AH2598" s="32"/>
-    </row>
-    <row r="2719" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2719" s="32"/>
-      <c r="C2719" s="32"/>
-      <c r="D2719" s="32"/>
-      <c r="E2719" s="32"/>
-      <c r="F2719" s="32"/>
-      <c r="G2719" s="32"/>
-      <c r="H2719" s="32"/>
-      <c r="I2719" s="32"/>
-      <c r="J2719" s="32"/>
-      <c r="K2719" s="32"/>
-      <c r="L2719" s="32"/>
-      <c r="M2719" s="32"/>
-      <c r="N2719" s="32"/>
-      <c r="O2719" s="32"/>
-      <c r="P2719" s="32"/>
-      <c r="Q2719" s="32"/>
-      <c r="R2719" s="32"/>
-      <c r="S2719" s="32"/>
-      <c r="T2719" s="32"/>
-      <c r="U2719" s="32"/>
-      <c r="V2719" s="32"/>
-      <c r="W2719" s="32"/>
-      <c r="X2719" s="32"/>
-      <c r="Y2719" s="32"/>
-      <c r="Z2719" s="32"/>
-      <c r="AA2719" s="32"/>
-      <c r="AB2719" s="32"/>
-      <c r="AC2719" s="32"/>
-      <c r="AD2719" s="32"/>
-      <c r="AE2719" s="32"/>
-      <c r="AF2719" s="32"/>
-      <c r="AG2719" s="32"/>
-      <c r="AH2719" s="32"/>
-    </row>
-    <row r="2837" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2837" s="32"/>
-      <c r="C2837" s="32"/>
-      <c r="D2837" s="32"/>
-      <c r="E2837" s="32"/>
-      <c r="F2837" s="32"/>
-      <c r="G2837" s="32"/>
-      <c r="H2837" s="32"/>
-      <c r="I2837" s="32"/>
-      <c r="J2837" s="32"/>
-      <c r="K2837" s="32"/>
-      <c r="L2837" s="32"/>
-      <c r="M2837" s="32"/>
-      <c r="N2837" s="32"/>
-      <c r="O2837" s="32"/>
-      <c r="P2837" s="32"/>
-      <c r="Q2837" s="32"/>
-      <c r="R2837" s="32"/>
-      <c r="S2837" s="32"/>
-      <c r="T2837" s="32"/>
-      <c r="U2837" s="32"/>
-      <c r="V2837" s="32"/>
-      <c r="W2837" s="32"/>
-      <c r="X2837" s="32"/>
-      <c r="Y2837" s="32"/>
-      <c r="Z2837" s="32"/>
-      <c r="AA2837" s="32"/>
-      <c r="AB2837" s="32"/>
-      <c r="AC2837" s="32"/>
-      <c r="AD2837" s="32"/>
-      <c r="AE2837" s="32"/>
-      <c r="AF2837" s="32"/>
-      <c r="AG2837" s="32"/>
-      <c r="AH2837" s="32"/>
+    <row r="92" spans="2:2" ht="12.25" x14ac:dyDescent="0.65"/>
+    <row r="101" spans="2:34" ht="12.25" x14ac:dyDescent="0.65"/>
+    <row r="102" spans="2:34" ht="12.25" x14ac:dyDescent="0.65"/>
+    <row r="112" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B112" s="68"/>
+      <c r="C112" s="68"/>
+      <c r="D112" s="68"/>
+      <c r="E112" s="68"/>
+      <c r="F112" s="68"/>
+      <c r="G112" s="68"/>
+      <c r="H112" s="68"/>
+      <c r="I112" s="68"/>
+      <c r="J112" s="68"/>
+      <c r="K112" s="68"/>
+      <c r="L112" s="68"/>
+      <c r="M112" s="68"/>
+      <c r="N112" s="68"/>
+      <c r="O112" s="68"/>
+      <c r="P112" s="68"/>
+      <c r="Q112" s="68"/>
+      <c r="R112" s="68"/>
+      <c r="S112" s="68"/>
+      <c r="T112" s="68"/>
+      <c r="U112" s="68"/>
+      <c r="V112" s="68"/>
+      <c r="W112" s="68"/>
+      <c r="X112" s="68"/>
+      <c r="Y112" s="68"/>
+      <c r="Z112" s="68"/>
+      <c r="AA112" s="68"/>
+      <c r="AB112" s="68"/>
+      <c r="AC112" s="68"/>
+      <c r="AD112" s="68"/>
+      <c r="AE112" s="68"/>
+      <c r="AF112" s="68"/>
+      <c r="AG112" s="68"/>
+      <c r="AH112" s="68"/>
+    </row>
+    <row r="308" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B308" s="68"/>
+      <c r="C308" s="68"/>
+      <c r="D308" s="68"/>
+      <c r="E308" s="68"/>
+      <c r="F308" s="68"/>
+      <c r="G308" s="68"/>
+      <c r="H308" s="68"/>
+      <c r="I308" s="68"/>
+      <c r="J308" s="68"/>
+      <c r="K308" s="68"/>
+      <c r="L308" s="68"/>
+      <c r="M308" s="68"/>
+      <c r="N308" s="68"/>
+      <c r="O308" s="68"/>
+      <c r="P308" s="68"/>
+      <c r="Q308" s="68"/>
+      <c r="R308" s="68"/>
+      <c r="S308" s="68"/>
+      <c r="T308" s="68"/>
+      <c r="U308" s="68"/>
+      <c r="V308" s="68"/>
+      <c r="W308" s="68"/>
+      <c r="X308" s="68"/>
+      <c r="Y308" s="68"/>
+      <c r="Z308" s="68"/>
+      <c r="AA308" s="68"/>
+      <c r="AB308" s="68"/>
+      <c r="AC308" s="68"/>
+      <c r="AD308" s="68"/>
+      <c r="AE308" s="68"/>
+      <c r="AF308" s="68"/>
+      <c r="AG308" s="68"/>
+      <c r="AH308" s="68"/>
+    </row>
+    <row r="511" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B511" s="68"/>
+      <c r="C511" s="68"/>
+      <c r="D511" s="68"/>
+      <c r="E511" s="68"/>
+      <c r="F511" s="68"/>
+      <c r="G511" s="68"/>
+      <c r="H511" s="68"/>
+      <c r="I511" s="68"/>
+      <c r="J511" s="68"/>
+      <c r="K511" s="68"/>
+      <c r="L511" s="68"/>
+      <c r="M511" s="68"/>
+      <c r="N511" s="68"/>
+      <c r="O511" s="68"/>
+      <c r="P511" s="68"/>
+      <c r="Q511" s="68"/>
+      <c r="R511" s="68"/>
+      <c r="S511" s="68"/>
+      <c r="T511" s="68"/>
+      <c r="U511" s="68"/>
+      <c r="V511" s="68"/>
+      <c r="W511" s="68"/>
+      <c r="X511" s="68"/>
+      <c r="Y511" s="68"/>
+      <c r="Z511" s="68"/>
+      <c r="AA511" s="68"/>
+      <c r="AB511" s="68"/>
+      <c r="AC511" s="68"/>
+      <c r="AD511" s="68"/>
+      <c r="AE511" s="68"/>
+      <c r="AF511" s="68"/>
+      <c r="AG511" s="68"/>
+      <c r="AH511" s="68"/>
+    </row>
+    <row r="712" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B712" s="68"/>
+      <c r="C712" s="68"/>
+      <c r="D712" s="68"/>
+      <c r="E712" s="68"/>
+      <c r="F712" s="68"/>
+      <c r="G712" s="68"/>
+      <c r="H712" s="68"/>
+      <c r="I712" s="68"/>
+      <c r="J712" s="68"/>
+      <c r="K712" s="68"/>
+      <c r="L712" s="68"/>
+      <c r="M712" s="68"/>
+      <c r="N712" s="68"/>
+      <c r="O712" s="68"/>
+      <c r="P712" s="68"/>
+      <c r="Q712" s="68"/>
+      <c r="R712" s="68"/>
+      <c r="S712" s="68"/>
+      <c r="T712" s="68"/>
+      <c r="U712" s="68"/>
+      <c r="V712" s="68"/>
+      <c r="W712" s="68"/>
+      <c r="X712" s="68"/>
+      <c r="Y712" s="68"/>
+      <c r="Z712" s="68"/>
+      <c r="AA712" s="68"/>
+      <c r="AB712" s="68"/>
+      <c r="AC712" s="68"/>
+      <c r="AD712" s="68"/>
+      <c r="AE712" s="68"/>
+      <c r="AF712" s="68"/>
+      <c r="AG712" s="68"/>
+      <c r="AH712" s="68"/>
+    </row>
+    <row r="887" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B887" s="68"/>
+      <c r="C887" s="68"/>
+      <c r="D887" s="68"/>
+      <c r="E887" s="68"/>
+      <c r="F887" s="68"/>
+      <c r="G887" s="68"/>
+      <c r="H887" s="68"/>
+      <c r="I887" s="68"/>
+      <c r="J887" s="68"/>
+      <c r="K887" s="68"/>
+      <c r="L887" s="68"/>
+      <c r="M887" s="68"/>
+      <c r="N887" s="68"/>
+      <c r="O887" s="68"/>
+      <c r="P887" s="68"/>
+      <c r="Q887" s="68"/>
+      <c r="R887" s="68"/>
+      <c r="S887" s="68"/>
+      <c r="T887" s="68"/>
+      <c r="U887" s="68"/>
+      <c r="V887" s="68"/>
+      <c r="W887" s="68"/>
+      <c r="X887" s="68"/>
+      <c r="Y887" s="68"/>
+      <c r="Z887" s="68"/>
+      <c r="AA887" s="68"/>
+      <c r="AB887" s="68"/>
+      <c r="AC887" s="68"/>
+      <c r="AD887" s="68"/>
+      <c r="AE887" s="68"/>
+      <c r="AF887" s="68"/>
+      <c r="AG887" s="68"/>
+      <c r="AH887" s="68"/>
+    </row>
+    <row r="1100" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B1100" s="68"/>
+      <c r="C1100" s="68"/>
+      <c r="D1100" s="68"/>
+      <c r="E1100" s="68"/>
+      <c r="F1100" s="68"/>
+      <c r="G1100" s="68"/>
+      <c r="H1100" s="68"/>
+      <c r="I1100" s="68"/>
+      <c r="J1100" s="68"/>
+      <c r="K1100" s="68"/>
+      <c r="L1100" s="68"/>
+      <c r="M1100" s="68"/>
+      <c r="N1100" s="68"/>
+      <c r="O1100" s="68"/>
+      <c r="P1100" s="68"/>
+      <c r="Q1100" s="68"/>
+      <c r="R1100" s="68"/>
+      <c r="S1100" s="68"/>
+      <c r="T1100" s="68"/>
+      <c r="U1100" s="68"/>
+      <c r="V1100" s="68"/>
+      <c r="W1100" s="68"/>
+      <c r="X1100" s="68"/>
+      <c r="Y1100" s="68"/>
+      <c r="Z1100" s="68"/>
+      <c r="AA1100" s="68"/>
+      <c r="AB1100" s="68"/>
+      <c r="AC1100" s="68"/>
+      <c r="AD1100" s="68"/>
+      <c r="AE1100" s="68"/>
+      <c r="AF1100" s="68"/>
+      <c r="AG1100" s="68"/>
+      <c r="AH1100" s="68"/>
+    </row>
+    <row r="1227" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B1227" s="68"/>
+      <c r="C1227" s="68"/>
+      <c r="D1227" s="68"/>
+      <c r="E1227" s="68"/>
+      <c r="F1227" s="68"/>
+      <c r="G1227" s="68"/>
+      <c r="H1227" s="68"/>
+      <c r="I1227" s="68"/>
+      <c r="J1227" s="68"/>
+      <c r="K1227" s="68"/>
+      <c r="L1227" s="68"/>
+      <c r="M1227" s="68"/>
+      <c r="N1227" s="68"/>
+      <c r="O1227" s="68"/>
+      <c r="P1227" s="68"/>
+      <c r="Q1227" s="68"/>
+      <c r="R1227" s="68"/>
+      <c r="S1227" s="68"/>
+      <c r="T1227" s="68"/>
+      <c r="U1227" s="68"/>
+      <c r="V1227" s="68"/>
+      <c r="W1227" s="68"/>
+      <c r="X1227" s="68"/>
+      <c r="Y1227" s="68"/>
+      <c r="Z1227" s="68"/>
+      <c r="AA1227" s="68"/>
+      <c r="AB1227" s="68"/>
+      <c r="AC1227" s="68"/>
+      <c r="AD1227" s="68"/>
+      <c r="AE1227" s="68"/>
+      <c r="AF1227" s="68"/>
+      <c r="AG1227" s="68"/>
+      <c r="AH1227" s="68"/>
+    </row>
+    <row r="1390" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B1390" s="68"/>
+      <c r="C1390" s="68"/>
+      <c r="D1390" s="68"/>
+      <c r="E1390" s="68"/>
+      <c r="F1390" s="68"/>
+      <c r="G1390" s="68"/>
+      <c r="H1390" s="68"/>
+      <c r="I1390" s="68"/>
+      <c r="J1390" s="68"/>
+      <c r="K1390" s="68"/>
+      <c r="L1390" s="68"/>
+      <c r="M1390" s="68"/>
+      <c r="N1390" s="68"/>
+      <c r="O1390" s="68"/>
+      <c r="P1390" s="68"/>
+      <c r="Q1390" s="68"/>
+      <c r="R1390" s="68"/>
+      <c r="S1390" s="68"/>
+      <c r="T1390" s="68"/>
+      <c r="U1390" s="68"/>
+      <c r="V1390" s="68"/>
+      <c r="W1390" s="68"/>
+      <c r="X1390" s="68"/>
+      <c r="Y1390" s="68"/>
+      <c r="Z1390" s="68"/>
+      <c r="AA1390" s="68"/>
+      <c r="AB1390" s="68"/>
+      <c r="AC1390" s="68"/>
+      <c r="AD1390" s="68"/>
+      <c r="AE1390" s="68"/>
+      <c r="AF1390" s="68"/>
+      <c r="AG1390" s="68"/>
+      <c r="AH1390" s="68"/>
+    </row>
+    <row r="1502" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B1502" s="68"/>
+      <c r="C1502" s="68"/>
+      <c r="D1502" s="68"/>
+      <c r="E1502" s="68"/>
+      <c r="F1502" s="68"/>
+      <c r="G1502" s="68"/>
+      <c r="H1502" s="68"/>
+      <c r="I1502" s="68"/>
+      <c r="J1502" s="68"/>
+      <c r="K1502" s="68"/>
+      <c r="L1502" s="68"/>
+      <c r="M1502" s="68"/>
+      <c r="N1502" s="68"/>
+      <c r="O1502" s="68"/>
+      <c r="P1502" s="68"/>
+      <c r="Q1502" s="68"/>
+      <c r="R1502" s="68"/>
+      <c r="S1502" s="68"/>
+      <c r="T1502" s="68"/>
+      <c r="U1502" s="68"/>
+      <c r="V1502" s="68"/>
+      <c r="W1502" s="68"/>
+      <c r="X1502" s="68"/>
+      <c r="Y1502" s="68"/>
+      <c r="Z1502" s="68"/>
+      <c r="AA1502" s="68"/>
+      <c r="AB1502" s="68"/>
+      <c r="AC1502" s="68"/>
+      <c r="AD1502" s="68"/>
+      <c r="AE1502" s="68"/>
+      <c r="AF1502" s="68"/>
+      <c r="AG1502" s="68"/>
+      <c r="AH1502" s="68"/>
+    </row>
+    <row r="1604" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B1604" s="68"/>
+      <c r="C1604" s="68"/>
+      <c r="D1604" s="68"/>
+      <c r="E1604" s="68"/>
+      <c r="F1604" s="68"/>
+      <c r="G1604" s="68"/>
+      <c r="H1604" s="68"/>
+      <c r="I1604" s="68"/>
+      <c r="J1604" s="68"/>
+      <c r="K1604" s="68"/>
+      <c r="L1604" s="68"/>
+      <c r="M1604" s="68"/>
+      <c r="N1604" s="68"/>
+      <c r="O1604" s="68"/>
+      <c r="P1604" s="68"/>
+      <c r="Q1604" s="68"/>
+      <c r="R1604" s="68"/>
+      <c r="S1604" s="68"/>
+      <c r="T1604" s="68"/>
+      <c r="U1604" s="68"/>
+      <c r="V1604" s="68"/>
+      <c r="W1604" s="68"/>
+      <c r="X1604" s="68"/>
+      <c r="Y1604" s="68"/>
+      <c r="Z1604" s="68"/>
+      <c r="AA1604" s="68"/>
+      <c r="AB1604" s="68"/>
+      <c r="AC1604" s="68"/>
+      <c r="AD1604" s="68"/>
+      <c r="AE1604" s="68"/>
+      <c r="AF1604" s="68"/>
+      <c r="AG1604" s="68"/>
+      <c r="AH1604" s="68"/>
+    </row>
+    <row r="1698" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B1698" s="68"/>
+      <c r="C1698" s="68"/>
+      <c r="D1698" s="68"/>
+      <c r="E1698" s="68"/>
+      <c r="F1698" s="68"/>
+      <c r="G1698" s="68"/>
+      <c r="H1698" s="68"/>
+      <c r="I1698" s="68"/>
+      <c r="J1698" s="68"/>
+      <c r="K1698" s="68"/>
+      <c r="L1698" s="68"/>
+      <c r="M1698" s="68"/>
+      <c r="N1698" s="68"/>
+      <c r="O1698" s="68"/>
+      <c r="P1698" s="68"/>
+      <c r="Q1698" s="68"/>
+      <c r="R1698" s="68"/>
+      <c r="S1698" s="68"/>
+      <c r="T1698" s="68"/>
+      <c r="U1698" s="68"/>
+      <c r="V1698" s="68"/>
+      <c r="W1698" s="68"/>
+      <c r="X1698" s="68"/>
+      <c r="Y1698" s="68"/>
+      <c r="Z1698" s="68"/>
+      <c r="AA1698" s="68"/>
+      <c r="AB1698" s="68"/>
+      <c r="AC1698" s="68"/>
+      <c r="AD1698" s="68"/>
+      <c r="AE1698" s="68"/>
+      <c r="AF1698" s="68"/>
+      <c r="AG1698" s="68"/>
+      <c r="AH1698" s="68"/>
+    </row>
+    <row r="1945" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B1945" s="68"/>
+      <c r="C1945" s="68"/>
+      <c r="D1945" s="68"/>
+      <c r="E1945" s="68"/>
+      <c r="F1945" s="68"/>
+      <c r="G1945" s="68"/>
+      <c r="H1945" s="68"/>
+      <c r="I1945" s="68"/>
+      <c r="J1945" s="68"/>
+      <c r="K1945" s="68"/>
+      <c r="L1945" s="68"/>
+      <c r="M1945" s="68"/>
+      <c r="N1945" s="68"/>
+      <c r="O1945" s="68"/>
+      <c r="P1945" s="68"/>
+      <c r="Q1945" s="68"/>
+      <c r="R1945" s="68"/>
+      <c r="S1945" s="68"/>
+      <c r="T1945" s="68"/>
+      <c r="U1945" s="68"/>
+      <c r="V1945" s="68"/>
+      <c r="W1945" s="68"/>
+      <c r="X1945" s="68"/>
+      <c r="Y1945" s="68"/>
+      <c r="Z1945" s="68"/>
+      <c r="AA1945" s="68"/>
+      <c r="AB1945" s="68"/>
+      <c r="AC1945" s="68"/>
+      <c r="AD1945" s="68"/>
+      <c r="AE1945" s="68"/>
+      <c r="AF1945" s="68"/>
+      <c r="AG1945" s="68"/>
+      <c r="AH1945" s="68"/>
+    </row>
+    <row r="2031" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B2031" s="68"/>
+      <c r="C2031" s="68"/>
+      <c r="D2031" s="68"/>
+      <c r="E2031" s="68"/>
+      <c r="F2031" s="68"/>
+      <c r="G2031" s="68"/>
+      <c r="H2031" s="68"/>
+      <c r="I2031" s="68"/>
+      <c r="J2031" s="68"/>
+      <c r="K2031" s="68"/>
+      <c r="L2031" s="68"/>
+      <c r="M2031" s="68"/>
+      <c r="N2031" s="68"/>
+      <c r="O2031" s="68"/>
+      <c r="P2031" s="68"/>
+      <c r="Q2031" s="68"/>
+      <c r="R2031" s="68"/>
+      <c r="S2031" s="68"/>
+      <c r="T2031" s="68"/>
+      <c r="U2031" s="68"/>
+      <c r="V2031" s="68"/>
+      <c r="W2031" s="68"/>
+      <c r="X2031" s="68"/>
+      <c r="Y2031" s="68"/>
+      <c r="Z2031" s="68"/>
+      <c r="AA2031" s="68"/>
+      <c r="AB2031" s="68"/>
+      <c r="AC2031" s="68"/>
+      <c r="AD2031" s="68"/>
+      <c r="AE2031" s="68"/>
+      <c r="AF2031" s="68"/>
+      <c r="AG2031" s="68"/>
+      <c r="AH2031" s="68"/>
+    </row>
+    <row r="2153" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B2153" s="68"/>
+      <c r="C2153" s="68"/>
+      <c r="D2153" s="68"/>
+      <c r="E2153" s="68"/>
+      <c r="F2153" s="68"/>
+      <c r="G2153" s="68"/>
+      <c r="H2153" s="68"/>
+      <c r="I2153" s="68"/>
+      <c r="J2153" s="68"/>
+      <c r="K2153" s="68"/>
+      <c r="L2153" s="68"/>
+      <c r="M2153" s="68"/>
+      <c r="N2153" s="68"/>
+      <c r="O2153" s="68"/>
+      <c r="P2153" s="68"/>
+      <c r="Q2153" s="68"/>
+      <c r="R2153" s="68"/>
+      <c r="S2153" s="68"/>
+      <c r="T2153" s="68"/>
+      <c r="U2153" s="68"/>
+      <c r="V2153" s="68"/>
+      <c r="W2153" s="68"/>
+      <c r="X2153" s="68"/>
+      <c r="Y2153" s="68"/>
+      <c r="Z2153" s="68"/>
+      <c r="AA2153" s="68"/>
+      <c r="AB2153" s="68"/>
+      <c r="AC2153" s="68"/>
+      <c r="AD2153" s="68"/>
+      <c r="AE2153" s="68"/>
+      <c r="AF2153" s="68"/>
+      <c r="AG2153" s="68"/>
+      <c r="AH2153" s="68"/>
+    </row>
+    <row r="2317" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B2317" s="68"/>
+      <c r="C2317" s="68"/>
+      <c r="D2317" s="68"/>
+      <c r="E2317" s="68"/>
+      <c r="F2317" s="68"/>
+      <c r="G2317" s="68"/>
+      <c r="H2317" s="68"/>
+      <c r="I2317" s="68"/>
+      <c r="J2317" s="68"/>
+      <c r="K2317" s="68"/>
+      <c r="L2317" s="68"/>
+      <c r="M2317" s="68"/>
+      <c r="N2317" s="68"/>
+      <c r="O2317" s="68"/>
+      <c r="P2317" s="68"/>
+      <c r="Q2317" s="68"/>
+      <c r="R2317" s="68"/>
+      <c r="S2317" s="68"/>
+      <c r="T2317" s="68"/>
+      <c r="U2317" s="68"/>
+      <c r="V2317" s="68"/>
+      <c r="W2317" s="68"/>
+      <c r="X2317" s="68"/>
+      <c r="Y2317" s="68"/>
+      <c r="Z2317" s="68"/>
+      <c r="AA2317" s="68"/>
+      <c r="AB2317" s="68"/>
+      <c r="AC2317" s="68"/>
+      <c r="AD2317" s="68"/>
+      <c r="AE2317" s="68"/>
+      <c r="AF2317" s="68"/>
+      <c r="AG2317" s="68"/>
+      <c r="AH2317" s="68"/>
+    </row>
+    <row r="2419" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B2419" s="68"/>
+      <c r="C2419" s="68"/>
+      <c r="D2419" s="68"/>
+      <c r="E2419" s="68"/>
+      <c r="F2419" s="68"/>
+      <c r="G2419" s="68"/>
+      <c r="H2419" s="68"/>
+      <c r="I2419" s="68"/>
+      <c r="J2419" s="68"/>
+      <c r="K2419" s="68"/>
+      <c r="L2419" s="68"/>
+      <c r="M2419" s="68"/>
+      <c r="N2419" s="68"/>
+      <c r="O2419" s="68"/>
+      <c r="P2419" s="68"/>
+      <c r="Q2419" s="68"/>
+      <c r="R2419" s="68"/>
+      <c r="S2419" s="68"/>
+      <c r="T2419" s="68"/>
+      <c r="U2419" s="68"/>
+      <c r="V2419" s="68"/>
+      <c r="W2419" s="68"/>
+      <c r="X2419" s="68"/>
+      <c r="Y2419" s="68"/>
+      <c r="Z2419" s="68"/>
+      <c r="AA2419" s="68"/>
+      <c r="AB2419" s="68"/>
+      <c r="AC2419" s="68"/>
+      <c r="AD2419" s="68"/>
+      <c r="AE2419" s="68"/>
+      <c r="AF2419" s="68"/>
+      <c r="AG2419" s="68"/>
+      <c r="AH2419" s="68"/>
+    </row>
+    <row r="2509" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B2509" s="68"/>
+      <c r="C2509" s="68"/>
+      <c r="D2509" s="68"/>
+      <c r="E2509" s="68"/>
+      <c r="F2509" s="68"/>
+      <c r="G2509" s="68"/>
+      <c r="H2509" s="68"/>
+      <c r="I2509" s="68"/>
+      <c r="J2509" s="68"/>
+      <c r="K2509" s="68"/>
+      <c r="L2509" s="68"/>
+      <c r="M2509" s="68"/>
+      <c r="N2509" s="68"/>
+      <c r="O2509" s="68"/>
+      <c r="P2509" s="68"/>
+      <c r="Q2509" s="68"/>
+      <c r="R2509" s="68"/>
+      <c r="S2509" s="68"/>
+      <c r="T2509" s="68"/>
+      <c r="U2509" s="68"/>
+      <c r="V2509" s="68"/>
+      <c r="W2509" s="68"/>
+      <c r="X2509" s="68"/>
+      <c r="Y2509" s="68"/>
+      <c r="Z2509" s="68"/>
+      <c r="AA2509" s="68"/>
+      <c r="AB2509" s="68"/>
+      <c r="AC2509" s="68"/>
+      <c r="AD2509" s="68"/>
+      <c r="AE2509" s="68"/>
+      <c r="AF2509" s="68"/>
+      <c r="AG2509" s="68"/>
+      <c r="AH2509" s="68"/>
+    </row>
+    <row r="2598" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B2598" s="68"/>
+      <c r="C2598" s="68"/>
+      <c r="D2598" s="68"/>
+      <c r="E2598" s="68"/>
+      <c r="F2598" s="68"/>
+      <c r="G2598" s="68"/>
+      <c r="H2598" s="68"/>
+      <c r="I2598" s="68"/>
+      <c r="J2598" s="68"/>
+      <c r="K2598" s="68"/>
+      <c r="L2598" s="68"/>
+      <c r="M2598" s="68"/>
+      <c r="N2598" s="68"/>
+      <c r="O2598" s="68"/>
+      <c r="P2598" s="68"/>
+      <c r="Q2598" s="68"/>
+      <c r="R2598" s="68"/>
+      <c r="S2598" s="68"/>
+      <c r="T2598" s="68"/>
+      <c r="U2598" s="68"/>
+      <c r="V2598" s="68"/>
+      <c r="W2598" s="68"/>
+      <c r="X2598" s="68"/>
+      <c r="Y2598" s="68"/>
+      <c r="Z2598" s="68"/>
+      <c r="AA2598" s="68"/>
+      <c r="AB2598" s="68"/>
+      <c r="AC2598" s="68"/>
+      <c r="AD2598" s="68"/>
+      <c r="AE2598" s="68"/>
+      <c r="AF2598" s="68"/>
+      <c r="AG2598" s="68"/>
+      <c r="AH2598" s="68"/>
+    </row>
+    <row r="2719" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B2719" s="68"/>
+      <c r="C2719" s="68"/>
+      <c r="D2719" s="68"/>
+      <c r="E2719" s="68"/>
+      <c r="F2719" s="68"/>
+      <c r="G2719" s="68"/>
+      <c r="H2719" s="68"/>
+      <c r="I2719" s="68"/>
+      <c r="J2719" s="68"/>
+      <c r="K2719" s="68"/>
+      <c r="L2719" s="68"/>
+      <c r="M2719" s="68"/>
+      <c r="N2719" s="68"/>
+      <c r="O2719" s="68"/>
+      <c r="P2719" s="68"/>
+      <c r="Q2719" s="68"/>
+      <c r="R2719" s="68"/>
+      <c r="S2719" s="68"/>
+      <c r="T2719" s="68"/>
+      <c r="U2719" s="68"/>
+      <c r="V2719" s="68"/>
+      <c r="W2719" s="68"/>
+      <c r="X2719" s="68"/>
+      <c r="Y2719" s="68"/>
+      <c r="Z2719" s="68"/>
+      <c r="AA2719" s="68"/>
+      <c r="AB2719" s="68"/>
+      <c r="AC2719" s="68"/>
+      <c r="AD2719" s="68"/>
+      <c r="AE2719" s="68"/>
+      <c r="AF2719" s="68"/>
+      <c r="AG2719" s="68"/>
+      <c r="AH2719" s="68"/>
+    </row>
+    <row r="2837" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B2837" s="68"/>
+      <c r="C2837" s="68"/>
+      <c r="D2837" s="68"/>
+      <c r="E2837" s="68"/>
+      <c r="F2837" s="68"/>
+      <c r="G2837" s="68"/>
+      <c r="H2837" s="68"/>
+      <c r="I2837" s="68"/>
+      <c r="J2837" s="68"/>
+      <c r="K2837" s="68"/>
+      <c r="L2837" s="68"/>
+      <c r="M2837" s="68"/>
+      <c r="N2837" s="68"/>
+      <c r="O2837" s="68"/>
+      <c r="P2837" s="68"/>
+      <c r="Q2837" s="68"/>
+      <c r="R2837" s="68"/>
+      <c r="S2837" s="68"/>
+      <c r="T2837" s="68"/>
+      <c r="U2837" s="68"/>
+      <c r="V2837" s="68"/>
+      <c r="W2837" s="68"/>
+      <c r="X2837" s="68"/>
+      <c r="Y2837" s="68"/>
+      <c r="Z2837" s="68"/>
+      <c r="AA2837" s="68"/>
+      <c r="AB2837" s="68"/>
+      <c r="AC2837" s="68"/>
+      <c r="AD2837" s="68"/>
+      <c r="AE2837" s="68"/>
+      <c r="AF2837" s="68"/>
+      <c r="AG2837" s="68"/>
+      <c r="AH2837" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B2598:AH2598"/>
-    <mergeCell ref="B1502:AH1502"/>
-    <mergeCell ref="B1604:AH1604"/>
-    <mergeCell ref="B1698:AH1698"/>
-    <mergeCell ref="B2719:AH2719"/>
-    <mergeCell ref="B2837:AH2837"/>
-    <mergeCell ref="B2031:AH2031"/>
-    <mergeCell ref="B2153:AH2153"/>
-    <mergeCell ref="B2317:AH2317"/>
-    <mergeCell ref="B2419:AH2419"/>
-    <mergeCell ref="B2509:AH2509"/>
     <mergeCell ref="B69:AG69"/>
     <mergeCell ref="B1945:AH1945"/>
     <mergeCell ref="B112:AH112"/>
@@ -48027,6 +48029,17 @@
     <mergeCell ref="B1100:AH1100"/>
     <mergeCell ref="B1227:AH1227"/>
     <mergeCell ref="B1390:AH1390"/>
+    <mergeCell ref="B2837:AH2837"/>
+    <mergeCell ref="B2031:AH2031"/>
+    <mergeCell ref="B2153:AH2153"/>
+    <mergeCell ref="B2317:AH2317"/>
+    <mergeCell ref="B2419:AH2419"/>
+    <mergeCell ref="B2509:AH2509"/>
+    <mergeCell ref="B2598:AH2598"/>
+    <mergeCell ref="B1502:AH1502"/>
+    <mergeCell ref="B1604:AH1604"/>
+    <mergeCell ref="B1698:AH1698"/>
+    <mergeCell ref="B2719:AH2719"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
@@ -48042,16 +48055,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="36.5703125" customWidth="1"/>
-    <col min="2" max="26" width="10.140625" customWidth="1"/>
-    <col min="27" max="27" width="13.85546875" customWidth="1"/>
-    <col min="28" max="28" width="10.7109375" customWidth="1"/>
-    <col min="29" max="43" width="10.140625" customWidth="1"/>
+    <col min="1" max="1" width="36.54296875" customWidth="1"/>
+    <col min="2" max="26" width="10.1328125" customWidth="1"/>
+    <col min="27" max="27" width="13.86328125" customWidth="1"/>
+    <col min="28" max="28" width="10.7265625" customWidth="1"/>
+    <col min="29" max="43" width="10.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A1" s="2" t="s">
         <v>758</v>
       </c>
@@ -48182,7 +48195,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>759</v>
       </c>
